--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R327"/>
+  <dimension ref="A1:R328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19296,6 +19296,64 @@
         <v>47</v>
       </c>
     </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2021/02/19</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>327</v>
+      </c>
+      <c r="C328" t="n">
+        <v>7931</v>
+      </c>
+      <c r="D328" t="n">
+        <v>164</v>
+      </c>
+      <c r="E328" t="n">
+        <v>157</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.02067835077543815</v>
+      </c>
+      <c r="G328" t="n">
+        <v>7588</v>
+      </c>
+      <c r="H328" t="n">
+        <v>18288</v>
+      </c>
+      <c r="I328" t="n">
+        <v>26219</v>
+      </c>
+      <c r="J328" t="n">
+        <v>33</v>
+      </c>
+      <c r="K328" t="n">
+        <v>355</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
+        <v>355</v>
+      </c>
+      <c r="N328" t="n">
+        <v>64</v>
+      </c>
+      <c r="O328" t="n">
+        <v>24</v>
+      </c>
+      <c r="P328" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>1</v>
+      </c>
+      <c r="R328" t="n">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R328"/>
+  <dimension ref="A1:R330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19354,6 +19354,122 @@
         <v>47</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2021/02/20</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>328</v>
+      </c>
+      <c r="C329" t="n">
+        <v>7957</v>
+      </c>
+      <c r="D329" t="n">
+        <v>166</v>
+      </c>
+      <c r="E329" t="n">
+        <v>158</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.02086213397008923</v>
+      </c>
+      <c r="G329" t="n">
+        <v>7611</v>
+      </c>
+      <c r="H329" t="n">
+        <v>18343</v>
+      </c>
+      <c r="I329" t="n">
+        <v>26300</v>
+      </c>
+      <c r="J329" t="n">
+        <v>26</v>
+      </c>
+      <c r="K329" t="n">
+        <v>307</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M329" t="n">
+        <v>307</v>
+      </c>
+      <c r="N329" t="n">
+        <v>81</v>
+      </c>
+      <c r="O329" t="n">
+        <v>22</v>
+      </c>
+      <c r="P329" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>2</v>
+      </c>
+      <c r="R329" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2021/02/21</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>329</v>
+      </c>
+      <c r="C330" t="n">
+        <v>7963</v>
+      </c>
+      <c r="D330" t="n">
+        <v>167</v>
+      </c>
+      <c r="E330" t="n">
+        <v>139</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.0209719954790908</v>
+      </c>
+      <c r="G330" t="n">
+        <v>7635</v>
+      </c>
+      <c r="H330" t="n">
+        <v>18343</v>
+      </c>
+      <c r="I330" t="n">
+        <v>26306</v>
+      </c>
+      <c r="J330" t="n">
+        <v>6</v>
+      </c>
+      <c r="K330" t="n">
+        <v>309</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M330" t="n">
+        <v>309</v>
+      </c>
+      <c r="N330" t="n">
+        <v>6</v>
+      </c>
+      <c r="O330" t="n">
+        <v>26</v>
+      </c>
+      <c r="P330" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>1</v>
+      </c>
+      <c r="R330" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R330"/>
+  <dimension ref="A1:R331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19470,6 +19470,64 @@
         <v>48</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2021/02/22</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>330</v>
+      </c>
+      <c r="C331" t="n">
+        <v>8023</v>
+      </c>
+      <c r="D331" t="n">
+        <v>169</v>
+      </c>
+      <c r="E331" t="n">
+        <v>163</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.02106443973575969</v>
+      </c>
+      <c r="G331" t="n">
+        <v>7669</v>
+      </c>
+      <c r="H331" t="n">
+        <v>18425</v>
+      </c>
+      <c r="I331" t="n">
+        <v>26448</v>
+      </c>
+      <c r="J331" t="n">
+        <v>60</v>
+      </c>
+      <c r="K331" t="n">
+        <v>279</v>
+      </c>
+      <c r="L331" t="n">
+        <v>2</v>
+      </c>
+      <c r="M331" t="n">
+        <v>277</v>
+      </c>
+      <c r="N331" t="n">
+        <v>142</v>
+      </c>
+      <c r="O331" t="n">
+        <v>26</v>
+      </c>
+      <c r="P331" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R331" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R331"/>
+  <dimension ref="A1:R333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19528,6 +19528,122 @@
         <v>48</v>
       </c>
     </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2021/02/23</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>331</v>
+      </c>
+      <c r="C332" t="n">
+        <v>8110</v>
+      </c>
+      <c r="D332" t="n">
+        <v>169</v>
+      </c>
+      <c r="E332" t="n">
+        <v>335</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.02083847102342787</v>
+      </c>
+      <c r="G332" t="n">
+        <v>7775</v>
+      </c>
+      <c r="H332" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I332" t="n">
+        <v>26666</v>
+      </c>
+      <c r="J332" t="n">
+        <v>87</v>
+      </c>
+      <c r="K332" t="n">
+        <v>332</v>
+      </c>
+      <c r="L332" t="n">
+        <v>3</v>
+      </c>
+      <c r="M332" t="n">
+        <v>329</v>
+      </c>
+      <c r="N332" t="n">
+        <v>218</v>
+      </c>
+      <c r="O332" t="n">
+        <v>28</v>
+      </c>
+      <c r="P332" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2021/02/24</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>332</v>
+      </c>
+      <c r="C333" t="n">
+        <v>8222</v>
+      </c>
+      <c r="D333" t="n">
+        <v>172</v>
+      </c>
+      <c r="E333" t="n">
+        <v>135</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.02091948431038677</v>
+      </c>
+      <c r="G333" t="n">
+        <v>7892</v>
+      </c>
+      <c r="H333" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I333" t="n">
+        <v>26778</v>
+      </c>
+      <c r="J333" t="n">
+        <v>112</v>
+      </c>
+      <c r="K333" t="n">
+        <v>419</v>
+      </c>
+      <c r="L333" t="n">
+        <v>3</v>
+      </c>
+      <c r="M333" t="n">
+        <v>416</v>
+      </c>
+      <c r="N333" t="n">
+        <v>112</v>
+      </c>
+      <c r="O333" t="n">
+        <v>34</v>
+      </c>
+      <c r="P333" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>3</v>
+      </c>
+      <c r="R333" t="n">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -6585,7 +6585,7 @@
         <v>33</v>
       </c>
       <c r="P108" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -6701,7 +6701,7 @@
         <v>33</v>
       </c>
       <c r="P110" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q110" t="n">
         <v>2</v>
@@ -6759,7 +6759,7 @@
         <v>36</v>
       </c>
       <c r="P111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -6817,7 +6817,7 @@
         <v>36</v>
       </c>
       <c r="P112" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q112" t="n">
         <v>3</v>
@@ -6875,7 +6875,7 @@
         <v>31</v>
       </c>
       <c r="P113" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -6933,7 +6933,7 @@
         <v>30</v>
       </c>
       <c r="P114" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q114" t="n">
         <v>1</v>
@@ -6991,7 +6991,7 @@
         <v>27</v>
       </c>
       <c r="P115" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>26</v>
       </c>
       <c r="P116" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q116" t="n">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>33</v>
       </c>
       <c r="P117" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q117" t="n">
         <v>3</v>
@@ -7165,7 +7165,7 @@
         <v>31</v>
       </c>
       <c r="P118" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
@@ -7223,7 +7223,7 @@
         <v>26</v>
       </c>
       <c r="P119" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q119" t="n">
         <v>2</v>
@@ -7281,7 +7281,7 @@
         <v>28</v>
       </c>
       <c r="P120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q120" t="n">
         <v>1</v>
@@ -7339,7 +7339,7 @@
         <v>28</v>
       </c>
       <c r="P121" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q121" t="n">
         <v>1</v>
@@ -7394,10 +7394,10 @@
         <v>113</v>
       </c>
       <c r="O122" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P122" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -7452,10 +7452,10 @@
         <v>109</v>
       </c>
       <c r="O123" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P123" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -7510,10 +7510,10 @@
         <v>118</v>
       </c>
       <c r="O124" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P124" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q124" t="n">
         <v>1</v>
@@ -7568,10 +7568,10 @@
         <v>168</v>
       </c>
       <c r="O125" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P125" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -7626,10 +7626,10 @@
         <v>140</v>
       </c>
       <c r="O126" t="n">
+        <v>24</v>
+      </c>
+      <c r="P126" t="n">
         <v>23</v>
-      </c>
-      <c r="P126" t="n">
-        <v>20</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -7684,10 +7684,10 @@
         <v>29</v>
       </c>
       <c r="O127" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P127" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>22</v>
       </c>
       <c r="P128" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>24</v>
       </c>
       <c r="P129" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q129" t="n">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>23</v>
       </c>
       <c r="P130" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q130" t="n">
         <v>2</v>
@@ -7916,10 +7916,10 @@
         <v>143</v>
       </c>
       <c r="O131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P131" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -7977,7 +7977,7 @@
         <v>25</v>
       </c>
       <c r="P132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q132" t="n">
         <v>1</v>
@@ -8090,7 +8090,7 @@
         <v>4</v>
       </c>
       <c r="O134" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P134" t="n">
         <v>15</v>
@@ -8206,7 +8206,7 @@
         <v>115</v>
       </c>
       <c r="O136" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P136" t="n">
         <v>12</v>
@@ -8264,7 +8264,7 @@
         <v>139</v>
       </c>
       <c r="O137" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P137" t="n">
         <v>11</v>
@@ -15807,7 +15807,7 @@
         <v>17</v>
       </c>
       <c r="P267" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q267" t="n">
         <v>0</v>
@@ -15865,7 +15865,7 @@
         <v>21</v>
       </c>
       <c r="P268" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q268" t="n">
         <v>2</v>
@@ -15923,7 +15923,7 @@
         <v>17</v>
       </c>
       <c r="P269" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q269" t="n">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>13</v>
       </c>
       <c r="O288" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P288" t="n">
         <v>12</v>
@@ -17080,7 +17080,7 @@
         <v>107</v>
       </c>
       <c r="O289" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P289" t="n">
         <v>11</v>
@@ -17138,7 +17138,7 @@
         <v>278</v>
       </c>
       <c r="O290" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P290" t="n">
         <v>11</v>
@@ -19287,7 +19287,7 @@
         <v>23</v>
       </c>
       <c r="P327" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q327" t="n">
         <v>1</v>
@@ -19345,7 +19345,7 @@
         <v>24</v>
       </c>
       <c r="P328" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q328" t="n">
         <v>1</v>
@@ -19403,7 +19403,7 @@
         <v>22</v>
       </c>
       <c r="P329" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q329" t="n">
         <v>2</v>
@@ -19516,10 +19516,10 @@
         <v>142</v>
       </c>
       <c r="O331" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P331" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q331" t="n">
         <v>2</v>
@@ -19574,10 +19574,10 @@
         <v>218</v>
       </c>
       <c r="O332" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P332" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Q332" t="n">
         <v>0</v>
@@ -19632,10 +19632,10 @@
         <v>112</v>
       </c>
       <c r="O333" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P333" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q333" t="n">
         <v>3</v>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R333"/>
+  <dimension ref="A1:R338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19644,6 +19644,294 @@
         <v>48</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2021/02/25</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>333</v>
+      </c>
+      <c r="C334" t="n">
+        <v>8222</v>
+      </c>
+      <c r="D334" t="n">
+        <v>172</v>
+      </c>
+      <c r="E334" t="n">
+        <v>135</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.02091948431038677</v>
+      </c>
+      <c r="G334" t="n">
+        <v>7892</v>
+      </c>
+      <c r="H334" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I334" t="n">
+        <v>26778</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>419</v>
+      </c>
+      <c r="L334" t="n">
+        <v>3</v>
+      </c>
+      <c r="M334" t="n">
+        <v>416</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0</v>
+      </c>
+      <c r="O334" t="n">
+        <v>35</v>
+      </c>
+      <c r="P334" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2021/02/26</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>334</v>
+      </c>
+      <c r="C335" t="n">
+        <v>8222</v>
+      </c>
+      <c r="D335" t="n">
+        <v>172</v>
+      </c>
+      <c r="E335" t="n">
+        <v>135</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.02091948431038677</v>
+      </c>
+      <c r="G335" t="n">
+        <v>7892</v>
+      </c>
+      <c r="H335" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I335" t="n">
+        <v>26778</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>419</v>
+      </c>
+      <c r="L335" t="n">
+        <v>3</v>
+      </c>
+      <c r="M335" t="n">
+        <v>416</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0</v>
+      </c>
+      <c r="O335" t="n">
+        <v>35</v>
+      </c>
+      <c r="P335" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R335" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2021/02/27</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>335</v>
+      </c>
+      <c r="C336" t="n">
+        <v>8222</v>
+      </c>
+      <c r="D336" t="n">
+        <v>172</v>
+      </c>
+      <c r="E336" t="n">
+        <v>135</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.02091948431038677</v>
+      </c>
+      <c r="G336" t="n">
+        <v>7892</v>
+      </c>
+      <c r="H336" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I336" t="n">
+        <v>26778</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>419</v>
+      </c>
+      <c r="L336" t="n">
+        <v>3</v>
+      </c>
+      <c r="M336" t="n">
+        <v>416</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+      <c r="O336" t="n">
+        <v>35</v>
+      </c>
+      <c r="P336" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R336" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2021/02/28</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>336</v>
+      </c>
+      <c r="C337" t="n">
+        <v>8222</v>
+      </c>
+      <c r="D337" t="n">
+        <v>172</v>
+      </c>
+      <c r="E337" t="n">
+        <v>135</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.02091948431038677</v>
+      </c>
+      <c r="G337" t="n">
+        <v>7892</v>
+      </c>
+      <c r="H337" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I337" t="n">
+        <v>26778</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>419</v>
+      </c>
+      <c r="L337" t="n">
+        <v>3</v>
+      </c>
+      <c r="M337" t="n">
+        <v>416</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0</v>
+      </c>
+      <c r="O337" t="n">
+        <v>35</v>
+      </c>
+      <c r="P337" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R337" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2021/03/01</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>337</v>
+      </c>
+      <c r="C338" t="n">
+        <v>8447</v>
+      </c>
+      <c r="D338" t="n">
+        <v>177</v>
+      </c>
+      <c r="E338" t="n">
+        <v>83</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.02095418491772227</v>
+      </c>
+      <c r="G338" t="n">
+        <v>8163</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="n">
+        <v>8447</v>
+      </c>
+      <c r="J338" t="n">
+        <v>225</v>
+      </c>
+      <c r="K338" t="n">
+        <v>502</v>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="n">
+        <v>501</v>
+      </c>
+      <c r="N338" t="n">
+        <v>-18331</v>
+      </c>
+      <c r="O338" t="n">
+        <v>32</v>
+      </c>
+      <c r="P338" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>5</v>
+      </c>
+      <c r="R338" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R338"/>
+  <dimension ref="A1:R339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19900,9 +19900,11 @@
       <c r="G338" t="n">
         <v>8163</v>
       </c>
-      <c r="H338" t="inlineStr"/>
+      <c r="H338" t="n">
+        <v>18556</v>
+      </c>
       <c r="I338" t="n">
-        <v>8447</v>
+        <v>27003</v>
       </c>
       <c r="J338" t="n">
         <v>225</v>
@@ -19917,7 +19919,7 @@
         <v>501</v>
       </c>
       <c r="N338" t="n">
-        <v>-18331</v>
+        <v>225</v>
       </c>
       <c r="O338" t="n">
         <v>32</v>
@@ -19929,6 +19931,64 @@
         <v>5</v>
       </c>
       <c r="R338" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2021/03/02</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>338</v>
+      </c>
+      <c r="C339" t="n">
+        <v>8502</v>
+      </c>
+      <c r="D339" t="n">
+        <v>179</v>
+      </c>
+      <c r="E339" t="n">
+        <v>97</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.02105386967772289</v>
+      </c>
+      <c r="G339" t="n">
+        <v>8202</v>
+      </c>
+      <c r="H339" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I339" t="n">
+        <v>27058</v>
+      </c>
+      <c r="J339" t="n">
+        <v>55</v>
+      </c>
+      <c r="K339" t="n">
+        <v>456</v>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="n">
+        <v>455</v>
+      </c>
+      <c r="N339" t="n">
+        <v>55</v>
+      </c>
+      <c r="O339" t="n">
+        <v>39</v>
+      </c>
+      <c r="P339" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>2</v>
+      </c>
+      <c r="R339" t="n">
         <v>49</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R339"/>
+  <dimension ref="A1:R340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19992,6 +19992,64 @@
         <v>49</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2021/03/03</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>339</v>
+      </c>
+      <c r="C340" t="n">
+        <v>8607</v>
+      </c>
+      <c r="D340" t="n">
+        <v>179</v>
+      </c>
+      <c r="E340" t="n">
+        <v>110</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.02079702567677472</v>
+      </c>
+      <c r="G340" t="n">
+        <v>8294</v>
+      </c>
+      <c r="H340" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I340" t="n">
+        <v>27163</v>
+      </c>
+      <c r="J340" t="n">
+        <v>105</v>
+      </c>
+      <c r="K340" t="n">
+        <v>459</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M340" t="n">
+        <v>459</v>
+      </c>
+      <c r="N340" t="n">
+        <v>105</v>
+      </c>
+      <c r="O340" t="n">
+        <v>45</v>
+      </c>
+      <c r="P340" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R340" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R340"/>
+  <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20050,6 +20050,64 @@
         <v>49</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2021/03/04</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>340</v>
+      </c>
+      <c r="C341" t="n">
+        <v>8793</v>
+      </c>
+      <c r="D341" t="n">
+        <v>182</v>
+      </c>
+      <c r="E341" t="n">
+        <v>102</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.0206982827248948</v>
+      </c>
+      <c r="G341" t="n">
+        <v>8485</v>
+      </c>
+      <c r="H341" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I341" t="n">
+        <v>27349</v>
+      </c>
+      <c r="J341" t="n">
+        <v>186</v>
+      </c>
+      <c r="K341" t="n">
+        <v>448</v>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="n">
+        <v>447</v>
+      </c>
+      <c r="N341" t="n">
+        <v>186</v>
+      </c>
+      <c r="O341" t="n">
+        <v>41</v>
+      </c>
+      <c r="P341" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>3</v>
+      </c>
+      <c r="R341" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R341"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20108,6 +20108,122 @@
         <v>49</v>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2021/03/05</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>341</v>
+      </c>
+      <c r="C342" t="n">
+        <v>8924</v>
+      </c>
+      <c r="D342" t="n">
+        <v>183</v>
+      </c>
+      <c r="E342" t="n">
+        <v>122</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.02050649932765576</v>
+      </c>
+      <c r="G342" t="n">
+        <v>8595</v>
+      </c>
+      <c r="H342" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I342" t="n">
+        <v>27480</v>
+      </c>
+      <c r="J342" t="n">
+        <v>131</v>
+      </c>
+      <c r="K342" t="n">
+        <v>471</v>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="n">
+        <v>470</v>
+      </c>
+      <c r="N342" t="n">
+        <v>131</v>
+      </c>
+      <c r="O342" t="n">
+        <v>41</v>
+      </c>
+      <c r="P342" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>1</v>
+      </c>
+      <c r="R342" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2021/03/06</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>342</v>
+      </c>
+      <c r="C343" t="n">
+        <v>8997</v>
+      </c>
+      <c r="D343" t="n">
+        <v>184</v>
+      </c>
+      <c r="E343" t="n">
+        <v>129</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.02045126153162165</v>
+      </c>
+      <c r="G343" t="n">
+        <v>8660</v>
+      </c>
+      <c r="H343" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I343" t="n">
+        <v>27553</v>
+      </c>
+      <c r="J343" t="n">
+        <v>73</v>
+      </c>
+      <c r="K343" t="n">
+        <v>412</v>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="n">
+        <v>411</v>
+      </c>
+      <c r="N343" t="n">
+        <v>73</v>
+      </c>
+      <c r="O343" t="n">
+        <v>41</v>
+      </c>
+      <c r="P343" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>1</v>
+      </c>
+      <c r="R343" t="n">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R343"/>
+  <dimension ref="A1:R344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20224,6 +20224,64 @@
         <v>49</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2021/03/07</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>343</v>
+      </c>
+      <c r="C344" t="n">
+        <v>9026</v>
+      </c>
+      <c r="D344" t="n">
+        <v>186</v>
+      </c>
+      <c r="E344" t="n">
+        <v>104</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.02060713494349656</v>
+      </c>
+      <c r="G344" t="n">
+        <v>8711</v>
+      </c>
+      <c r="H344" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I344" t="n">
+        <v>27582</v>
+      </c>
+      <c r="J344" t="n">
+        <v>29</v>
+      </c>
+      <c r="K344" t="n">
+        <v>411</v>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="n">
+        <v>410</v>
+      </c>
+      <c r="N344" t="n">
+        <v>29</v>
+      </c>
+      <c r="O344" t="n">
+        <v>40</v>
+      </c>
+      <c r="P344" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>2</v>
+      </c>
+      <c r="R344" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R344"/>
+  <dimension ref="A1:R346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20282,6 +20282,122 @@
         <v>50</v>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2021/03/08</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>344</v>
+      </c>
+      <c r="C345" t="n">
+        <v>9106</v>
+      </c>
+      <c r="D345" t="n">
+        <v>188</v>
+      </c>
+      <c r="E345" t="n">
+        <v>112</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.02064572809136833</v>
+      </c>
+      <c r="G345" t="n">
+        <v>8780</v>
+      </c>
+      <c r="H345" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I345" t="n">
+        <v>27662</v>
+      </c>
+      <c r="J345" t="n">
+        <v>80</v>
+      </c>
+      <c r="K345" t="n">
+        <v>519</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M345" t="n">
+        <v>519</v>
+      </c>
+      <c r="N345" t="n">
+        <v>80</v>
+      </c>
+      <c r="O345" t="n">
+        <v>40</v>
+      </c>
+      <c r="P345" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>2</v>
+      </c>
+      <c r="R345" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2021/03/09</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>345</v>
+      </c>
+      <c r="C346" t="n">
+        <v>9221</v>
+      </c>
+      <c r="D346" t="n">
+        <v>189</v>
+      </c>
+      <c r="E346" t="n">
+        <v>122</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.02049669233271879</v>
+      </c>
+      <c r="G346" t="n">
+        <v>8884</v>
+      </c>
+      <c r="H346" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I346" t="n">
+        <v>27777</v>
+      </c>
+      <c r="J346" t="n">
+        <v>115</v>
+      </c>
+      <c r="K346" t="n">
+        <v>454</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M346" t="n">
+        <v>454</v>
+      </c>
+      <c r="N346" t="n">
+        <v>115</v>
+      </c>
+      <c r="O346" t="n">
+        <v>48</v>
+      </c>
+      <c r="P346" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>1</v>
+      </c>
+      <c r="R346" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R346"/>
+  <dimension ref="A1:R348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20398,6 +20398,122 @@
         <v>50</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2021/03/10</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>346</v>
+      </c>
+      <c r="C347" t="n">
+        <v>9353</v>
+      </c>
+      <c r="D347" t="n">
+        <v>190</v>
+      </c>
+      <c r="E347" t="n">
+        <v>160</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.02031433764567519</v>
+      </c>
+      <c r="G347" t="n">
+        <v>8977</v>
+      </c>
+      <c r="H347" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I347" t="n">
+        <v>27909</v>
+      </c>
+      <c r="J347" t="n">
+        <v>132</v>
+      </c>
+      <c r="K347" t="n">
+        <v>491</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M347" t="n">
+        <v>491</v>
+      </c>
+      <c r="N347" t="n">
+        <v>132</v>
+      </c>
+      <c r="O347" t="n">
+        <v>46</v>
+      </c>
+      <c r="P347" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>1</v>
+      </c>
+      <c r="R347" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2021/03/11</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>347</v>
+      </c>
+      <c r="C348" t="n">
+        <v>9455</v>
+      </c>
+      <c r="D348" t="n">
+        <v>192</v>
+      </c>
+      <c r="E348" t="n">
+        <v>214</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.02030671602326811</v>
+      </c>
+      <c r="G348" t="n">
+        <v>9023</v>
+      </c>
+      <c r="H348" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I348" t="n">
+        <v>28011</v>
+      </c>
+      <c r="J348" t="n">
+        <v>102</v>
+      </c>
+      <c r="K348" t="n">
+        <v>511</v>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="n">
+        <v>510</v>
+      </c>
+      <c r="N348" t="n">
+        <v>102</v>
+      </c>
+      <c r="O348" t="n">
+        <v>47</v>
+      </c>
+      <c r="P348" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>2</v>
+      </c>
+      <c r="R348" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R348"/>
+  <dimension ref="A1:R349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20514,6 +20514,64 @@
         <v>50</v>
       </c>
     </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2021/03/12</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>348</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9559</v>
+      </c>
+      <c r="D349" t="n">
+        <v>200</v>
+      </c>
+      <c r="E349" t="n">
+        <v>207</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.02092269065801862</v>
+      </c>
+      <c r="G349" t="n">
+        <v>9126</v>
+      </c>
+      <c r="H349" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I349" t="n">
+        <v>28115</v>
+      </c>
+      <c r="J349" t="n">
+        <v>104</v>
+      </c>
+      <c r="K349" t="n">
+        <v>468</v>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="n">
+        <v>467</v>
+      </c>
+      <c r="N349" t="n">
+        <v>104</v>
+      </c>
+      <c r="O349" t="n">
+        <v>40</v>
+      </c>
+      <c r="P349" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>8</v>
+      </c>
+      <c r="R349" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R349"/>
+  <dimension ref="A1:R352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20572,6 +20572,180 @@
         <v>50</v>
       </c>
     </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2021/03/13</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>349</v>
+      </c>
+      <c r="C350" t="n">
+        <v>9606</v>
+      </c>
+      <c r="D350" t="n">
+        <v>201</v>
+      </c>
+      <c r="E350" t="n">
+        <v>208</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.02092442223610243</v>
+      </c>
+      <c r="G350" t="n">
+        <v>9171</v>
+      </c>
+      <c r="H350" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I350" t="n">
+        <v>28162</v>
+      </c>
+      <c r="J350" t="n">
+        <v>47</v>
+      </c>
+      <c r="K350" t="n">
+        <v>356</v>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="n">
+        <v>355</v>
+      </c>
+      <c r="N350" t="n">
+        <v>47</v>
+      </c>
+      <c r="O350" t="n">
+        <v>38</v>
+      </c>
+      <c r="P350" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>1</v>
+      </c>
+      <c r="R350" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2021/03/14</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>350</v>
+      </c>
+      <c r="C351" t="n">
+        <v>9610</v>
+      </c>
+      <c r="D351" t="n">
+        <v>205</v>
+      </c>
+      <c r="E351" t="n">
+        <v>236</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.02133194588969823</v>
+      </c>
+      <c r="G351" t="n">
+        <v>9143</v>
+      </c>
+      <c r="H351" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I351" t="n">
+        <v>28166</v>
+      </c>
+      <c r="J351" t="n">
+        <v>4</v>
+      </c>
+      <c r="K351" t="n">
+        <v>357</v>
+      </c>
+      <c r="L351" t="n">
+        <v>2</v>
+      </c>
+      <c r="M351" t="n">
+        <v>355</v>
+      </c>
+      <c r="N351" t="n">
+        <v>4</v>
+      </c>
+      <c r="O351" t="n">
+        <v>39</v>
+      </c>
+      <c r="P351" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>4</v>
+      </c>
+      <c r="R351" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2021/03/15</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>351</v>
+      </c>
+      <c r="C352" t="n">
+        <v>9703</v>
+      </c>
+      <c r="D352" t="n">
+        <v>207</v>
+      </c>
+      <c r="E352" t="n">
+        <v>157</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.02133360816242399</v>
+      </c>
+      <c r="G352" t="n">
+        <v>9313</v>
+      </c>
+      <c r="H352" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I352" t="n">
+        <v>28259</v>
+      </c>
+      <c r="J352" t="n">
+        <v>93</v>
+      </c>
+      <c r="K352" t="n">
+        <v>393</v>
+      </c>
+      <c r="L352" t="n">
+        <v>2</v>
+      </c>
+      <c r="M352" t="n">
+        <v>391</v>
+      </c>
+      <c r="N352" t="n">
+        <v>93</v>
+      </c>
+      <c r="O352" t="n">
+        <v>43</v>
+      </c>
+      <c r="P352" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>2</v>
+      </c>
+      <c r="R352" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R352"/>
+  <dimension ref="A1:R353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20746,6 +20746,64 @@
         <v>51</v>
       </c>
     </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2021/03/16</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>352</v>
+      </c>
+      <c r="C353" t="n">
+        <v>9749</v>
+      </c>
+      <c r="D353" t="n">
+        <v>209</v>
+      </c>
+      <c r="E353" t="n">
+        <v>138</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.02143809621499641</v>
+      </c>
+      <c r="G353" t="n">
+        <v>9376</v>
+      </c>
+      <c r="H353" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I353" t="n">
+        <v>28305</v>
+      </c>
+      <c r="J353" t="n">
+        <v>46</v>
+      </c>
+      <c r="K353" t="n">
+        <v>414</v>
+      </c>
+      <c r="L353" t="n">
+        <v>2</v>
+      </c>
+      <c r="M353" t="n">
+        <v>412</v>
+      </c>
+      <c r="N353" t="n">
+        <v>46</v>
+      </c>
+      <c r="O353" t="n">
+        <v>51</v>
+      </c>
+      <c r="P353" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>2</v>
+      </c>
+      <c r="R353" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R353"/>
+  <dimension ref="A1:R354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20804,6 +20804,60 @@
         <v>51</v>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2021/03/17</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>353</v>
+      </c>
+      <c r="C354" t="n">
+        <v>9801</v>
+      </c>
+      <c r="D354" t="n">
+        <v>214</v>
+      </c>
+      <c r="E354" t="n">
+        <v>117</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.02183450668299153</v>
+      </c>
+      <c r="G354" t="n">
+        <v>9444</v>
+      </c>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="n">
+        <v>9801</v>
+      </c>
+      <c r="J354" t="n">
+        <v>52</v>
+      </c>
+      <c r="K354" t="n">
+        <v>509</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3</v>
+      </c>
+      <c r="M354" t="n">
+        <v>506</v>
+      </c>
+      <c r="N354" t="n">
+        <v>-18504</v>
+      </c>
+      <c r="O354" t="n">
+        <v>56</v>
+      </c>
+      <c r="P354" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q354" t="inlineStr"/>
+      <c r="R354" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -20828,9 +20828,11 @@
       <c r="G354" t="n">
         <v>9444</v>
       </c>
-      <c r="H354" t="inlineStr"/>
+      <c r="H354" t="n">
+        <v>18556</v>
+      </c>
       <c r="I354" t="n">
-        <v>9801</v>
+        <v>28357</v>
       </c>
       <c r="J354" t="n">
         <v>52</v>
@@ -20845,7 +20847,7 @@
         <v>506</v>
       </c>
       <c r="N354" t="n">
-        <v>-18504</v>
+        <v>52</v>
       </c>
       <c r="O354" t="n">
         <v>56</v>
@@ -20853,7 +20855,9 @@
       <c r="P354" t="n">
         <v>38</v>
       </c>
-      <c r="Q354" t="inlineStr"/>
+      <c r="Q354" t="n">
+        <v>5</v>
+      </c>
       <c r="R354" t="n">
         <v>51</v>
       </c>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R354"/>
+  <dimension ref="A1:R357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20862,6 +20862,180 @@
         <v>51</v>
       </c>
     </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2021/03/18</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>354</v>
+      </c>
+      <c r="C355" t="n">
+        <v>9888</v>
+      </c>
+      <c r="D355" t="n">
+        <v>215</v>
+      </c>
+      <c r="E355" t="n">
+        <v>134</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.02174352750809061</v>
+      </c>
+      <c r="G355" t="n">
+        <v>9513</v>
+      </c>
+      <c r="H355" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I355" t="n">
+        <v>28444</v>
+      </c>
+      <c r="J355" t="n">
+        <v>87</v>
+      </c>
+      <c r="K355" t="n">
+        <v>462</v>
+      </c>
+      <c r="L355" t="n">
+        <v>3</v>
+      </c>
+      <c r="M355" t="n">
+        <v>459</v>
+      </c>
+      <c r="N355" t="n">
+        <v>87</v>
+      </c>
+      <c r="O355" t="n">
+        <v>65</v>
+      </c>
+      <c r="P355" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>1</v>
+      </c>
+      <c r="R355" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2021/03/19</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>355</v>
+      </c>
+      <c r="C356" t="n">
+        <v>9967</v>
+      </c>
+      <c r="D356" t="n">
+        <v>216</v>
+      </c>
+      <c r="E356" t="n">
+        <v>146</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.02167151600280927</v>
+      </c>
+      <c r="G356" t="n">
+        <v>9579</v>
+      </c>
+      <c r="H356" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I356" t="n">
+        <v>28523</v>
+      </c>
+      <c r="J356" t="n">
+        <v>79</v>
+      </c>
+      <c r="K356" t="n">
+        <v>542</v>
+      </c>
+      <c r="L356" t="n">
+        <v>3</v>
+      </c>
+      <c r="M356" t="n">
+        <v>539</v>
+      </c>
+      <c r="N356" t="n">
+        <v>79</v>
+      </c>
+      <c r="O356" t="n">
+        <v>62</v>
+      </c>
+      <c r="P356" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>1</v>
+      </c>
+      <c r="R356" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2021/03/20</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>356</v>
+      </c>
+      <c r="C357" t="n">
+        <v>10039</v>
+      </c>
+      <c r="D357" t="n">
+        <v>216</v>
+      </c>
+      <c r="E357" t="n">
+        <v>142</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.02151608725968722</v>
+      </c>
+      <c r="G357" t="n">
+        <v>9655</v>
+      </c>
+      <c r="H357" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I357" t="n">
+        <v>28595</v>
+      </c>
+      <c r="J357" t="n">
+        <v>72</v>
+      </c>
+      <c r="K357" t="n">
+        <v>427</v>
+      </c>
+      <c r="L357" t="n">
+        <v>3</v>
+      </c>
+      <c r="M357" t="n">
+        <v>424</v>
+      </c>
+      <c r="N357" t="n">
+        <v>72</v>
+      </c>
+      <c r="O357" t="n">
+        <v>66</v>
+      </c>
+      <c r="P357" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R357" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R357"/>
+  <dimension ref="A1:R358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21036,6 +21036,64 @@
         <v>51</v>
       </c>
     </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2021/03/21</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>357</v>
+      </c>
+      <c r="C358" t="n">
+        <v>10047</v>
+      </c>
+      <c r="D358" t="n">
+        <v>221</v>
+      </c>
+      <c r="E358" t="n">
+        <v>145</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.02199661590524535</v>
+      </c>
+      <c r="G358" t="n">
+        <v>9663</v>
+      </c>
+      <c r="H358" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I358" t="n">
+        <v>28603</v>
+      </c>
+      <c r="J358" t="n">
+        <v>8</v>
+      </c>
+      <c r="K358" t="n">
+        <v>430</v>
+      </c>
+      <c r="L358" t="n">
+        <v>3</v>
+      </c>
+      <c r="M358" t="n">
+        <v>427</v>
+      </c>
+      <c r="N358" t="n">
+        <v>8</v>
+      </c>
+      <c r="O358" t="n">
+        <v>60</v>
+      </c>
+      <c r="P358" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>5</v>
+      </c>
+      <c r="R358" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R358"/>
+  <dimension ref="A1:R359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21094,6 +21094,64 @@
         <v>52</v>
       </c>
     </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2021/03/22</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>358</v>
+      </c>
+      <c r="C359" t="n">
+        <v>10122</v>
+      </c>
+      <c r="D359" t="n">
+        <v>225</v>
+      </c>
+      <c r="E359" t="n">
+        <v>118</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.02222880853586248</v>
+      </c>
+      <c r="G359" t="n">
+        <v>9753</v>
+      </c>
+      <c r="H359" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I359" t="n">
+        <v>28678</v>
+      </c>
+      <c r="J359" t="n">
+        <v>75</v>
+      </c>
+      <c r="K359" t="n">
+        <v>363</v>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="n">
+        <v>362</v>
+      </c>
+      <c r="N359" t="n">
+        <v>75</v>
+      </c>
+      <c r="O359" t="n">
+        <v>65</v>
+      </c>
+      <c r="P359" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>4</v>
+      </c>
+      <c r="R359" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R359"/>
+  <dimension ref="A1:R360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21152,6 +21152,64 @@
         <v>52</v>
       </c>
     </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2021/03/23</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>359</v>
+      </c>
+      <c r="C360" t="n">
+        <v>10178</v>
+      </c>
+      <c r="D360" t="n">
+        <v>229</v>
+      </c>
+      <c r="E360" t="n">
+        <v>140</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.02249950874435056</v>
+      </c>
+      <c r="G360" t="n">
+        <v>9782</v>
+      </c>
+      <c r="H360" t="n">
+        <v>18556</v>
+      </c>
+      <c r="I360" t="n">
+        <v>28734</v>
+      </c>
+      <c r="J360" t="n">
+        <v>56</v>
+      </c>
+      <c r="K360" t="n">
+        <v>575</v>
+      </c>
+      <c r="L360" t="n">
+        <v>2</v>
+      </c>
+      <c r="M360" t="n">
+        <v>573</v>
+      </c>
+      <c r="N360" t="n">
+        <v>56</v>
+      </c>
+      <c r="O360" t="n">
+        <v>64</v>
+      </c>
+      <c r="P360" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>4</v>
+      </c>
+      <c r="R360" t="n">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -21211,6 +21278,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R360"/>
+  <dimension ref="A1:R362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2504,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.0294117647058823</v>
       </c>
       <c r="G37" t="n">
         <v>31</v>
@@ -2562,7 +2562,7 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="G38" t="n">
         <v>32</v>
@@ -2620,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="G39" t="n">
         <v>32</v>
@@ -2678,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="G40" t="n">
         <v>32</v>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="G41" t="n">
         <v>33</v>
@@ -2794,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="G42" t="n">
         <v>33</v>
@@ -2852,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="G43" t="n">
         <v>34</v>
@@ -2910,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="G44" t="n">
         <v>35</v>
@@ -2968,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04651162790697674</v>
+        <v>0.0465116279069768</v>
       </c>
       <c r="G45" t="n">
         <v>35</v>
@@ -3026,7 +3026,7 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="G46" t="n">
         <v>35</v>
@@ -3084,7 +3084,7 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.0434782608695652</v>
       </c>
       <c r="G47" t="n">
         <v>35</v>
@@ -3200,7 +3200,7 @@
         <v>13</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.0384615384615385</v>
       </c>
       <c r="G49" t="n">
         <v>37</v>
@@ -3258,7 +3258,7 @@
         <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.0377358490566038</v>
       </c>
       <c r="G50" t="n">
         <v>37</v>
@@ -3316,7 +3316,7 @@
         <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G51" t="n">
         <v>39</v>
@@ -3374,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G52" t="n">
         <v>39</v>
@@ -3432,7 +3432,7 @@
         <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06666666666666669</v>
       </c>
       <c r="G53" t="n">
         <v>42</v>
@@ -3490,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0606060606060606</v>
       </c>
       <c r="G54" t="n">
         <v>42</v>
@@ -3548,7 +3548,7 @@
         <v>25</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="G55" t="n">
         <v>48</v>
@@ -3664,7 +3664,7 @@
         <v>24</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.0493827160493827</v>
       </c>
       <c r="G57" t="n">
         <v>53</v>
@@ -3722,7 +3722,7 @@
         <v>32</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.0444444444444444</v>
       </c>
       <c r="G58" t="n">
         <v>54</v>
@@ -3780,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04040404040404041</v>
+        <v>0.0404040404040404</v>
       </c>
       <c r="G59" t="n">
         <v>65</v>
@@ -3838,7 +3838,7 @@
         <v>35</v>
       </c>
       <c r="F60" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="G60" t="n">
         <v>73</v>
@@ -3896,7 +3896,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="G61" t="n">
         <v>79</v>
@@ -4070,7 +4070,7 @@
         <v>24</v>
       </c>
       <c r="F64" t="n">
-        <v>0.02898550724637681</v>
+        <v>0.0289855072463768</v>
       </c>
       <c r="G64" t="n">
         <v>110</v>
@@ -4186,7 +4186,7 @@
         <v>27</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02649006622516556</v>
+        <v>0.0264900662251656</v>
       </c>
       <c r="G66" t="n">
         <v>120</v>
@@ -4244,7 +4244,7 @@
         <v>26</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.0253164556962025</v>
       </c>
       <c r="G67" t="n">
         <v>128</v>
@@ -4302,7 +4302,7 @@
         <v>31</v>
       </c>
       <c r="F68" t="n">
-        <v>0.02366863905325444</v>
+        <v>0.0236686390532544</v>
       </c>
       <c r="G68" t="n">
         <v>134</v>
@@ -4360,7 +4360,7 @@
         <v>28</v>
       </c>
       <c r="F69" t="n">
-        <v>0.02259887005649718</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="G69" t="n">
         <v>144</v>
@@ -4418,7 +4418,7 @@
         <v>33</v>
       </c>
       <c r="F70" t="n">
-        <v>0.02173913043478261</v>
+        <v>0.0217391304347826</v>
       </c>
       <c r="G70" t="n">
         <v>146</v>
@@ -4476,7 +4476,7 @@
         <v>37</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02604166666666667</v>
+        <v>0.0260416666666667</v>
       </c>
       <c r="G71" t="n">
         <v>149</v>
@@ -4534,7 +4534,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="G72" t="n">
         <v>162</v>
@@ -4592,7 +4592,7 @@
         <v>49</v>
       </c>
       <c r="F73" t="n">
-        <v>0.02643171806167401</v>
+        <v>0.026431718061674</v>
       </c>
       <c r="G73" t="n">
         <v>171</v>
@@ -4650,7 +4650,7 @@
         <v>46</v>
       </c>
       <c r="F74" t="n">
-        <v>0.02531645569620253</v>
+        <v>0.0253164556962025</v>
       </c>
       <c r="G74" t="n">
         <v>184</v>
@@ -4708,7 +4708,7 @@
         <v>42</v>
       </c>
       <c r="F75" t="n">
-        <v>0.02845528455284553</v>
+        <v>0.0284552845528455</v>
       </c>
       <c r="G75" t="n">
         <v>196</v>
@@ -4766,7 +4766,7 @@
         <v>36</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02766798418972332</v>
+        <v>0.0276679841897233</v>
       </c>
       <c r="G76" t="n">
         <v>209</v>
@@ -4824,7 +4824,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03358208955223881</v>
+        <v>0.0335820895522388</v>
       </c>
       <c r="G77" t="n">
         <v>217</v>
@@ -4882,7 +4882,7 @@
         <v>35</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03690036900369004</v>
+        <v>0.03690036900369</v>
       </c>
       <c r="G78" t="n">
         <v>225</v>
@@ -4940,7 +4940,7 @@
         <v>36</v>
       </c>
       <c r="F79" t="n">
-        <v>0.03985507246376811</v>
+        <v>0.0398550724637681</v>
       </c>
       <c r="G79" t="n">
         <v>228</v>
@@ -4998,7 +4998,7 @@
         <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>0.04081632653061224</v>
+        <v>0.0408163265306122</v>
       </c>
       <c r="G80" t="n">
         <v>233</v>
@@ -5056,7 +5056,7 @@
         <v>55</v>
       </c>
       <c r="F81" t="n">
-        <v>0.04024767801857585</v>
+        <v>0.0402476780185759</v>
       </c>
       <c r="G81" t="n">
         <v>253</v>
@@ -5114,7 +5114,7 @@
         <v>62</v>
       </c>
       <c r="F82" t="n">
-        <v>0.04093567251461988</v>
+        <v>0.0409356725146199</v>
       </c>
       <c r="G82" t="n">
         <v>264</v>
@@ -5172,7 +5172,7 @@
         <v>73</v>
       </c>
       <c r="F83" t="n">
-        <v>0.03814713896457766</v>
+        <v>0.0381471389645777</v>
       </c>
       <c r="G83" t="n">
         <v>278</v>
@@ -5230,7 +5230,7 @@
         <v>92</v>
       </c>
       <c r="F84" t="n">
-        <v>0.03759398496240601</v>
+        <v>0.037593984962406</v>
       </c>
       <c r="G84" t="n">
         <v>290</v>
@@ -5288,7 +5288,7 @@
         <v>94</v>
       </c>
       <c r="F85" t="n">
-        <v>0.03676470588235294</v>
+        <v>0.0367647058823529</v>
       </c>
       <c r="G85" t="n">
         <v>297</v>
@@ -5346,7 +5346,7 @@
         <v>93</v>
       </c>
       <c r="F86" t="n">
-        <v>0.03764705882352941</v>
+        <v>0.0376470588235294</v>
       </c>
       <c r="G86" t="n">
         <v>314</v>
@@ -5404,7 +5404,7 @@
         <v>100</v>
       </c>
       <c r="F87" t="n">
-        <v>0.03524229074889868</v>
+        <v>0.0352422907488987</v>
       </c>
       <c r="G87" t="n">
         <v>334</v>
@@ -5462,7 +5462,7 @@
         <v>120</v>
       </c>
       <c r="F88" t="n">
-        <v>0.03232323232323232</v>
+        <v>0.0323232323232323</v>
       </c>
       <c r="G88" t="n">
         <v>355</v>
@@ -5520,7 +5520,7 @@
         <v>124</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03345724907063197</v>
+        <v>0.033457249070632</v>
       </c>
       <c r="G89" t="n">
         <v>393</v>
@@ -5578,7 +5578,7 @@
         <v>163</v>
       </c>
       <c r="F90" t="n">
-        <v>0.03010033444816054</v>
+        <v>0.0301003344481605</v>
       </c>
       <c r="G90" t="n">
         <v>414</v>
@@ -5636,7 +5636,7 @@
         <v>149</v>
       </c>
       <c r="F91" t="n">
-        <v>0.02852614896988907</v>
+        <v>0.0285261489698891</v>
       </c>
       <c r="G91" t="n">
         <v>461</v>
@@ -5694,7 +5694,7 @@
         <v>132</v>
       </c>
       <c r="F92" t="n">
-        <v>0.02790697674418605</v>
+        <v>0.027906976744186</v>
       </c>
       <c r="G92" t="n">
         <v>492</v>
@@ -5752,7 +5752,7 @@
         <v>109</v>
       </c>
       <c r="F93" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="G93" t="n">
         <v>536</v>
@@ -5810,7 +5810,7 @@
         <v>112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.02710413694721826</v>
+        <v>0.0271041369472183</v>
       </c>
       <c r="G94" t="n">
         <v>567</v>
@@ -5926,7 +5926,7 @@
         <v>117</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02864583333333333</v>
+        <v>0.0286458333333333</v>
       </c>
       <c r="G96" t="n">
         <v>626</v>
@@ -6042,7 +6042,7 @@
         <v>139</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02573099415204678</v>
+        <v>0.0257309941520468</v>
       </c>
       <c r="G98" t="n">
         <v>691</v>
@@ -6100,7 +6100,7 @@
         <v>122</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02566964285714286</v>
+        <v>0.0256696428571429</v>
       </c>
       <c r="G99" t="n">
         <v>748</v>
@@ -6158,7 +6158,7 @@
         <v>124</v>
       </c>
       <c r="F100" t="n">
-        <v>0.02611534276387378</v>
+        <v>0.0261153427638738</v>
       </c>
       <c r="G100" t="n">
         <v>767</v>
@@ -6216,7 +6216,7 @@
         <v>119</v>
       </c>
       <c r="F101" t="n">
-        <v>0.02534318901795143</v>
+        <v>0.0253431890179514</v>
       </c>
       <c r="G101" t="n">
         <v>800</v>
@@ -6274,7 +6274,7 @@
         <v>111</v>
       </c>
       <c r="F102" t="n">
-        <v>0.02476780185758514</v>
+        <v>0.0247678018575851</v>
       </c>
       <c r="G102" t="n">
         <v>831</v>
@@ -6332,7 +6332,7 @@
         <v>120</v>
       </c>
       <c r="F103" t="n">
-        <v>0.02559055118110236</v>
+        <v>0.0255905511811024</v>
       </c>
       <c r="G103" t="n">
         <v>866</v>
@@ -6448,7 +6448,7 @@
         <v>103</v>
       </c>
       <c r="F105" t="n">
-        <v>0.02583732057416268</v>
+        <v>0.0258373205741627</v>
       </c>
       <c r="G105" t="n">
         <v>911</v>
@@ -6506,7 +6506,7 @@
         <v>101</v>
       </c>
       <c r="F106" t="n">
-        <v>0.02756653992395437</v>
+        <v>0.0275665399239544</v>
       </c>
       <c r="G106" t="n">
         <v>917</v>
@@ -6564,7 +6564,7 @@
         <v>87</v>
       </c>
       <c r="F107" t="n">
-        <v>0.02827521206409048</v>
+        <v>0.0282752120640905</v>
       </c>
       <c r="G107" t="n">
         <v>939</v>
@@ -6622,7 +6622,7 @@
         <v>92</v>
       </c>
       <c r="F108" t="n">
-        <v>0.02752293577981652</v>
+        <v>0.0275229357798165</v>
       </c>
       <c r="G108" t="n">
         <v>963</v>
@@ -6738,7 +6738,7 @@
         <v>91</v>
       </c>
       <c r="F110" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="G110" t="n">
         <v>1025</v>
@@ -6796,7 +6796,7 @@
         <v>91</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02791878172588833</v>
+        <v>0.0279187817258883</v>
       </c>
       <c r="G111" t="n">
         <v>1052</v>
@@ -6912,7 +6912,7 @@
         <v>91</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03042763157894737</v>
+        <v>0.0304276315789474</v>
       </c>
       <c r="G113" t="n">
         <v>1082</v>
@@ -6970,7 +6970,7 @@
         <v>85</v>
       </c>
       <c r="F114" t="n">
-        <v>0.03086921202274574</v>
+        <v>0.0308692120227457</v>
       </c>
       <c r="G114" t="n">
         <v>1102</v>
@@ -7028,7 +7028,7 @@
         <v>101</v>
       </c>
       <c r="F115" t="n">
-        <v>0.02966432474629196</v>
+        <v>0.029664324746292</v>
       </c>
       <c r="G115" t="n">
         <v>1135</v>
@@ -7086,7 +7086,7 @@
         <v>100</v>
       </c>
       <c r="F116" t="n">
-        <v>0.02947845804988662</v>
+        <v>0.0294784580498866</v>
       </c>
       <c r="G116" t="n">
         <v>1176</v>
@@ -7144,7 +7144,7 @@
         <v>119</v>
       </c>
       <c r="F117" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.0307692307692308</v>
       </c>
       <c r="G117" t="n">
         <v>1196</v>
@@ -7202,7 +7202,7 @@
         <v>120</v>
       </c>
       <c r="F118" t="n">
-        <v>0.03060498220640569</v>
+        <v>0.0306049822064057</v>
       </c>
       <c r="G118" t="n">
         <v>1234</v>
@@ -7260,7 +7260,7 @@
         <v>122</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03114186851211072</v>
+        <v>0.0311418685121107</v>
       </c>
       <c r="G119" t="n">
         <v>1270</v>
@@ -7318,7 +7318,7 @@
         <v>104</v>
       </c>
       <c r="F120" t="n">
-        <v>0.03170227429359063</v>
+        <v>0.0317022742935906</v>
       </c>
       <c r="G120" t="n">
         <v>1293</v>
@@ -7376,7 +7376,7 @@
         <v>108</v>
       </c>
       <c r="F121" t="n">
-        <v>0.03179972936400541</v>
+        <v>0.0317997293640054</v>
       </c>
       <c r="G121" t="n">
         <v>1314</v>
@@ -7434,7 +7434,7 @@
         <v>108</v>
       </c>
       <c r="F122" t="n">
-        <v>0.03079947575360419</v>
+        <v>0.0307994757536042</v>
       </c>
       <c r="G122" t="n">
         <v>1361</v>
@@ -7492,7 +7492,7 @@
         <v>109</v>
       </c>
       <c r="F123" t="n">
-        <v>0.02987921169739352</v>
+        <v>0.0298792116973935</v>
       </c>
       <c r="G123" t="n">
         <v>1407</v>
@@ -7550,7 +7550,7 @@
         <v>106</v>
       </c>
       <c r="F124" t="n">
-        <v>0.02972136222910217</v>
+        <v>0.0297213622291022</v>
       </c>
       <c r="G124" t="n">
         <v>1451</v>
@@ -7608,7 +7608,7 @@
         <v>102</v>
       </c>
       <c r="F125" t="n">
-        <v>0.02900302114803625</v>
+        <v>0.0290030211480363</v>
       </c>
       <c r="G125" t="n">
         <v>1495</v>
@@ -7666,7 +7666,7 @@
         <v>103</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02865671641791045</v>
+        <v>0.0286567164179104</v>
       </c>
       <c r="G126" t="n">
         <v>1514</v>
@@ -7724,7 +7724,7 @@
         <v>94</v>
       </c>
       <c r="F127" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.0285714285714286</v>
       </c>
       <c r="G127" t="n">
         <v>1528</v>
@@ -7782,7 +7782,7 @@
         <v>82</v>
       </c>
       <c r="F128" t="n">
-        <v>0.02823529411764706</v>
+        <v>0.0282352941176471</v>
       </c>
       <c r="G128" t="n">
         <v>1560</v>
@@ -7840,7 +7840,7 @@
         <v>76</v>
       </c>
       <c r="F129" t="n">
-        <v>0.02825836216839677</v>
+        <v>0.0282583621683968</v>
       </c>
       <c r="G129" t="n">
         <v>1598</v>
@@ -7898,7 +7898,7 @@
         <v>68</v>
       </c>
       <c r="F130" t="n">
-        <v>0.02894438138479001</v>
+        <v>0.02894438138479</v>
       </c>
       <c r="G130" t="n">
         <v>1632</v>
@@ -7956,7 +7956,7 @@
         <v>73</v>
       </c>
       <c r="F131" t="n">
-        <v>0.02853945159485171</v>
+        <v>0.0285394515948517</v>
       </c>
       <c r="G131" t="n">
         <v>1652</v>
@@ -8014,7 +8014,7 @@
         <v>74</v>
       </c>
       <c r="F132" t="n">
-        <v>0.02874516307352128</v>
+        <v>0.0287451630735213</v>
       </c>
       <c r="G132" t="n">
         <v>1672</v>
@@ -8130,7 +8130,7 @@
         <v>65</v>
       </c>
       <c r="F134" t="n">
-        <v>0.02854006586169045</v>
+        <v>0.0285400658616904</v>
       </c>
       <c r="G134" t="n">
         <v>1694</v>
@@ -8188,7 +8188,7 @@
         <v>67</v>
       </c>
       <c r="F135" t="n">
-        <v>0.02827623708537249</v>
+        <v>0.0282762370853725</v>
       </c>
       <c r="G135" t="n">
         <v>1709</v>
@@ -8246,7 +8246,7 @@
         <v>61</v>
       </c>
       <c r="F136" t="n">
-        <v>0.02791196994095545</v>
+        <v>0.0279119699409554</v>
       </c>
       <c r="G136" t="n">
         <v>1739</v>
@@ -8304,7 +8304,7 @@
         <v>62</v>
       </c>
       <c r="F137" t="n">
-        <v>0.02925531914893617</v>
+        <v>0.0292553191489362</v>
       </c>
       <c r="G137" t="n">
         <v>1752</v>
@@ -8362,7 +8362,7 @@
         <v>63</v>
       </c>
       <c r="F138" t="n">
-        <v>0.02899314707432788</v>
+        <v>0.0289931470743279</v>
       </c>
       <c r="G138" t="n">
         <v>1768</v>
@@ -8420,7 +8420,7 @@
         <v>67</v>
       </c>
       <c r="F139" t="n">
-        <v>0.02967204580947423</v>
+        <v>0.0296720458094742</v>
       </c>
       <c r="G139" t="n">
         <v>1786</v>
@@ -8478,7 +8478,7 @@
         <v>53</v>
       </c>
       <c r="F140" t="n">
-        <v>0.02951838425686173</v>
+        <v>0.0295183842568617</v>
       </c>
       <c r="G140" t="n">
         <v>1810</v>
@@ -8536,7 +8536,7 @@
         <v>49</v>
       </c>
       <c r="F141" t="n">
-        <v>0.03000517330574237</v>
+        <v>0.0300051733057424</v>
       </c>
       <c r="G141" t="n">
         <v>1815</v>
@@ -8594,7 +8594,7 @@
         <v>40</v>
       </c>
       <c r="F142" t="n">
-        <v>0.02980472764645426</v>
+        <v>0.0298047276464543</v>
       </c>
       <c r="G142" t="n">
         <v>1836</v>
@@ -8652,7 +8652,7 @@
         <v>47</v>
       </c>
       <c r="F143" t="n">
-        <v>0.02947154471544716</v>
+        <v>0.0294715447154472</v>
       </c>
       <c r="G143" t="n">
         <v>1851</v>
@@ -8768,7 +8768,7 @@
         <v>63</v>
       </c>
       <c r="F145" t="n">
-        <v>0.02875557759048091</v>
+        <v>0.0287555775904809</v>
       </c>
       <c r="G145" t="n">
         <v>1884</v>
@@ -8826,7 +8826,7 @@
         <v>60</v>
       </c>
       <c r="F146" t="n">
-        <v>0.02858551010349926</v>
+        <v>0.0285855101034993</v>
       </c>
       <c r="G146" t="n">
         <v>1899</v>
@@ -8884,7 +8884,7 @@
         <v>62</v>
       </c>
       <c r="F147" t="n">
-        <v>0.02838962310327949</v>
+        <v>0.0283896231032795</v>
       </c>
       <c r="G147" t="n">
         <v>1911</v>
@@ -9058,7 +9058,7 @@
         <v>43</v>
       </c>
       <c r="F150" t="n">
-        <v>0.02884615384615385</v>
+        <v>0.0288461538461538</v>
       </c>
       <c r="G150" t="n">
         <v>1964</v>
@@ -9116,7 +9116,7 @@
         <v>39</v>
       </c>
       <c r="F151" t="n">
-        <v>0.02956604673342871</v>
+        <v>0.0295660467334287</v>
       </c>
       <c r="G151" t="n">
         <v>1983</v>
@@ -9174,7 +9174,7 @@
         <v>40</v>
       </c>
       <c r="F152" t="n">
-        <v>0.02985781990521327</v>
+        <v>0.0298578199052133</v>
       </c>
       <c r="G152" t="n">
         <v>1994</v>
@@ -9290,7 +9290,7 @@
         <v>43</v>
       </c>
       <c r="F154" t="n">
-        <v>0.02938432835820896</v>
+        <v>0.029384328358209</v>
       </c>
       <c r="G154" t="n">
         <v>2025</v>
@@ -9406,7 +9406,7 @@
         <v>38</v>
       </c>
       <c r="F156" t="n">
-        <v>0.03038674033149171</v>
+        <v>0.0303867403314917</v>
       </c>
       <c r="G156" t="n">
         <v>2055</v>
@@ -9464,7 +9464,7 @@
         <v>40</v>
       </c>
       <c r="F157" t="n">
-        <v>0.03015075376884422</v>
+        <v>0.0301507537688442</v>
       </c>
       <c r="G157" t="n">
         <v>2070</v>
@@ -9522,7 +9522,7 @@
         <v>49</v>
       </c>
       <c r="F158" t="n">
-        <v>0.03033046627433228</v>
+        <v>0.0303304662743323</v>
       </c>
       <c r="G158" t="n">
         <v>2076</v>
@@ -9580,7 +9580,7 @@
         <v>43</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03050695379093764</v>
+        <v>0.0305069537909376</v>
       </c>
       <c r="G159" t="n">
         <v>2105</v>
@@ -9638,7 +9638,7 @@
         <v>47</v>
       </c>
       <c r="F160" t="n">
-        <v>0.03022222222222222</v>
+        <v>0.0302222222222222</v>
       </c>
       <c r="G160" t="n">
         <v>2122</v>
@@ -9696,7 +9696,7 @@
         <v>44</v>
       </c>
       <c r="F161" t="n">
-        <v>0.03018197958277852</v>
+        <v>0.0301819795827785</v>
       </c>
       <c r="G161" t="n">
         <v>2128</v>
@@ -9754,7 +9754,7 @@
         <v>36</v>
       </c>
       <c r="F162" t="n">
-        <v>0.03059866962305987</v>
+        <v>0.0305986696230599</v>
       </c>
       <c r="G162" t="n">
         <v>2137</v>
@@ -9812,7 +9812,7 @@
         <v>29</v>
       </c>
       <c r="F163" t="n">
-        <v>0.03059866962305987</v>
+        <v>0.0305986696230599</v>
       </c>
       <c r="G163" t="n">
         <v>2144</v>
@@ -9870,7 +9870,7 @@
         <v>37</v>
       </c>
       <c r="F164" t="n">
-        <v>0.03038309114927345</v>
+        <v>0.0303830911492734</v>
       </c>
       <c r="G164" t="n">
         <v>2152</v>
@@ -9928,7 +9928,7 @@
         <v>33</v>
       </c>
       <c r="F165" t="n">
-        <v>0.03066141042487954</v>
+        <v>0.0306614104248795</v>
       </c>
       <c r="G165" t="n">
         <v>2167</v>
@@ -9986,7 +9986,7 @@
         <v>50</v>
       </c>
       <c r="F166" t="n">
-        <v>0.03025064822817632</v>
+        <v>0.0302506482281763</v>
       </c>
       <c r="G166" t="n">
         <v>2181</v>
@@ -10044,7 +10044,7 @@
         <v>53</v>
       </c>
       <c r="F167" t="n">
-        <v>0.02995293110825845</v>
+        <v>0.0299529311082584</v>
       </c>
       <c r="G167" t="n">
         <v>2201</v>
@@ -10102,7 +10102,7 @@
         <v>53</v>
       </c>
       <c r="F168" t="n">
-        <v>0.02982530890498509</v>
+        <v>0.0298253089049851</v>
       </c>
       <c r="G168" t="n">
         <v>2211</v>
@@ -10160,7 +10160,7 @@
         <v>51</v>
       </c>
       <c r="F169" t="n">
-        <v>0.02982530890498509</v>
+        <v>0.0298253089049851</v>
       </c>
       <c r="G169" t="n">
         <v>2213</v>
@@ -10218,7 +10218,7 @@
         <v>48</v>
       </c>
       <c r="F170" t="n">
-        <v>0.02958579881656805</v>
+        <v>0.029585798816568</v>
       </c>
       <c r="G170" t="n">
         <v>2235</v>
@@ -10276,7 +10276,7 @@
         <v>54</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02923976608187134</v>
+        <v>0.0292397660818713</v>
       </c>
       <c r="G171" t="n">
         <v>2257</v>
@@ -10392,7 +10392,7 @@
         <v>75</v>
       </c>
       <c r="F173" t="n">
-        <v>0.02858309514087383</v>
+        <v>0.0285830951408738</v>
       </c>
       <c r="G173" t="n">
         <v>2291</v>
@@ -10450,7 +10450,7 @@
         <v>83</v>
       </c>
       <c r="F174" t="n">
-        <v>0.02871006874241811</v>
+        <v>0.0287100687424181</v>
       </c>
       <c r="G174" t="n">
         <v>2306</v>
@@ -10508,7 +10508,7 @@
         <v>79</v>
       </c>
       <c r="F175" t="n">
-        <v>0.02888086642599278</v>
+        <v>0.0288808664259928</v>
       </c>
       <c r="G175" t="n">
         <v>2329</v>
@@ -10566,7 +10566,7 @@
         <v>73</v>
       </c>
       <c r="F176" t="n">
-        <v>0.02888086642599278</v>
+        <v>0.0288808664259928</v>
       </c>
       <c r="G176" t="n">
         <v>2335</v>
@@ -10624,7 +10624,7 @@
         <v>79</v>
       </c>
       <c r="F177" t="n">
-        <v>0.02853745541022592</v>
+        <v>0.0285374554102259</v>
       </c>
       <c r="G177" t="n">
         <v>2359</v>
@@ -10682,7 +10682,7 @@
         <v>77</v>
       </c>
       <c r="F178" t="n">
-        <v>0.02829076620825147</v>
+        <v>0.0282907662082515</v>
       </c>
       <c r="G178" t="n">
         <v>2383</v>
@@ -10740,7 +10740,7 @@
         <v>74</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02816901408450704</v>
+        <v>0.028169014084507</v>
       </c>
       <c r="G179" t="n">
         <v>2397</v>
@@ -10798,7 +10798,7 @@
         <v>86</v>
       </c>
       <c r="F180" t="n">
-        <v>0.02780996523754345</v>
+        <v>0.0278099652375435</v>
       </c>
       <c r="G180" t="n">
         <v>2418</v>
@@ -10856,7 +10856,7 @@
         <v>92</v>
       </c>
       <c r="F181" t="n">
-        <v>0.02827665265571265</v>
+        <v>0.0282766526557126</v>
       </c>
       <c r="G181" t="n">
         <v>2438</v>
@@ -10972,7 +10972,7 @@
         <v>88</v>
       </c>
       <c r="F183" t="n">
-        <v>0.02874432677760968</v>
+        <v>0.0287443267776097</v>
       </c>
       <c r="G183" t="n">
         <v>2467</v>
@@ -11030,7 +11030,7 @@
         <v>86</v>
       </c>
       <c r="F184" t="n">
-        <v>0.02878504672897196</v>
+        <v>0.028785046728972</v>
       </c>
       <c r="G184" t="n">
         <v>2499</v>
@@ -11088,7 +11088,7 @@
         <v>92</v>
       </c>
       <c r="F185" t="n">
-        <v>0.02861389817911557</v>
+        <v>0.0286138981791156</v>
       </c>
       <c r="G185" t="n">
         <v>2509</v>
@@ -11204,7 +11204,7 @@
         <v>112</v>
       </c>
       <c r="F187" t="n">
-        <v>0.02847754654983571</v>
+        <v>0.0284775465498357</v>
       </c>
       <c r="G187" t="n">
         <v>2537</v>
@@ -11262,7 +11262,7 @@
         <v>89</v>
       </c>
       <c r="F188" t="n">
-        <v>0.02872727272727273</v>
+        <v>0.0287272727272727</v>
       </c>
       <c r="G188" t="n">
         <v>2569</v>
@@ -11320,7 +11320,7 @@
         <v>71</v>
       </c>
       <c r="F189" t="n">
-        <v>0.02905920813657828</v>
+        <v>0.0290592081365783</v>
       </c>
       <c r="G189" t="n">
         <v>2589</v>
@@ -11378,7 +11378,7 @@
         <v>66</v>
       </c>
       <c r="F190" t="n">
-        <v>0.02942244823828551</v>
+        <v>0.0294224482382855</v>
       </c>
       <c r="G190" t="n">
         <v>2593</v>
@@ -11436,7 +11436,7 @@
         <v>46</v>
       </c>
       <c r="F191" t="n">
-        <v>0.02927358149620528</v>
+        <v>0.0292735814962053</v>
       </c>
       <c r="G191" t="n">
         <v>2627</v>
@@ -11494,7 +11494,7 @@
         <v>62</v>
       </c>
       <c r="F192" t="n">
-        <v>0.02894924946390279</v>
+        <v>0.0289492494639028</v>
       </c>
       <c r="G192" t="n">
         <v>2642</v>
@@ -11552,7 +11552,7 @@
         <v>86</v>
       </c>
       <c r="F193" t="n">
-        <v>0.02847100175746924</v>
+        <v>0.0284710017574692</v>
       </c>
       <c r="G193" t="n">
         <v>2665</v>
@@ -11610,7 +11610,7 @@
         <v>83</v>
       </c>
       <c r="F194" t="n">
-        <v>0.02870143507175359</v>
+        <v>0.0287014350717536</v>
       </c>
       <c r="G194" t="n">
         <v>2679</v>
@@ -11668,7 +11668,7 @@
         <v>71</v>
       </c>
       <c r="F195" t="n">
-        <v>0.02851182197496523</v>
+        <v>0.0285118219749652</v>
       </c>
       <c r="G195" t="n">
         <v>2710</v>
@@ -11726,7 +11726,7 @@
         <v>72</v>
       </c>
       <c r="F196" t="n">
-        <v>0.02835408022130014</v>
+        <v>0.0283540802213001</v>
       </c>
       <c r="G196" t="n">
         <v>2725</v>
@@ -11784,7 +11784,7 @@
         <v>64</v>
       </c>
       <c r="F197" t="n">
-        <v>0.02834427929484964</v>
+        <v>0.0283442792948496</v>
       </c>
       <c r="G197" t="n">
         <v>2734</v>
@@ -11842,7 +11842,7 @@
         <v>51</v>
       </c>
       <c r="F198" t="n">
-        <v>0.02834427929484964</v>
+        <v>0.0283442792948496</v>
       </c>
       <c r="G198" t="n">
         <v>2747</v>
@@ -11900,7 +11900,7 @@
         <v>52</v>
       </c>
       <c r="F199" t="n">
-        <v>0.02806297056810404</v>
+        <v>0.028062970568104</v>
       </c>
       <c r="G199" t="n">
         <v>2775</v>
@@ -11958,7 +11958,7 @@
         <v>63</v>
       </c>
       <c r="F200" t="n">
-        <v>0.02781546811397557</v>
+        <v>0.0278154681139756</v>
       </c>
       <c r="G200" t="n">
         <v>2790</v>
@@ -12074,7 +12074,7 @@
         <v>48</v>
       </c>
       <c r="F202" t="n">
-        <v>0.02826379542395693</v>
+        <v>0.0282637954239569</v>
       </c>
       <c r="G202" t="n">
         <v>2872</v>
@@ -12132,7 +12132,7 @@
         <v>70</v>
       </c>
       <c r="F203" t="n">
-        <v>0.02865711429523492</v>
+        <v>0.0286571142952349</v>
       </c>
       <c r="G203" t="n">
         <v>2831</v>
@@ -12190,7 +12190,7 @@
         <v>64</v>
       </c>
       <c r="F204" t="n">
-        <v>0.02865711429523492</v>
+        <v>0.0286571142952349</v>
       </c>
       <c r="G204" t="n">
         <v>2838</v>
@@ -12248,7 +12248,7 @@
         <v>80</v>
       </c>
       <c r="F205" t="n">
-        <v>0.02844856103208733</v>
+        <v>0.0284485610320873</v>
       </c>
       <c r="G205" t="n">
         <v>2841</v>
@@ -12306,7 +12306,7 @@
         <v>80</v>
       </c>
       <c r="F206" t="n">
-        <v>0.02836411609498681</v>
+        <v>0.0283641160949868</v>
       </c>
       <c r="G206" t="n">
         <v>2853</v>
@@ -12364,7 +12364,7 @@
         <v>81</v>
       </c>
       <c r="F207" t="n">
-        <v>0.02815057283142389</v>
+        <v>0.0281505728314239</v>
       </c>
       <c r="G207" t="n">
         <v>2875</v>
@@ -12422,7 +12422,7 @@
         <v>77</v>
       </c>
       <c r="F208" t="n">
-        <v>0.02796747967479675</v>
+        <v>0.0279674796747967</v>
       </c>
       <c r="G208" t="n">
         <v>2899</v>
@@ -12480,7 +12480,7 @@
         <v>77</v>
       </c>
       <c r="F209" t="n">
-        <v>0.02796747967479675</v>
+        <v>0.0279674796747967</v>
       </c>
       <c r="G209" t="n">
         <v>2899</v>
@@ -12538,7 +12538,7 @@
         <v>99</v>
       </c>
       <c r="F210" t="n">
-        <v>0.02776005105296745</v>
+        <v>0.0277600510529675</v>
       </c>
       <c r="G210" t="n">
         <v>2935</v>
@@ -12596,7 +12596,7 @@
         <v>99</v>
       </c>
       <c r="F211" t="n">
-        <v>0.02776005105296745</v>
+        <v>0.0277600510529675</v>
       </c>
       <c r="G211" t="n">
         <v>2935</v>
@@ -12654,7 +12654,7 @@
         <v>104</v>
       </c>
       <c r="F212" t="n">
-        <v>0.02769908718917218</v>
+        <v>0.0276990871891722</v>
       </c>
       <c r="G212" t="n">
         <v>2970</v>
@@ -12712,7 +12712,7 @@
         <v>87</v>
       </c>
       <c r="F213" t="n">
-        <v>0.02783859868626838</v>
+        <v>0.0278385986862684</v>
       </c>
       <c r="G213" t="n">
         <v>3006</v>
@@ -12770,7 +12770,7 @@
         <v>82</v>
       </c>
       <c r="F214" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="G214" t="n">
         <v>3017</v>
@@ -12828,7 +12828,7 @@
         <v>85</v>
       </c>
       <c r="F215" t="n">
-        <v>0.02758834469931804</v>
+        <v>0.027588344699318</v>
       </c>
       <c r="G215" t="n">
         <v>3036</v>
@@ -12886,7 +12886,7 @@
         <v>76</v>
       </c>
       <c r="F216" t="n">
-        <v>0.02742681047765794</v>
+        <v>0.0274268104776579</v>
       </c>
       <c r="G216" t="n">
         <v>3064</v>
@@ -12944,7 +12944,7 @@
         <v>51</v>
       </c>
       <c r="F217" t="n">
-        <v>0.02716727716727717</v>
+        <v>0.0271672771672772</v>
       </c>
       <c r="G217" t="n">
         <v>3120</v>
@@ -13002,7 +13002,7 @@
         <v>53</v>
       </c>
       <c r="F218" t="n">
-        <v>0.02696969696969697</v>
+        <v>0.026969696969697</v>
       </c>
       <c r="G218" t="n">
         <v>3142</v>
@@ -13060,7 +13060,7 @@
         <v>47</v>
       </c>
       <c r="F219" t="n">
-        <v>0.02677496991576414</v>
+        <v>0.0267749699157641</v>
       </c>
       <c r="G219" t="n">
         <v>3172</v>
@@ -13118,7 +13118,7 @@
         <v>47</v>
       </c>
       <c r="F220" t="n">
-        <v>0.02662279389769668</v>
+        <v>0.0266227938976967</v>
       </c>
       <c r="G220" t="n">
         <v>3191</v>
@@ -13176,7 +13176,7 @@
         <v>48</v>
       </c>
       <c r="F221" t="n">
-        <v>0.02676977989292088</v>
+        <v>0.0267697798929209</v>
       </c>
       <c r="G221" t="n">
         <v>3208</v>
@@ -13234,7 +13234,7 @@
         <v>44</v>
       </c>
       <c r="F222" t="n">
-        <v>0.02663509914175792</v>
+        <v>0.0266350991417579</v>
       </c>
       <c r="G222" t="n">
         <v>3229</v>
@@ -13292,7 +13292,7 @@
         <v>41</v>
       </c>
       <c r="F223" t="n">
-        <v>0.02658003544004725</v>
+        <v>0.0265800354400473</v>
       </c>
       <c r="G223" t="n">
         <v>3239</v>
@@ -13350,7 +13350,7 @@
         <v>38</v>
       </c>
       <c r="F224" t="n">
-        <v>0.02678045909358446</v>
+        <v>0.0267804590935845</v>
       </c>
       <c r="G224" t="n">
         <v>3253</v>
@@ -13408,7 +13408,7 @@
         <v>27</v>
       </c>
       <c r="F225" t="n">
-        <v>0.02707474985285462</v>
+        <v>0.0270747498528546</v>
       </c>
       <c r="G225" t="n">
         <v>3263</v>
@@ -13466,7 +13466,7 @@
         <v>28</v>
       </c>
       <c r="F226" t="n">
-        <v>0.02697156259161536</v>
+        <v>0.0269715625916154</v>
       </c>
       <c r="G226" t="n">
         <v>3275</v>
@@ -13524,7 +13524,7 @@
         <v>31</v>
       </c>
       <c r="F227" t="n">
-        <v>0.02707423580786026</v>
+        <v>0.0270742358078603</v>
       </c>
       <c r="G227" t="n">
         <v>3295</v>
@@ -13640,7 +13640,7 @@
         <v>41</v>
       </c>
       <c r="F229" t="n">
-        <v>0.02670111972437554</v>
+        <v>0.0267011197243755</v>
       </c>
       <c r="G229" t="n">
         <v>3333</v>
@@ -13698,7 +13698,7 @@
         <v>35</v>
       </c>
       <c r="F230" t="n">
-        <v>0.02652595550484883</v>
+        <v>0.0265259555048488</v>
       </c>
       <c r="G230" t="n">
         <v>3362</v>
@@ -13756,7 +13756,7 @@
         <v>35</v>
       </c>
       <c r="F231" t="n">
-        <v>0.02652595550484883</v>
+        <v>0.0265259555048488</v>
       </c>
       <c r="G231" t="n">
         <v>3362</v>
@@ -13814,7 +13814,7 @@
         <v>28</v>
       </c>
       <c r="F232" t="n">
-        <v>0.02633814783347494</v>
+        <v>0.0263381478334749</v>
       </c>
       <c r="G232" t="n">
         <v>3394</v>
@@ -13872,7 +13872,7 @@
         <v>42</v>
       </c>
       <c r="F233" t="n">
-        <v>0.02605771924908938</v>
+        <v>0.0260577192490894</v>
       </c>
       <c r="G233" t="n">
         <v>3418</v>
@@ -13930,7 +13930,7 @@
         <v>46</v>
       </c>
       <c r="F234" t="n">
-        <v>0.02591973244147157</v>
+        <v>0.0259197324414716</v>
       </c>
       <c r="G234" t="n">
         <v>3433</v>
@@ -13988,7 +13988,7 @@
         <v>48</v>
       </c>
       <c r="F235" t="n">
-        <v>0.02574750830564784</v>
+        <v>0.0257475083056478</v>
       </c>
       <c r="G235" t="n">
         <v>3454</v>
@@ -14162,7 +14162,7 @@
         <v>37</v>
       </c>
       <c r="F238" t="n">
-        <v>0.02627977005201204</v>
+        <v>0.026279770052012</v>
       </c>
       <c r="G238" t="n">
         <v>3503</v>
@@ -14220,7 +14220,7 @@
         <v>31</v>
       </c>
       <c r="F239" t="n">
-        <v>0.02654625068418172</v>
+        <v>0.0265462506841817</v>
       </c>
       <c r="G239" t="n">
         <v>3509</v>
@@ -14278,7 +14278,7 @@
         <v>38</v>
       </c>
       <c r="F240" t="n">
-        <v>0.02685838307107976</v>
+        <v>0.0268583830710798</v>
       </c>
       <c r="G240" t="n">
         <v>3532</v>
@@ -14336,7 +14336,7 @@
         <v>37</v>
       </c>
       <c r="F241" t="n">
-        <v>0.02681473456121343</v>
+        <v>0.0268147345612134</v>
       </c>
       <c r="G241" t="n">
         <v>3539</v>
@@ -14394,7 +14394,7 @@
         <v>34</v>
       </c>
       <c r="F242" t="n">
-        <v>0.02667025862068965</v>
+        <v>0.0266702586206897</v>
       </c>
       <c r="G242" t="n">
         <v>3562</v>
@@ -14452,7 +14452,7 @@
         <v>38</v>
       </c>
       <c r="F243" t="n">
-        <v>0.02651312265666845</v>
+        <v>0.0265131226566685</v>
       </c>
       <c r="G243" t="n">
         <v>3580</v>
@@ -14510,7 +14510,7 @@
         <v>52</v>
       </c>
       <c r="F244" t="n">
-        <v>0.02648305084745763</v>
+        <v>0.0264830508474576</v>
       </c>
       <c r="G244" t="n">
         <v>3607</v>
@@ -14568,7 +14568,7 @@
         <v>42</v>
       </c>
       <c r="F245" t="n">
-        <v>0.02624671916010499</v>
+        <v>0.026246719160105</v>
       </c>
       <c r="G245" t="n">
         <v>3651</v>
@@ -14626,7 +14626,7 @@
         <v>42</v>
       </c>
       <c r="F246" t="n">
-        <v>0.02618486514794449</v>
+        <v>0.0261848651479445</v>
       </c>
       <c r="G246" t="n">
         <v>3660</v>
@@ -14684,7 +14684,7 @@
         <v>37</v>
       </c>
       <c r="F247" t="n">
-        <v>0.02598077422707197</v>
+        <v>0.025980774227072</v>
       </c>
       <c r="G247" t="n">
         <v>3695</v>
@@ -14742,7 +14742,7 @@
         <v>60</v>
       </c>
       <c r="F248" t="n">
-        <v>0.02577319587628866</v>
+        <v>0.0257731958762887</v>
       </c>
       <c r="G248" t="n">
         <v>3703</v>
@@ -14800,7 +14800,7 @@
         <v>57</v>
       </c>
       <c r="F249" t="n">
-        <v>0.02566076469078779</v>
+        <v>0.0256607646907878</v>
       </c>
       <c r="G249" t="n">
         <v>3723</v>
@@ -14974,7 +14974,7 @@
         <v>58</v>
       </c>
       <c r="F252" t="n">
-        <v>0.02495632642874969</v>
+        <v>0.0249563264287497</v>
       </c>
       <c r="G252" t="n">
         <v>3832</v>
@@ -15032,7 +15032,7 @@
         <v>48</v>
       </c>
       <c r="F253" t="n">
-        <v>0.02482005460412013</v>
+        <v>0.0248200546041201</v>
       </c>
       <c r="G253" t="n">
         <v>3864</v>
@@ -15090,7 +15090,7 @@
         <v>35</v>
       </c>
       <c r="F254" t="n">
-        <v>0.02469745616201531</v>
+        <v>0.0246974561620153</v>
       </c>
       <c r="G254" t="n">
         <v>3897</v>
@@ -15148,7 +15148,7 @@
         <v>41</v>
       </c>
       <c r="F255" t="n">
-        <v>0.02453385672227674</v>
+        <v>0.0245338567222767</v>
       </c>
       <c r="G255" t="n">
         <v>3918</v>
@@ -15264,7 +15264,7 @@
         <v>59</v>
       </c>
       <c r="F257" t="n">
-        <v>0.02414875633904854</v>
+        <v>0.0241487563390485</v>
       </c>
       <c r="G257" t="n">
         <v>3965</v>
@@ -15322,7 +15322,7 @@
         <v>66</v>
       </c>
       <c r="F258" t="n">
-        <v>0.02416267942583732</v>
+        <v>0.0241626794258373</v>
       </c>
       <c r="G258" t="n">
         <v>3996</v>
@@ -15380,7 +15380,7 @@
         <v>66</v>
       </c>
       <c r="F259" t="n">
-        <v>0.02416267942583732</v>
+        <v>0.0241626794258373</v>
       </c>
       <c r="G259" t="n">
         <v>3996</v>
@@ -15438,7 +15438,7 @@
         <v>33</v>
       </c>
       <c r="F260" t="n">
-        <v>0.02413381123058542</v>
+        <v>0.0241338112305854</v>
       </c>
       <c r="G260" t="n">
         <v>4034</v>
@@ -15496,7 +15496,7 @@
         <v>33</v>
       </c>
       <c r="F261" t="n">
-        <v>0.02413381123058542</v>
+        <v>0.0241338112305854</v>
       </c>
       <c r="G261" t="n">
         <v>4034</v>
@@ -15554,7 +15554,7 @@
         <v>36</v>
       </c>
       <c r="F262" t="n">
-        <v>0.02412488174077578</v>
+        <v>0.0241248817407758</v>
       </c>
       <c r="G262" t="n">
         <v>4073</v>
@@ -15612,7 +15612,7 @@
         <v>38</v>
       </c>
       <c r="F263" t="n">
-        <v>0.02393242609103707</v>
+        <v>0.0239324260910371</v>
       </c>
       <c r="G263" t="n">
         <v>4105</v>
@@ -15670,7 +15670,7 @@
         <v>46</v>
       </c>
       <c r="F264" t="n">
-        <v>0.02356202356202356</v>
+        <v>0.0235620235620236</v>
       </c>
       <c r="G264" t="n">
         <v>4164</v>
@@ -15728,7 +15728,7 @@
         <v>46</v>
       </c>
       <c r="F265" t="n">
-        <v>0.02322933272603052</v>
+        <v>0.0232293327260305</v>
       </c>
       <c r="G265" t="n">
         <v>4226</v>
@@ -15786,7 +15786,7 @@
         <v>46</v>
       </c>
       <c r="F266" t="n">
-        <v>0.02322933272603052</v>
+        <v>0.0232293327260305</v>
       </c>
       <c r="G266" t="n">
         <v>4226</v>
@@ -15844,7 +15844,7 @@
         <v>31</v>
       </c>
       <c r="F267" t="n">
-        <v>0.02308736985061114</v>
+        <v>0.0230873698506111</v>
       </c>
       <c r="G267" t="n">
         <v>4265</v>
@@ -15902,7 +15902,7 @@
         <v>65</v>
       </c>
       <c r="F268" t="n">
-        <v>0.02327663384064458</v>
+        <v>0.0232766338406446</v>
       </c>
       <c r="G268" t="n">
         <v>4283</v>
@@ -15960,7 +15960,7 @@
         <v>61</v>
       </c>
       <c r="F269" t="n">
-        <v>0.02310597644967785</v>
+        <v>0.0231059764496778</v>
       </c>
       <c r="G269" t="n">
         <v>4318</v>
@@ -16018,7 +16018,7 @@
         <v>61</v>
       </c>
       <c r="F270" t="n">
-        <v>0.02310597644967785</v>
+        <v>0.0231059764496778</v>
       </c>
       <c r="G270" t="n">
         <v>4318</v>
@@ -16076,7 +16076,7 @@
         <v>75</v>
       </c>
       <c r="F271" t="n">
-        <v>0.02276669557675629</v>
+        <v>0.0227666955767563</v>
       </c>
       <c r="G271" t="n">
         <v>4414</v>
@@ -16134,7 +16134,7 @@
         <v>75</v>
       </c>
       <c r="F272" t="n">
-        <v>0.02276669557675629</v>
+        <v>0.0227666955767563</v>
       </c>
       <c r="G272" t="n">
         <v>4414</v>
@@ -16192,7 +16192,7 @@
         <v>54</v>
       </c>
       <c r="F273" t="n">
-        <v>0.02315516122051504</v>
+        <v>0.023155161220515</v>
       </c>
       <c r="G273" t="n">
         <v>4442</v>
@@ -16250,7 +16250,7 @@
         <v>55</v>
       </c>
       <c r="F274" t="n">
-        <v>0.02315015144958892</v>
+        <v>0.0231501514495889</v>
       </c>
       <c r="G274" t="n">
         <v>4444</v>
@@ -16308,7 +16308,7 @@
         <v>68</v>
       </c>
       <c r="F275" t="n">
-        <v>0.02276595744680851</v>
+        <v>0.0227659574468085</v>
       </c>
       <c r="G275" t="n">
         <v>4507</v>
@@ -16366,7 +16366,7 @@
         <v>72</v>
       </c>
       <c r="F276" t="n">
-        <v>0.02254530130636325</v>
+        <v>0.0225453013063633</v>
       </c>
       <c r="G276" t="n">
         <v>4549</v>
@@ -16424,7 +16424,7 @@
         <v>74</v>
       </c>
       <c r="F277" t="n">
-        <v>0.02276049279599081</v>
+        <v>0.0227604927959908</v>
       </c>
       <c r="G277" t="n">
         <v>4588</v>
@@ -16482,7 +16482,7 @@
         <v>65</v>
       </c>
       <c r="F278" t="n">
-        <v>0.02265170407315046</v>
+        <v>0.0226517040731505</v>
       </c>
       <c r="G278" t="n">
         <v>4620</v>
@@ -16540,7 +16540,7 @@
         <v>65</v>
       </c>
       <c r="F279" t="n">
-        <v>0.02265170407315046</v>
+        <v>0.0226517040731505</v>
       </c>
       <c r="G279" t="n">
         <v>4620</v>
@@ -16598,7 +16598,7 @@
         <v>65</v>
       </c>
       <c r="F280" t="n">
-        <v>0.02265170407315046</v>
+        <v>0.0226517040731505</v>
       </c>
       <c r="G280" t="n">
         <v>4620</v>
@@ -16656,7 +16656,7 @@
         <v>65</v>
       </c>
       <c r="F281" t="n">
-        <v>0.02265170407315046</v>
+        <v>0.0226517040731505</v>
       </c>
       <c r="G281" t="n">
         <v>4620</v>
@@ -16714,7 +16714,7 @@
         <v>55</v>
       </c>
       <c r="F282" t="n">
-        <v>0.02284420662687796</v>
+        <v>0.022844206626878</v>
       </c>
       <c r="G282" t="n">
         <v>4675</v>
@@ -16772,7 +16772,7 @@
         <v>73</v>
       </c>
       <c r="F283" t="n">
-        <v>0.02253807106598985</v>
+        <v>0.0225380710659898</v>
       </c>
       <c r="G283" t="n">
         <v>4723</v>
@@ -16830,7 +16830,7 @@
         <v>74</v>
       </c>
       <c r="F284" t="n">
-        <v>0.02261904761904762</v>
+        <v>0.0226190476190476</v>
       </c>
       <c r="G284" t="n">
         <v>4833</v>
@@ -16888,7 +16888,7 @@
         <v>109</v>
       </c>
       <c r="F285" t="n">
-        <v>0.02263414634146341</v>
+        <v>0.0226341463414634</v>
       </c>
       <c r="G285" t="n">
         <v>4882</v>
@@ -16946,7 +16946,7 @@
         <v>161</v>
       </c>
       <c r="F286" t="n">
-        <v>0.02303262955854127</v>
+        <v>0.0230326295585413</v>
       </c>
       <c r="G286" t="n">
         <v>4911</v>
@@ -17004,7 +17004,7 @@
         <v>133</v>
       </c>
       <c r="F287" t="n">
-        <v>0.02284843869002285</v>
+        <v>0.0228484386900228</v>
       </c>
       <c r="G287" t="n">
         <v>4981</v>
@@ -17062,7 +17062,7 @@
         <v>108</v>
       </c>
       <c r="F288" t="n">
-        <v>0.02279202279202279</v>
+        <v>0.0227920227920228</v>
       </c>
       <c r="G288" t="n">
         <v>5019</v>
@@ -17120,7 +17120,7 @@
         <v>119</v>
       </c>
       <c r="F289" t="n">
-        <v>0.02257336343115124</v>
+        <v>0.0225733634311512</v>
       </c>
       <c r="G289" t="n">
         <v>5059</v>
@@ -17178,7 +17178,7 @@
         <v>154</v>
       </c>
       <c r="F290" t="n">
-        <v>0.02236480293308891</v>
+        <v>0.0223648029330889</v>
       </c>
       <c r="G290" t="n">
         <v>5161</v>
@@ -17236,7 +17236,7 @@
         <v>135</v>
       </c>
       <c r="F291" t="n">
-        <v>0.02229068503080826</v>
+        <v>0.0222906850308083</v>
       </c>
       <c r="G291" t="n">
         <v>5242</v>
@@ -17294,7 +17294,7 @@
         <v>143</v>
       </c>
       <c r="F292" t="n">
-        <v>0.02231419830843981</v>
+        <v>0.0223141983084398</v>
       </c>
       <c r="G292" t="n">
         <v>5272</v>
@@ -17352,7 +17352,7 @@
         <v>175</v>
       </c>
       <c r="F293" t="n">
-        <v>0.02204052612868823</v>
+        <v>0.0220405261286882</v>
       </c>
       <c r="G293" t="n">
         <v>5309</v>
@@ -17410,7 +17410,7 @@
         <v>83</v>
       </c>
       <c r="F294" t="n">
-        <v>0.02184252245904527</v>
+        <v>0.0218425224590453</v>
       </c>
       <c r="G294" t="n">
         <v>5452</v>
@@ -17526,7 +17526,7 @@
         <v>109</v>
       </c>
       <c r="F296" t="n">
-        <v>0.02141511050197019</v>
+        <v>0.0214151105019702</v>
       </c>
       <c r="G296" t="n">
         <v>5584</v>
@@ -17584,7 +17584,7 @@
         <v>125</v>
       </c>
       <c r="F297" t="n">
-        <v>0.02123356926188069</v>
+        <v>0.0212335692618807</v>
       </c>
       <c r="G297" t="n">
         <v>5664</v>
@@ -17642,7 +17642,7 @@
         <v>130</v>
       </c>
       <c r="F298" t="n">
-        <v>0.02084712111184646</v>
+        <v>0.0208471211118465</v>
       </c>
       <c r="G298" t="n">
         <v>5769</v>
@@ -17700,7 +17700,7 @@
         <v>117</v>
       </c>
       <c r="F299" t="n">
-        <v>0.02069985214391326</v>
+        <v>0.0206998521439133</v>
       </c>
       <c r="G299" t="n">
         <v>5825</v>
@@ -17758,7 +17758,7 @@
         <v>134</v>
       </c>
       <c r="F300" t="n">
-        <v>0.02047448813779655</v>
+        <v>0.0204744881377966</v>
       </c>
       <c r="G300" t="n">
         <v>5875</v>
@@ -17816,7 +17816,7 @@
         <v>128</v>
       </c>
       <c r="F301" t="n">
-        <v>0.02031275189424472</v>
+        <v>0.0203127518942447</v>
       </c>
       <c r="G301" t="n">
         <v>5927</v>
@@ -17874,7 +17874,7 @@
         <v>118</v>
       </c>
       <c r="F302" t="n">
-        <v>0.02077294685990338</v>
+        <v>0.0207729468599034</v>
       </c>
       <c r="G302" t="n">
         <v>5944</v>
@@ -17932,7 +17932,7 @@
         <v>118</v>
       </c>
       <c r="F303" t="n">
-        <v>0.02068746021642266</v>
+        <v>0.0206874602164227</v>
       </c>
       <c r="G303" t="n">
         <v>6017</v>
@@ -17990,7 +17990,7 @@
         <v>131</v>
       </c>
       <c r="F304" t="n">
-        <v>0.02028714107365793</v>
+        <v>0.0202871410736579</v>
       </c>
       <c r="G304" t="n">
         <v>6128</v>
@@ -18048,7 +18048,7 @@
         <v>177</v>
       </c>
       <c r="F305" t="n">
-        <v>0.02027338350483797</v>
+        <v>0.020273383504838</v>
       </c>
       <c r="G305" t="n">
         <v>6183</v>
@@ -18106,7 +18106,7 @@
         <v>194</v>
       </c>
       <c r="F306" t="n">
-        <v>0.02007299270072993</v>
+        <v>0.0200729927007299</v>
       </c>
       <c r="G306" t="n">
         <v>6231</v>
@@ -18164,7 +18164,7 @@
         <v>133</v>
       </c>
       <c r="F307" t="n">
-        <v>0.02027331431145818</v>
+        <v>0.0202733143114582</v>
       </c>
       <c r="G307" t="n">
         <v>6372</v>
@@ -18222,7 +18222,7 @@
         <v>153</v>
       </c>
       <c r="F308" t="n">
-        <v>0.02010050251256281</v>
+        <v>0.0201005025125628</v>
       </c>
       <c r="G308" t="n">
         <v>6458</v>
@@ -18280,7 +18280,7 @@
         <v>117</v>
       </c>
       <c r="F309" t="n">
-        <v>0.02027920646583395</v>
+        <v>0.0202792064658339</v>
       </c>
       <c r="G309" t="n">
         <v>6531</v>
@@ -18338,7 +18338,7 @@
         <v>140</v>
       </c>
       <c r="F310" t="n">
-        <v>0.01998551774076756</v>
+        <v>0.0199855177407676</v>
       </c>
       <c r="G310" t="n">
         <v>6608</v>
@@ -18396,7 +18396,7 @@
         <v>142</v>
       </c>
       <c r="F311" t="n">
-        <v>0.01984863629872912</v>
+        <v>0.0198486362987291</v>
       </c>
       <c r="G311" t="n">
         <v>6703</v>
@@ -18454,7 +18454,7 @@
         <v>140</v>
       </c>
       <c r="F312" t="n">
-        <v>0.01988353926999006</v>
+        <v>0.0198835392699901</v>
       </c>
       <c r="G312" t="n">
         <v>6742</v>
@@ -18570,7 +18570,7 @@
         <v>177</v>
       </c>
       <c r="F314" t="n">
-        <v>0.01965942129309151</v>
+        <v>0.0196594212930915</v>
       </c>
       <c r="G314" t="n">
         <v>6884</v>
@@ -18628,7 +18628,7 @@
         <v>168</v>
       </c>
       <c r="F315" t="n">
-        <v>0.01953232462173315</v>
+        <v>0.0195323246217332</v>
       </c>
       <c r="G315" t="n">
         <v>6940</v>
@@ -18686,7 +18686,7 @@
         <v>132</v>
       </c>
       <c r="F316" t="n">
-        <v>0.01949478308621637</v>
+        <v>0.0194947830862164</v>
       </c>
       <c r="G316" t="n">
         <v>6990</v>
@@ -18744,7 +18744,7 @@
         <v>143</v>
       </c>
       <c r="F317" t="n">
-        <v>0.01993174061433447</v>
+        <v>0.0199317406143345</v>
       </c>
       <c r="G317" t="n">
         <v>7016</v>
@@ -18860,7 +18860,7 @@
         <v>117</v>
       </c>
       <c r="F319" t="n">
-        <v>0.01994340385392804</v>
+        <v>0.019943403853928</v>
       </c>
       <c r="G319" t="n">
         <v>7135</v>
@@ -18918,7 +18918,7 @@
         <v>109</v>
       </c>
       <c r="F320" t="n">
-        <v>0.01999463231347289</v>
+        <v>0.0199946323134729</v>
       </c>
       <c r="G320" t="n">
         <v>7173</v>
@@ -18976,7 +18976,7 @@
         <v>86</v>
       </c>
       <c r="F321" t="n">
-        <v>0.02006111332536203</v>
+        <v>0.020061113325362</v>
       </c>
       <c r="G321" t="n">
         <v>7269</v>
@@ -19034,7 +19034,7 @@
         <v>118</v>
       </c>
       <c r="F322" t="n">
-        <v>0.02012363540707615</v>
+        <v>0.0201236354070762</v>
       </c>
       <c r="G322" t="n">
         <v>7311</v>
@@ -19092,7 +19092,7 @@
         <v>87</v>
       </c>
       <c r="F323" t="n">
-        <v>0.02025249868490268</v>
+        <v>0.0202524986849027</v>
       </c>
       <c r="G323" t="n">
         <v>7342</v>
@@ -19150,7 +19150,7 @@
         <v>98</v>
       </c>
       <c r="F324" t="n">
-        <v>0.02024555903866249</v>
+        <v>0.0202455590386625</v>
       </c>
       <c r="G324" t="n">
         <v>7382</v>
@@ -19208,7 +19208,7 @@
         <v>173</v>
       </c>
       <c r="F325" t="n">
-        <v>0.02077922077922078</v>
+        <v>0.0207792207792208</v>
       </c>
       <c r="G325" t="n">
         <v>7345</v>
@@ -19266,7 +19266,7 @@
         <v>114</v>
       </c>
       <c r="F326" t="n">
-        <v>0.02075858534085085</v>
+        <v>0.0207585853408508</v>
       </c>
       <c r="G326" t="n">
         <v>7506</v>
@@ -19324,7 +19324,7 @@
         <v>178</v>
       </c>
       <c r="F327" t="n">
-        <v>0.02063813623702203</v>
+        <v>0.020638136237022</v>
       </c>
       <c r="G327" t="n">
         <v>7535</v>
@@ -19382,7 +19382,7 @@
         <v>157</v>
       </c>
       <c r="F328" t="n">
-        <v>0.02067835077543815</v>
+        <v>0.0206783507754381</v>
       </c>
       <c r="G328" t="n">
         <v>7588</v>
@@ -19440,7 +19440,7 @@
         <v>158</v>
       </c>
       <c r="F329" t="n">
-        <v>0.02086213397008923</v>
+        <v>0.0208621339700892</v>
       </c>
       <c r="G329" t="n">
         <v>7611</v>
@@ -19556,7 +19556,7 @@
         <v>163</v>
       </c>
       <c r="F331" t="n">
-        <v>0.02106443973575969</v>
+        <v>0.0210644397357597</v>
       </c>
       <c r="G331" t="n">
         <v>7669</v>
@@ -19614,7 +19614,7 @@
         <v>335</v>
       </c>
       <c r="F332" t="n">
-        <v>0.02083847102342787</v>
+        <v>0.0208384710234279</v>
       </c>
       <c r="G332" t="n">
         <v>7775</v>
@@ -19672,7 +19672,7 @@
         <v>135</v>
       </c>
       <c r="F333" t="n">
-        <v>0.02091948431038677</v>
+        <v>0.0209194843103868</v>
       </c>
       <c r="G333" t="n">
         <v>7892</v>
@@ -19730,7 +19730,7 @@
         <v>135</v>
       </c>
       <c r="F334" t="n">
-        <v>0.02091948431038677</v>
+        <v>0.0209194843103868</v>
       </c>
       <c r="G334" t="n">
         <v>7892</v>
@@ -19788,7 +19788,7 @@
         <v>135</v>
       </c>
       <c r="F335" t="n">
-        <v>0.02091948431038677</v>
+        <v>0.0209194843103868</v>
       </c>
       <c r="G335" t="n">
         <v>7892</v>
@@ -19846,7 +19846,7 @@
         <v>135</v>
       </c>
       <c r="F336" t="n">
-        <v>0.02091948431038677</v>
+        <v>0.0209194843103868</v>
       </c>
       <c r="G336" t="n">
         <v>7892</v>
@@ -19904,7 +19904,7 @@
         <v>135</v>
       </c>
       <c r="F337" t="n">
-        <v>0.02091948431038677</v>
+        <v>0.0209194843103868</v>
       </c>
       <c r="G337" t="n">
         <v>7892</v>
@@ -19962,7 +19962,7 @@
         <v>83</v>
       </c>
       <c r="F338" t="n">
-        <v>0.02095418491772227</v>
+        <v>0.0209541849177223</v>
       </c>
       <c r="G338" t="n">
         <v>8163</v>
@@ -20020,7 +20020,7 @@
         <v>97</v>
       </c>
       <c r="F339" t="n">
-        <v>0.02105386967772289</v>
+        <v>0.0210538696777229</v>
       </c>
       <c r="G339" t="n">
         <v>8202</v>
@@ -20078,7 +20078,7 @@
         <v>110</v>
       </c>
       <c r="F340" t="n">
-        <v>0.02079702567677472</v>
+        <v>0.0207970256767747</v>
       </c>
       <c r="G340" t="n">
         <v>8294</v>
@@ -20194,7 +20194,7 @@
         <v>122</v>
       </c>
       <c r="F342" t="n">
-        <v>0.02050649932765576</v>
+        <v>0.0205064993276558</v>
       </c>
       <c r="G342" t="n">
         <v>8595</v>
@@ -20252,7 +20252,7 @@
         <v>129</v>
       </c>
       <c r="F343" t="n">
-        <v>0.02045126153162165</v>
+        <v>0.0204512615316216</v>
       </c>
       <c r="G343" t="n">
         <v>8660</v>
@@ -20310,7 +20310,7 @@
         <v>104</v>
       </c>
       <c r="F344" t="n">
-        <v>0.02060713494349656</v>
+        <v>0.0206071349434966</v>
       </c>
       <c r="G344" t="n">
         <v>8711</v>
@@ -20368,7 +20368,7 @@
         <v>112</v>
       </c>
       <c r="F345" t="n">
-        <v>0.02064572809136833</v>
+        <v>0.0206457280913683</v>
       </c>
       <c r="G345" t="n">
         <v>8780</v>
@@ -20426,7 +20426,7 @@
         <v>122</v>
       </c>
       <c r="F346" t="n">
-        <v>0.02049669233271879</v>
+        <v>0.0204966923327188</v>
       </c>
       <c r="G346" t="n">
         <v>8884</v>
@@ -20484,7 +20484,7 @@
         <v>160</v>
       </c>
       <c r="F347" t="n">
-        <v>0.02031433764567519</v>
+        <v>0.0203143376456752</v>
       </c>
       <c r="G347" t="n">
         <v>8977</v>
@@ -20542,7 +20542,7 @@
         <v>214</v>
       </c>
       <c r="F348" t="n">
-        <v>0.02030671602326811</v>
+        <v>0.0203067160232681</v>
       </c>
       <c r="G348" t="n">
         <v>9023</v>
@@ -20600,7 +20600,7 @@
         <v>207</v>
       </c>
       <c r="F349" t="n">
-        <v>0.02092269065801862</v>
+        <v>0.0209226906580186</v>
       </c>
       <c r="G349" t="n">
         <v>9126</v>
@@ -20658,7 +20658,7 @@
         <v>208</v>
       </c>
       <c r="F350" t="n">
-        <v>0.02092442223610243</v>
+        <v>0.0209244222361024</v>
       </c>
       <c r="G350" t="n">
         <v>9171</v>
@@ -20716,7 +20716,7 @@
         <v>236</v>
       </c>
       <c r="F351" t="n">
-        <v>0.02133194588969823</v>
+        <v>0.0213319458896982</v>
       </c>
       <c r="G351" t="n">
         <v>9143</v>
@@ -20774,7 +20774,7 @@
         <v>157</v>
       </c>
       <c r="F352" t="n">
-        <v>0.02133360816242399</v>
+        <v>0.021333608162424</v>
       </c>
       <c r="G352" t="n">
         <v>9313</v>
@@ -20832,7 +20832,7 @@
         <v>138</v>
       </c>
       <c r="F353" t="n">
-        <v>0.02143809621499641</v>
+        <v>0.0214380962149964</v>
       </c>
       <c r="G353" t="n">
         <v>9376</v>
@@ -20890,7 +20890,7 @@
         <v>117</v>
       </c>
       <c r="F354" t="n">
-        <v>0.02183450668299153</v>
+        <v>0.0218345066829915</v>
       </c>
       <c r="G354" t="n">
         <v>9444</v>
@@ -20948,7 +20948,7 @@
         <v>134</v>
       </c>
       <c r="F355" t="n">
-        <v>0.02174352750809061</v>
+        <v>0.0217435275080906</v>
       </c>
       <c r="G355" t="n">
         <v>9513</v>
@@ -21006,7 +21006,7 @@
         <v>146</v>
       </c>
       <c r="F356" t="n">
-        <v>0.02167151600280927</v>
+        <v>0.0216715160028093</v>
       </c>
       <c r="G356" t="n">
         <v>9579</v>
@@ -21064,7 +21064,7 @@
         <v>142</v>
       </c>
       <c r="F357" t="n">
-        <v>0.02151608725968722</v>
+        <v>0.0215160872596872</v>
       </c>
       <c r="G357" t="n">
         <v>9655</v>
@@ -21122,7 +21122,7 @@
         <v>145</v>
       </c>
       <c r="F358" t="n">
-        <v>0.02199661590524535</v>
+        <v>0.0219966159052453</v>
       </c>
       <c r="G358" t="n">
         <v>9663</v>
@@ -21180,7 +21180,7 @@
         <v>118</v>
       </c>
       <c r="F359" t="n">
-        <v>0.02222880853586248</v>
+        <v>0.0222288085358625</v>
       </c>
       <c r="G359" t="n">
         <v>9753</v>
@@ -21238,7 +21238,7 @@
         <v>140</v>
       </c>
       <c r="F360" t="n">
-        <v>0.02249950874435056</v>
+        <v>0.0224995087443506</v>
       </c>
       <c r="G360" t="n">
         <v>9782</v>
@@ -21274,6 +21274,122 @@
         <v>4</v>
       </c>
       <c r="R360" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2021/03/24</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>360</v>
+      </c>
+      <c r="C361" t="n">
+        <v>10303</v>
+      </c>
+      <c r="D361" t="n">
+        <v>232</v>
+      </c>
+      <c r="E361" t="n">
+        <v>166</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.022517713287392</v>
+      </c>
+      <c r="G361" t="n">
+        <v>9877</v>
+      </c>
+      <c r="H361" t="n">
+        <v>18557</v>
+      </c>
+      <c r="I361" t="n">
+        <v>28860</v>
+      </c>
+      <c r="J361" t="n">
+        <v>125</v>
+      </c>
+      <c r="K361" t="n">
+        <v>518</v>
+      </c>
+      <c r="L361" t="n">
+        <v>2</v>
+      </c>
+      <c r="M361" t="n">
+        <v>516</v>
+      </c>
+      <c r="N361" t="n">
+        <v>126</v>
+      </c>
+      <c r="O361" t="n">
+        <v>59</v>
+      </c>
+      <c r="P361" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>3</v>
+      </c>
+      <c r="R361" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2021/03/25</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>361</v>
+      </c>
+      <c r="C362" t="n">
+        <v>10436</v>
+      </c>
+      <c r="D362" t="n">
+        <v>241</v>
+      </c>
+      <c r="E362" t="n">
+        <v>164</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.0230931391337677</v>
+      </c>
+      <c r="G362" t="n">
+        <v>1003</v>
+      </c>
+      <c r="H362" t="n">
+        <v>18558</v>
+      </c>
+      <c r="I362" t="n">
+        <v>28994</v>
+      </c>
+      <c r="J362" t="n">
+        <v>133</v>
+      </c>
+      <c r="K362" t="n">
+        <v>546</v>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="n">
+        <v>545</v>
+      </c>
+      <c r="N362" t="n">
+        <v>134</v>
+      </c>
+      <c r="O362" t="n">
+        <v>62</v>
+      </c>
+      <c r="P362" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>9</v>
+      </c>
+      <c r="R362" t="n">
         <v>52</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R362"/>
+  <dimension ref="A1:R364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21012,10 +21012,10 @@
         <v>9579</v>
       </c>
       <c r="H356" t="n">
-        <v>18556</v>
+        <v>20352</v>
       </c>
       <c r="I356" t="n">
-        <v>28523</v>
+        <v>30319</v>
       </c>
       <c r="J356" t="n">
         <v>79</v>
@@ -21030,7 +21030,7 @@
         <v>539</v>
       </c>
       <c r="N356" t="n">
-        <v>79</v>
+        <v>1875</v>
       </c>
       <c r="O356" t="n">
         <v>62</v>
@@ -21070,10 +21070,10 @@
         <v>9655</v>
       </c>
       <c r="H357" t="n">
-        <v>18556</v>
+        <v>20353</v>
       </c>
       <c r="I357" t="n">
-        <v>28595</v>
+        <v>30392</v>
       </c>
       <c r="J357" t="n">
         <v>72</v>
@@ -21088,7 +21088,7 @@
         <v>424</v>
       </c>
       <c r="N357" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O357" t="n">
         <v>66</v>
@@ -21128,10 +21128,10 @@
         <v>9663</v>
       </c>
       <c r="H358" t="n">
-        <v>18556</v>
+        <v>20354</v>
       </c>
       <c r="I358" t="n">
-        <v>28603</v>
+        <v>30401</v>
       </c>
       <c r="J358" t="n">
         <v>8</v>
@@ -21146,7 +21146,7 @@
         <v>427</v>
       </c>
       <c r="N358" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O358" t="n">
         <v>60</v>
@@ -21186,10 +21186,10 @@
         <v>9753</v>
       </c>
       <c r="H359" t="n">
-        <v>18556</v>
+        <v>20355</v>
       </c>
       <c r="I359" t="n">
-        <v>28678</v>
+        <v>30477</v>
       </c>
       <c r="J359" t="n">
         <v>75</v>
@@ -21204,7 +21204,7 @@
         <v>362</v>
       </c>
       <c r="N359" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O359" t="n">
         <v>65</v>
@@ -21244,10 +21244,10 @@
         <v>9782</v>
       </c>
       <c r="H360" t="n">
-        <v>18556</v>
+        <v>20356</v>
       </c>
       <c r="I360" t="n">
-        <v>28734</v>
+        <v>30534</v>
       </c>
       <c r="J360" t="n">
         <v>56</v>
@@ -21262,7 +21262,7 @@
         <v>573</v>
       </c>
       <c r="N360" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O360" t="n">
         <v>64</v>
@@ -21302,10 +21302,10 @@
         <v>9877</v>
       </c>
       <c r="H361" t="n">
-        <v>18557</v>
+        <v>20357</v>
       </c>
       <c r="I361" t="n">
-        <v>28860</v>
+        <v>30660</v>
       </c>
       <c r="J361" t="n">
         <v>125</v>
@@ -21360,10 +21360,10 @@
         <v>1003</v>
       </c>
       <c r="H362" t="n">
-        <v>18558</v>
+        <v>20358</v>
       </c>
       <c r="I362" t="n">
-        <v>28994</v>
+        <v>30794</v>
       </c>
       <c r="J362" t="n">
         <v>133</v>
@@ -21390,6 +21390,122 @@
         <v>9</v>
       </c>
       <c r="R362" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2021/03/26</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>362</v>
+      </c>
+      <c r="C363" t="n">
+        <v>10513</v>
+      </c>
+      <c r="D363" t="n">
+        <v>244</v>
+      </c>
+      <c r="E363" t="n">
+        <v>155</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.0232093598401979</v>
+      </c>
+      <c r="G363" t="n">
+        <v>10086</v>
+      </c>
+      <c r="H363" t="n">
+        <v>20359</v>
+      </c>
+      <c r="I363" t="n">
+        <v>30872</v>
+      </c>
+      <c r="J363" t="n">
+        <v>77</v>
+      </c>
+      <c r="K363" t="n">
+        <v>634</v>
+      </c>
+      <c r="L363" t="n">
+        <v>2</v>
+      </c>
+      <c r="M363" t="n">
+        <v>632</v>
+      </c>
+      <c r="N363" t="n">
+        <v>78</v>
+      </c>
+      <c r="O363" t="n">
+        <v>60</v>
+      </c>
+      <c r="P363" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>3</v>
+      </c>
+      <c r="R363" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2021/03/27</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>363</v>
+      </c>
+      <c r="C364" t="n">
+        <v>10565</v>
+      </c>
+      <c r="D364" t="n">
+        <v>248</v>
+      </c>
+      <c r="E364" t="n">
+        <v>139</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.0234737340274491</v>
+      </c>
+      <c r="G364" t="n">
+        <v>10150</v>
+      </c>
+      <c r="H364" t="n">
+        <v>20360</v>
+      </c>
+      <c r="I364" t="n">
+        <v>30925</v>
+      </c>
+      <c r="J364" t="n">
+        <v>52</v>
+      </c>
+      <c r="K364" t="n">
+        <v>577</v>
+      </c>
+      <c r="L364" t="n">
+        <v>2</v>
+      </c>
+      <c r="M364" t="n">
+        <v>575</v>
+      </c>
+      <c r="N364" t="n">
+        <v>53</v>
+      </c>
+      <c r="O364" t="n">
+        <v>59</v>
+      </c>
+      <c r="P364" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>4</v>
+      </c>
+      <c r="R364" t="n">
         <v>52</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R364"/>
+  <dimension ref="A1:R365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21070,10 +21070,10 @@
         <v>9655</v>
       </c>
       <c r="H357" t="n">
-        <v>20353</v>
+        <v>20352</v>
       </c>
       <c r="I357" t="n">
-        <v>30392</v>
+        <v>30391</v>
       </c>
       <c r="J357" t="n">
         <v>72</v>
@@ -21088,7 +21088,7 @@
         <v>424</v>
       </c>
       <c r="N357" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O357" t="n">
         <v>66</v>
@@ -21128,10 +21128,10 @@
         <v>9663</v>
       </c>
       <c r="H358" t="n">
-        <v>20354</v>
+        <v>20352</v>
       </c>
       <c r="I358" t="n">
-        <v>30401</v>
+        <v>30399</v>
       </c>
       <c r="J358" t="n">
         <v>8</v>
@@ -21146,7 +21146,7 @@
         <v>427</v>
       </c>
       <c r="N358" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O358" t="n">
         <v>60</v>
@@ -21186,10 +21186,10 @@
         <v>9753</v>
       </c>
       <c r="H359" t="n">
-        <v>20355</v>
+        <v>20352</v>
       </c>
       <c r="I359" t="n">
-        <v>30477</v>
+        <v>30474</v>
       </c>
       <c r="J359" t="n">
         <v>75</v>
@@ -21204,7 +21204,7 @@
         <v>362</v>
       </c>
       <c r="N359" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O359" t="n">
         <v>65</v>
@@ -21244,10 +21244,10 @@
         <v>9782</v>
       </c>
       <c r="H360" t="n">
-        <v>20356</v>
+        <v>20352</v>
       </c>
       <c r="I360" t="n">
-        <v>30534</v>
+        <v>30530</v>
       </c>
       <c r="J360" t="n">
         <v>56</v>
@@ -21262,7 +21262,7 @@
         <v>573</v>
       </c>
       <c r="N360" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O360" t="n">
         <v>64</v>
@@ -21302,10 +21302,10 @@
         <v>9877</v>
       </c>
       <c r="H361" t="n">
-        <v>20357</v>
+        <v>20352</v>
       </c>
       <c r="I361" t="n">
-        <v>30660</v>
+        <v>30655</v>
       </c>
       <c r="J361" t="n">
         <v>125</v>
@@ -21320,7 +21320,7 @@
         <v>516</v>
       </c>
       <c r="N361" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O361" t="n">
         <v>59</v>
@@ -21360,10 +21360,10 @@
         <v>1003</v>
       </c>
       <c r="H362" t="n">
-        <v>20358</v>
+        <v>20352</v>
       </c>
       <c r="I362" t="n">
-        <v>30794</v>
+        <v>30788</v>
       </c>
       <c r="J362" t="n">
         <v>133</v>
@@ -21378,7 +21378,7 @@
         <v>545</v>
       </c>
       <c r="N362" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O362" t="n">
         <v>62</v>
@@ -21418,10 +21418,10 @@
         <v>10086</v>
       </c>
       <c r="H363" t="n">
-        <v>20359</v>
+        <v>20352</v>
       </c>
       <c r="I363" t="n">
-        <v>30872</v>
+        <v>30865</v>
       </c>
       <c r="J363" t="n">
         <v>77</v>
@@ -21436,7 +21436,7 @@
         <v>632</v>
       </c>
       <c r="N363" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O363" t="n">
         <v>60</v>
@@ -21476,10 +21476,10 @@
         <v>10150</v>
       </c>
       <c r="H364" t="n">
-        <v>20360</v>
+        <v>20352</v>
       </c>
       <c r="I364" t="n">
-        <v>30925</v>
+        <v>30917</v>
       </c>
       <c r="J364" t="n">
         <v>52</v>
@@ -21494,7 +21494,7 @@
         <v>575</v>
       </c>
       <c r="N364" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O364" t="n">
         <v>59</v>
@@ -21507,6 +21507,64 @@
       </c>
       <c r="R364" t="n">
         <v>52</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2021/03/28</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>364</v>
+      </c>
+      <c r="C365" t="n">
+        <v>10575</v>
+      </c>
+      <c r="D365" t="n">
+        <v>250</v>
+      </c>
+      <c r="E365" t="n">
+        <v>144</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.0236406619385343</v>
+      </c>
+      <c r="G365" t="n">
+        <v>10159</v>
+      </c>
+      <c r="H365" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I365" t="n">
+        <v>30927</v>
+      </c>
+      <c r="J365" t="n">
+        <v>10</v>
+      </c>
+      <c r="K365" t="n">
+        <v>574</v>
+      </c>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="n">
+        <v>573</v>
+      </c>
+      <c r="N365" t="n">
+        <v>10</v>
+      </c>
+      <c r="O365" t="n">
+        <v>61</v>
+      </c>
+      <c r="P365" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>2</v>
+      </c>
+      <c r="R365" t="n">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -21357,7 +21357,7 @@
         <v>0.0230931391337677</v>
       </c>
       <c r="G362" t="n">
-        <v>1003</v>
+        <v>10003</v>
       </c>
       <c r="H362" t="n">
         <v>20352</v>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R365"/>
+  <dimension ref="A1:R367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21567,6 +21567,122 @@
         <v>53</v>
       </c>
     </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2021/03/29</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>365</v>
+      </c>
+      <c r="C366" t="n">
+        <v>10648</v>
+      </c>
+      <c r="D366" t="n">
+        <v>253</v>
+      </c>
+      <c r="E366" t="n">
+        <v>131</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.0237603305785124</v>
+      </c>
+      <c r="G366" t="n">
+        <v>10236</v>
+      </c>
+      <c r="H366" t="n">
+        <v>20353</v>
+      </c>
+      <c r="I366" t="n">
+        <v>31001</v>
+      </c>
+      <c r="J366" t="n">
+        <v>73</v>
+      </c>
+      <c r="K366" t="n">
+        <v>534</v>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="n">
+        <v>533</v>
+      </c>
+      <c r="N366" t="n">
+        <v>74</v>
+      </c>
+      <c r="O366" t="n">
+        <v>58</v>
+      </c>
+      <c r="P366" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>3</v>
+      </c>
+      <c r="R366" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2021/03/30</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>366</v>
+      </c>
+      <c r="C367" t="n">
+        <v>10703</v>
+      </c>
+      <c r="D367" t="n">
+        <v>260</v>
+      </c>
+      <c r="E367" t="n">
+        <v>167</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.0242922545080818</v>
+      </c>
+      <c r="G367" t="n">
+        <v>10303</v>
+      </c>
+      <c r="H367" t="n">
+        <v>20354</v>
+      </c>
+      <c r="I367" t="n">
+        <v>31057</v>
+      </c>
+      <c r="J367" t="n">
+        <v>55</v>
+      </c>
+      <c r="K367" t="n">
+        <v>664</v>
+      </c>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="n">
+        <v>663</v>
+      </c>
+      <c r="N367" t="n">
+        <v>56</v>
+      </c>
+      <c r="O367" t="n">
+        <v>58</v>
+      </c>
+      <c r="P367" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>7</v>
+      </c>
+      <c r="R367" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R367"/>
+  <dimension ref="A1:R368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21592,10 +21592,10 @@
         <v>10236</v>
       </c>
       <c r="H366" t="n">
-        <v>20353</v>
+        <v>20352</v>
       </c>
       <c r="I366" t="n">
-        <v>31001</v>
+        <v>31000</v>
       </c>
       <c r="J366" t="n">
         <v>73</v>
@@ -21610,7 +21610,7 @@
         <v>533</v>
       </c>
       <c r="N366" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O366" t="n">
         <v>58</v>
@@ -21650,10 +21650,10 @@
         <v>10303</v>
       </c>
       <c r="H367" t="n">
-        <v>20354</v>
+        <v>20352</v>
       </c>
       <c r="I367" t="n">
-        <v>31057</v>
+        <v>31055</v>
       </c>
       <c r="J367" t="n">
         <v>55</v>
@@ -21668,7 +21668,7 @@
         <v>663</v>
       </c>
       <c r="N367" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O367" t="n">
         <v>58</v>
@@ -21680,6 +21680,64 @@
         <v>7</v>
       </c>
       <c r="R367" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2021/03/31</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>367</v>
+      </c>
+      <c r="C368" t="n">
+        <v>10808</v>
+      </c>
+      <c r="D368" t="n">
+        <v>261</v>
+      </c>
+      <c r="E368" t="n">
+        <v>141</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.0241487786824574</v>
+      </c>
+      <c r="G368" t="n">
+        <v>10378</v>
+      </c>
+      <c r="H368" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I368" t="n">
+        <v>31160</v>
+      </c>
+      <c r="J368" t="n">
+        <v>105</v>
+      </c>
+      <c r="K368" t="n">
+        <v>620</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M368" t="n">
+        <v>620</v>
+      </c>
+      <c r="N368" t="n">
+        <v>105</v>
+      </c>
+      <c r="O368" t="n">
+        <v>53</v>
+      </c>
+      <c r="P368" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>1</v>
+      </c>
+      <c r="R368" t="n">
         <v>53</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R368"/>
+  <dimension ref="A1:R369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21741,6 +21741,64 @@
         <v>53</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2021/04/01</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>368</v>
+      </c>
+      <c r="C369" t="n">
+        <v>10845</v>
+      </c>
+      <c r="D369" t="n">
+        <v>265</v>
+      </c>
+      <c r="E369" t="n">
+        <v>167</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.0244352236053481</v>
+      </c>
+      <c r="G369" t="n">
+        <v>10383</v>
+      </c>
+      <c r="H369" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I369" t="n">
+        <v>31197</v>
+      </c>
+      <c r="J369" t="n">
+        <v>37</v>
+      </c>
+      <c r="K369" t="n">
+        <v>618</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M369" t="n">
+        <v>618</v>
+      </c>
+      <c r="N369" t="n">
+        <v>37</v>
+      </c>
+      <c r="O369" t="n">
+        <v>59</v>
+      </c>
+      <c r="P369" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>4</v>
+      </c>
+      <c r="R369" t="n">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R369"/>
+  <dimension ref="A1:R372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21799,6 +21799,180 @@
         <v>53</v>
       </c>
     </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2021/04/02</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>369</v>
+      </c>
+      <c r="C370" t="n">
+        <v>10873</v>
+      </c>
+      <c r="D370" t="n">
+        <v>268</v>
+      </c>
+      <c r="E370" t="n">
+        <v>168</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.0246482111652718</v>
+      </c>
+      <c r="G370" t="n">
+        <v>10407</v>
+      </c>
+      <c r="H370" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I370" t="n">
+        <v>31225</v>
+      </c>
+      <c r="J370" t="n">
+        <v>28</v>
+      </c>
+      <c r="K370" t="n">
+        <v>619</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M370" t="n">
+        <v>619</v>
+      </c>
+      <c r="N370" t="n">
+        <v>28</v>
+      </c>
+      <c r="O370" t="n">
+        <v>42</v>
+      </c>
+      <c r="P370" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>3</v>
+      </c>
+      <c r="R370" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2021/04/03</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>370</v>
+      </c>
+      <c r="C371" t="n">
+        <v>10927</v>
+      </c>
+      <c r="D371" t="n">
+        <v>269</v>
+      </c>
+      <c r="E371" t="n">
+        <v>113</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.0246179189164455</v>
+      </c>
+      <c r="G371" t="n">
+        <v>10514</v>
+      </c>
+      <c r="H371" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I371" t="n">
+        <v>31279</v>
+      </c>
+      <c r="J371" t="n">
+        <v>54</v>
+      </c>
+      <c r="K371" t="n">
+        <v>535</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M371" t="n">
+        <v>535</v>
+      </c>
+      <c r="N371" t="n">
+        <v>54</v>
+      </c>
+      <c r="O371" t="n">
+        <v>47</v>
+      </c>
+      <c r="P371" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>1</v>
+      </c>
+      <c r="R371" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2021/04/04</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>371</v>
+      </c>
+      <c r="C372" t="n">
+        <v>10927</v>
+      </c>
+      <c r="D372" t="n">
+        <v>269</v>
+      </c>
+      <c r="E372" t="n">
+        <v>113</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.0246179189164455</v>
+      </c>
+      <c r="G372" t="n">
+        <v>10514</v>
+      </c>
+      <c r="H372" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I372" t="n">
+        <v>31279</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
+      <c r="K372" t="n">
+        <v>535</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M372" t="n">
+        <v>535</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0</v>
+      </c>
+      <c r="O372" t="n">
+        <v>47</v>
+      </c>
+      <c r="P372" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R372" t="n">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R372"/>
+  <dimension ref="A1:R374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21973,6 +21973,122 @@
         <v>54</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2021/04/05</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>372</v>
+      </c>
+      <c r="C373" t="n">
+        <v>10959</v>
+      </c>
+      <c r="D373" t="n">
+        <v>276</v>
+      </c>
+      <c r="E373" t="n">
+        <v>87</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.0251847796331782</v>
+      </c>
+      <c r="G373" t="n">
+        <v>10565</v>
+      </c>
+      <c r="H373" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I373" t="n">
+        <v>31311</v>
+      </c>
+      <c r="J373" t="n">
+        <v>32</v>
+      </c>
+      <c r="K373" t="n">
+        <v>538</v>
+      </c>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="n">
+        <v>537</v>
+      </c>
+      <c r="N373" t="n">
+        <v>32</v>
+      </c>
+      <c r="O373" t="n">
+        <v>52</v>
+      </c>
+      <c r="P373" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>7</v>
+      </c>
+      <c r="R373" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2021/04/06</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>373</v>
+      </c>
+      <c r="C374" t="n">
+        <v>11045</v>
+      </c>
+      <c r="D374" t="n">
+        <v>278</v>
+      </c>
+      <c r="E374" t="n">
+        <v>98</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.025169760072431</v>
+      </c>
+      <c r="G374" t="n">
+        <v>10638</v>
+      </c>
+      <c r="H374" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I374" t="n">
+        <v>31397</v>
+      </c>
+      <c r="J374" t="n">
+        <v>86</v>
+      </c>
+      <c r="K374" t="n">
+        <v>578</v>
+      </c>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="n">
+        <v>577</v>
+      </c>
+      <c r="N374" t="n">
+        <v>86</v>
+      </c>
+      <c r="O374" t="n">
+        <v>55</v>
+      </c>
+      <c r="P374" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>2</v>
+      </c>
+      <c r="R374" t="n">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R374"/>
+  <dimension ref="A1:R375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22089,6 +22089,64 @@
         <v>54</v>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2021/04/07</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>374</v>
+      </c>
+      <c r="C375" t="n">
+        <v>11206</v>
+      </c>
+      <c r="D375" t="n">
+        <v>281</v>
+      </c>
+      <c r="E375" t="n">
+        <v>112</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.0250758522220239</v>
+      </c>
+      <c r="G375" t="n">
+        <v>10782</v>
+      </c>
+      <c r="H375" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I375" t="n">
+        <v>31558</v>
+      </c>
+      <c r="J375" t="n">
+        <v>161</v>
+      </c>
+      <c r="K375" t="n">
+        <v>563</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M375" t="n">
+        <v>563</v>
+      </c>
+      <c r="N375" t="n">
+        <v>161</v>
+      </c>
+      <c r="O375" t="n">
+        <v>50</v>
+      </c>
+      <c r="P375" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>3</v>
+      </c>
+      <c r="R375" t="n">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R375"/>
+  <dimension ref="A1:R376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22120,16 +22120,16 @@
         <v>31558</v>
       </c>
       <c r="J375" t="n">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="K375" t="n">
-        <v>563</v>
+        <v>-9.39078504071031e-05</v>
       </c>
       <c r="L375" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="M375" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="N375" t="n">
         <v>161</v>
@@ -22144,6 +22144,64 @@
         <v>3</v>
       </c>
       <c r="R375" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2021/04/08</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>375</v>
+      </c>
+      <c r="C376" t="n">
+        <v>11253</v>
+      </c>
+      <c r="D376" t="n">
+        <v>286</v>
+      </c>
+      <c r="E376" t="n">
+        <v>116</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.0254154447702835</v>
+      </c>
+      <c r="G376" t="n">
+        <v>10820</v>
+      </c>
+      <c r="H376" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I376" t="n">
+        <v>31605</v>
+      </c>
+      <c r="J376" t="n">
+        <v>47</v>
+      </c>
+      <c r="K376" t="n">
+        <v>621</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M376" t="n">
+        <v>621</v>
+      </c>
+      <c r="N376" t="n">
+        <v>47</v>
+      </c>
+      <c r="O376" t="n">
+        <v>46</v>
+      </c>
+      <c r="P376" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>5</v>
+      </c>
+      <c r="R376" t="n">
         <v>54</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -22123,7 +22123,7 @@
         <v>14</v>
       </c>
       <c r="K375" t="n">
-        <v>-9.39078504071031e-05</v>
+        <v>563</v>
       </c>
       <c r="L375" t="n">
         <v>144</v>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R376"/>
+  <dimension ref="A1:R379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22205,6 +22205,180 @@
         <v>54</v>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2021/04/09</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>376</v>
+      </c>
+      <c r="C377" t="n">
+        <v>11350</v>
+      </c>
+      <c r="D377" t="n">
+        <v>291</v>
+      </c>
+      <c r="E377" t="n">
+        <v>142</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.0256387665198238</v>
+      </c>
+      <c r="G377" t="n">
+        <v>10886</v>
+      </c>
+      <c r="H377" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I377" t="n">
+        <v>31702</v>
+      </c>
+      <c r="J377" t="n">
+        <v>97</v>
+      </c>
+      <c r="K377" t="n">
+        <v>541</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M377" t="n">
+        <v>541</v>
+      </c>
+      <c r="N377" t="n">
+        <v>97</v>
+      </c>
+      <c r="O377" t="n">
+        <v>43</v>
+      </c>
+      <c r="P377" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>5</v>
+      </c>
+      <c r="R377" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2021/04/10</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>377</v>
+      </c>
+      <c r="C378" t="n">
+        <v>11411</v>
+      </c>
+      <c r="D378" t="n">
+        <v>292</v>
+      </c>
+      <c r="E378" t="n">
+        <v>130</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.0255893436158093</v>
+      </c>
+      <c r="G378" t="n">
+        <v>10958</v>
+      </c>
+      <c r="H378" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I378" t="n">
+        <v>31763</v>
+      </c>
+      <c r="J378" t="n">
+        <v>61</v>
+      </c>
+      <c r="K378" t="n">
+        <v>441</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M378" t="n">
+        <v>441</v>
+      </c>
+      <c r="N378" t="n">
+        <v>61</v>
+      </c>
+      <c r="O378" t="n">
+        <v>37</v>
+      </c>
+      <c r="P378" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>1</v>
+      </c>
+      <c r="R378" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2021/04/11</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>378</v>
+      </c>
+      <c r="C379" t="n">
+        <v>11420</v>
+      </c>
+      <c r="D379" t="n">
+        <v>295</v>
+      </c>
+      <c r="E379" t="n">
+        <v>121</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.0258318739054291</v>
+      </c>
+      <c r="G379" t="n">
+        <v>10973</v>
+      </c>
+      <c r="H379" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I379" t="n">
+        <v>31772</v>
+      </c>
+      <c r="J379" t="n">
+        <v>9</v>
+      </c>
+      <c r="K379" t="n">
+        <v>432</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M379" t="n">
+        <v>432</v>
+      </c>
+      <c r="N379" t="n">
+        <v>9</v>
+      </c>
+      <c r="O379" t="n">
+        <v>37</v>
+      </c>
+      <c r="P379" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>3</v>
+      </c>
+      <c r="R379" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R379"/>
+  <dimension ref="A1:R380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22379,6 +22379,64 @@
         <v>55</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2021/04/12</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>379</v>
+      </c>
+      <c r="C380" t="n">
+        <v>11461</v>
+      </c>
+      <c r="D380" t="n">
+        <v>297</v>
+      </c>
+      <c r="E380" t="n">
+        <v>112</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.0259139691126429</v>
+      </c>
+      <c r="G380" t="n">
+        <v>11020</v>
+      </c>
+      <c r="H380" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I380" t="n">
+        <v>31813</v>
+      </c>
+      <c r="J380" t="n">
+        <v>41</v>
+      </c>
+      <c r="K380" t="n">
+        <v>309</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M380" t="n">
+        <v>309</v>
+      </c>
+      <c r="N380" t="n">
+        <v>41</v>
+      </c>
+      <c r="O380" t="n">
+        <v>42</v>
+      </c>
+      <c r="P380" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>2</v>
+      </c>
+      <c r="R380" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R380"/>
+  <dimension ref="A1:R381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22437,6 +22437,64 @@
         <v>55</v>
       </c>
     </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2021/04/13</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>380</v>
+      </c>
+      <c r="C381" t="n">
+        <v>11542</v>
+      </c>
+      <c r="D381" t="n">
+        <v>299</v>
+      </c>
+      <c r="E381" t="n">
+        <v>115</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.0259053890140357</v>
+      </c>
+      <c r="G381" t="n">
+        <v>11096</v>
+      </c>
+      <c r="H381" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I381" t="n">
+        <v>31894</v>
+      </c>
+      <c r="J381" t="n">
+        <v>81</v>
+      </c>
+      <c r="K381" t="n">
+        <v>333</v>
+      </c>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="n">
+        <v>332</v>
+      </c>
+      <c r="N381" t="n">
+        <v>81</v>
+      </c>
+      <c r="O381" t="n">
+        <v>32</v>
+      </c>
+      <c r="P381" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>2</v>
+      </c>
+      <c r="R381" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R381"/>
+  <dimension ref="A1:R382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22495,6 +22495,64 @@
         <v>55</v>
       </c>
     </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2021/04/14</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>381</v>
+      </c>
+      <c r="C382" t="n">
+        <v>11620</v>
+      </c>
+      <c r="D382" t="n">
+        <v>303</v>
+      </c>
+      <c r="E382" t="n">
+        <v>157</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.0260757314974182</v>
+      </c>
+      <c r="G382" t="n">
+        <v>11127</v>
+      </c>
+      <c r="H382" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I382" t="n">
+        <v>31972</v>
+      </c>
+      <c r="J382" t="n">
+        <v>78</v>
+      </c>
+      <c r="K382" t="n">
+        <v>297</v>
+      </c>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="n">
+        <v>296</v>
+      </c>
+      <c r="N382" t="n">
+        <v>78</v>
+      </c>
+      <c r="O382" t="n">
+        <v>29</v>
+      </c>
+      <c r="P382" t="n">
+        <v>49</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>4</v>
+      </c>
+      <c r="R382" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R382"/>
+  <dimension ref="A1:R383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22553,6 +22553,64 @@
         <v>55</v>
       </c>
     </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2021/04/15</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>382</v>
+      </c>
+      <c r="C383" t="n">
+        <v>11638</v>
+      </c>
+      <c r="D383" t="n">
+        <v>305</v>
+      </c>
+      <c r="E383" t="n">
+        <v>147</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.0262072521051727</v>
+      </c>
+      <c r="G383" t="n">
+        <v>11153</v>
+      </c>
+      <c r="H383" t="n">
+        <v>20352</v>
+      </c>
+      <c r="I383" t="n">
+        <v>31990</v>
+      </c>
+      <c r="J383" t="n">
+        <v>18</v>
+      </c>
+      <c r="K383" t="n">
+        <v>311</v>
+      </c>
+      <c r="L383" t="n">
+        <v>2</v>
+      </c>
+      <c r="M383" t="n">
+        <v>309</v>
+      </c>
+      <c r="N383" t="n">
+        <v>18</v>
+      </c>
+      <c r="O383" t="n">
+        <v>33</v>
+      </c>
+      <c r="P383" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>2</v>
+      </c>
+      <c r="R383" t="n">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R383"/>
+  <dimension ref="A1:R386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22404,10 +22404,10 @@
         <v>11020</v>
       </c>
       <c r="H380" t="n">
-        <v>20352</v>
+        <v>22872</v>
       </c>
       <c r="I380" t="n">
-        <v>31813</v>
+        <v>34333</v>
       </c>
       <c r="J380" t="n">
         <v>41</v>
@@ -22422,7 +22422,7 @@
         <v>309</v>
       </c>
       <c r="N380" t="n">
-        <v>41</v>
+        <v>2561</v>
       </c>
       <c r="O380" t="n">
         <v>42</v>
@@ -22462,10 +22462,10 @@
         <v>11096</v>
       </c>
       <c r="H381" t="n">
-        <v>20352</v>
+        <v>22872</v>
       </c>
       <c r="I381" t="n">
-        <v>31894</v>
+        <v>34414</v>
       </c>
       <c r="J381" t="n">
         <v>81</v>
@@ -22520,10 +22520,10 @@
         <v>11127</v>
       </c>
       <c r="H382" t="n">
-        <v>20352</v>
+        <v>22872</v>
       </c>
       <c r="I382" t="n">
-        <v>31972</v>
+        <v>34492</v>
       </c>
       <c r="J382" t="n">
         <v>78</v>
@@ -22578,10 +22578,10 @@
         <v>11153</v>
       </c>
       <c r="H383" t="n">
-        <v>20352</v>
+        <v>22872</v>
       </c>
       <c r="I383" t="n">
-        <v>31990</v>
+        <v>34510</v>
       </c>
       <c r="J383" t="n">
         <v>18</v>
@@ -22609,6 +22609,180 @@
       </c>
       <c r="R383" t="n">
         <v>55</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2021/04/16</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>383</v>
+      </c>
+      <c r="C384" t="n">
+        <v>11710</v>
+      </c>
+      <c r="D384" t="n">
+        <v>306</v>
+      </c>
+      <c r="E384" t="n">
+        <v>148</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.026131511528608</v>
+      </c>
+      <c r="G384" t="n">
+        <v>11221</v>
+      </c>
+      <c r="H384" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I384" t="n">
+        <v>34582</v>
+      </c>
+      <c r="J384" t="n">
+        <v>72</v>
+      </c>
+      <c r="K384" t="n">
+        <v>242</v>
+      </c>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="n">
+        <v>241</v>
+      </c>
+      <c r="N384" t="n">
+        <v>72</v>
+      </c>
+      <c r="O384" t="n">
+        <v>37</v>
+      </c>
+      <c r="P384" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>1</v>
+      </c>
+      <c r="R384" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2021/04/17</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>384</v>
+      </c>
+      <c r="C385" t="n">
+        <v>11746</v>
+      </c>
+      <c r="D385" t="n">
+        <v>309</v>
+      </c>
+      <c r="E385" t="n">
+        <v>144</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.0263068278562915</v>
+      </c>
+      <c r="G385" t="n">
+        <v>11258</v>
+      </c>
+      <c r="H385" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I385" t="n">
+        <v>34618</v>
+      </c>
+      <c r="J385" t="n">
+        <v>36</v>
+      </c>
+      <c r="K385" t="n">
+        <v>241</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M385" t="n">
+        <v>241</v>
+      </c>
+      <c r="N385" t="n">
+        <v>36</v>
+      </c>
+      <c r="O385" t="n">
+        <v>38</v>
+      </c>
+      <c r="P385" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>3</v>
+      </c>
+      <c r="R385" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2021/04/18</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>385</v>
+      </c>
+      <c r="C386" t="n">
+        <v>11750</v>
+      </c>
+      <c r="D386" t="n">
+        <v>310</v>
+      </c>
+      <c r="E386" t="n">
+        <v>145</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.0263829787234043</v>
+      </c>
+      <c r="G386" t="n">
+        <v>11260</v>
+      </c>
+      <c r="H386" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I386" t="n">
+        <v>34622</v>
+      </c>
+      <c r="J386" t="n">
+        <v>4</v>
+      </c>
+      <c r="K386" t="n">
+        <v>241</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M386" t="n">
+        <v>241</v>
+      </c>
+      <c r="N386" t="n">
+        <v>4</v>
+      </c>
+      <c r="O386" t="n">
+        <v>39</v>
+      </c>
+      <c r="P386" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>1</v>
+      </c>
+      <c r="R386" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R386"/>
+  <dimension ref="A1:R387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22785,6 +22785,64 @@
         <v>56</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2021/04/19</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>386</v>
+      </c>
+      <c r="C387" t="n">
+        <v>11815</v>
+      </c>
+      <c r="D387" t="n">
+        <v>313</v>
+      </c>
+      <c r="E387" t="n">
+        <v>156</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.026491747778248</v>
+      </c>
+      <c r="G387" t="n">
+        <v>11311</v>
+      </c>
+      <c r="H387" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I387" t="n">
+        <v>34687</v>
+      </c>
+      <c r="J387" t="n">
+        <v>65</v>
+      </c>
+      <c r="K387" t="n">
+        <v>160</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M387" t="n">
+        <v>160</v>
+      </c>
+      <c r="N387" t="n">
+        <v>65</v>
+      </c>
+      <c r="O387" t="n">
+        <v>42</v>
+      </c>
+      <c r="P387" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>3</v>
+      </c>
+      <c r="R387" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R387"/>
+  <dimension ref="A1:R389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22843,6 +22843,122 @@
         <v>56</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2021/04/20</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>387</v>
+      </c>
+      <c r="C388" t="n">
+        <v>11890</v>
+      </c>
+      <c r="D388" t="n">
+        <v>313</v>
+      </c>
+      <c r="E388" t="n">
+        <v>155</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.0263246425567704</v>
+      </c>
+      <c r="G388" t="n">
+        <v>11387</v>
+      </c>
+      <c r="H388" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I388" t="n">
+        <v>34762</v>
+      </c>
+      <c r="J388" t="n">
+        <v>75</v>
+      </c>
+      <c r="K388" t="n">
+        <v>256</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M388" t="n">
+        <v>256</v>
+      </c>
+      <c r="N388" t="n">
+        <v>75</v>
+      </c>
+      <c r="O388" t="n">
+        <v>42</v>
+      </c>
+      <c r="P388" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R388" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2021/04/21</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>388</v>
+      </c>
+      <c r="C389" t="n">
+        <v>11914</v>
+      </c>
+      <c r="D389" t="n">
+        <v>314</v>
+      </c>
+      <c r="E389" t="n">
+        <v>149</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.0263555480946785</v>
+      </c>
+      <c r="G389" t="n">
+        <v>11416</v>
+      </c>
+      <c r="H389" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I389" t="n">
+        <v>34786</v>
+      </c>
+      <c r="J389" t="n">
+        <v>24</v>
+      </c>
+      <c r="K389" t="n">
+        <v>171</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M389" t="n">
+        <v>171</v>
+      </c>
+      <c r="N389" t="n">
+        <v>24</v>
+      </c>
+      <c r="O389" t="n">
+        <v>44</v>
+      </c>
+      <c r="P389" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>1</v>
+      </c>
+      <c r="R389" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R389"/>
+  <dimension ref="A1:R390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22959,6 +22959,64 @@
         <v>56</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2021/04/22</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>389</v>
+      </c>
+      <c r="C390" t="n">
+        <v>11957</v>
+      </c>
+      <c r="D390" t="n">
+        <v>315</v>
+      </c>
+      <c r="E390" t="n">
+        <v>174</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.0263444007694238</v>
+      </c>
+      <c r="G390" t="n">
+        <v>11431</v>
+      </c>
+      <c r="H390" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I390" t="n">
+        <v>34829</v>
+      </c>
+      <c r="J390" t="n">
+        <v>43</v>
+      </c>
+      <c r="K390" t="n">
+        <v>155</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M390" t="n">
+        <v>155</v>
+      </c>
+      <c r="N390" t="n">
+        <v>43</v>
+      </c>
+      <c r="O390" t="n">
+        <v>48</v>
+      </c>
+      <c r="P390" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>1</v>
+      </c>
+      <c r="R390" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R390"/>
+  <dimension ref="A1:R393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23017,6 +23017,180 @@
         <v>56</v>
       </c>
     </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2021/04/23</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>390</v>
+      </c>
+      <c r="C391" t="n">
+        <v>12020</v>
+      </c>
+      <c r="D391" t="n">
+        <v>315</v>
+      </c>
+      <c r="E391" t="n">
+        <v>160</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.0262063227953411</v>
+      </c>
+      <c r="G391" t="n">
+        <v>11508</v>
+      </c>
+      <c r="H391" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I391" t="n">
+        <v>34892</v>
+      </c>
+      <c r="J391" t="n">
+        <v>63</v>
+      </c>
+      <c r="K391" t="n">
+        <v>182</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M391" t="n">
+        <v>182</v>
+      </c>
+      <c r="N391" t="n">
+        <v>63</v>
+      </c>
+      <c r="O391" t="n">
+        <v>45</v>
+      </c>
+      <c r="P391" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R391" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2021/04/24</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>391</v>
+      </c>
+      <c r="C392" t="n">
+        <v>12045</v>
+      </c>
+      <c r="D392" t="n">
+        <v>319</v>
+      </c>
+      <c r="E392" t="n">
+        <v>126</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.0264840182648402</v>
+      </c>
+      <c r="G392" t="n">
+        <v>11563</v>
+      </c>
+      <c r="H392" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I392" t="n">
+        <v>34917</v>
+      </c>
+      <c r="J392" t="n">
+        <v>25</v>
+      </c>
+      <c r="K392" t="n">
+        <v>173</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M392" t="n">
+        <v>173</v>
+      </c>
+      <c r="N392" t="n">
+        <v>25</v>
+      </c>
+      <c r="O392" t="n">
+        <v>47</v>
+      </c>
+      <c r="P392" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>4</v>
+      </c>
+      <c r="R392" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2021/04/25</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>392</v>
+      </c>
+      <c r="C393" t="n">
+        <v>12048</v>
+      </c>
+      <c r="D393" t="n">
+        <v>321</v>
+      </c>
+      <c r="E393" t="n">
+        <v>125</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.0266434262948207</v>
+      </c>
+      <c r="G393" t="n">
+        <v>11565</v>
+      </c>
+      <c r="H393" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I393" t="n">
+        <v>34920</v>
+      </c>
+      <c r="J393" t="n">
+        <v>3</v>
+      </c>
+      <c r="K393" t="n">
+        <v>173</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M393" t="n">
+        <v>173</v>
+      </c>
+      <c r="N393" t="n">
+        <v>3</v>
+      </c>
+      <c r="O393" t="n">
+        <v>47</v>
+      </c>
+      <c r="P393" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>2</v>
+      </c>
+      <c r="R393" t="n">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R393"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23191,6 +23191,64 @@
         <v>57</v>
       </c>
     </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2021/04/26</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>393</v>
+      </c>
+      <c r="C394" t="n">
+        <v>12130</v>
+      </c>
+      <c r="D394" t="n">
+        <v>324</v>
+      </c>
+      <c r="E394" t="n">
+        <v>141</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.0267106347897774</v>
+      </c>
+      <c r="G394" t="n">
+        <v>11628</v>
+      </c>
+      <c r="H394" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I394" t="n">
+        <v>35002</v>
+      </c>
+      <c r="J394" t="n">
+        <v>82</v>
+      </c>
+      <c r="K394" t="n">
+        <v>135</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M394" t="n">
+        <v>135</v>
+      </c>
+      <c r="N394" t="n">
+        <v>82</v>
+      </c>
+      <c r="O394" t="n">
+        <v>47</v>
+      </c>
+      <c r="P394" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>3</v>
+      </c>
+      <c r="R394" t="n">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23249,6 +23249,122 @@
         <v>57</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2021/04/27</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>394</v>
+      </c>
+      <c r="C395" t="n">
+        <v>12224</v>
+      </c>
+      <c r="D395" t="n">
+        <v>324</v>
+      </c>
+      <c r="E395" t="n">
+        <v>183</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.0265052356020942</v>
+      </c>
+      <c r="G395" t="n">
+        <v>11680</v>
+      </c>
+      <c r="H395" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I395" t="n">
+        <v>35096</v>
+      </c>
+      <c r="J395" t="n">
+        <v>94</v>
+      </c>
+      <c r="K395" t="n">
+        <v>181</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M395" t="n">
+        <v>181</v>
+      </c>
+      <c r="N395" t="n">
+        <v>94</v>
+      </c>
+      <c r="O395" t="n">
+        <v>49</v>
+      </c>
+      <c r="P395" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R395" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2021/04/28</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>395</v>
+      </c>
+      <c r="C396" t="n">
+        <v>12285</v>
+      </c>
+      <c r="D396" t="n">
+        <v>327</v>
+      </c>
+      <c r="E396" t="n">
+        <v>189</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.0266178266178266</v>
+      </c>
+      <c r="G396" t="n">
+        <v>11732</v>
+      </c>
+      <c r="H396" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I396" t="n">
+        <v>35157</v>
+      </c>
+      <c r="J396" t="n">
+        <v>61</v>
+      </c>
+      <c r="K396" t="n">
+        <v>202</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M396" t="n">
+        <v>202</v>
+      </c>
+      <c r="N396" t="n">
+        <v>61</v>
+      </c>
+      <c r="O396" t="n">
+        <v>48</v>
+      </c>
+      <c r="P396" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>3</v>
+      </c>
+      <c r="R396" t="n">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R396"/>
+  <dimension ref="A1:R397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23365,6 +23365,64 @@
         <v>57</v>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2021/04/29</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>396</v>
+      </c>
+      <c r="C397" t="n">
+        <v>12311</v>
+      </c>
+      <c r="D397" t="n">
+        <v>328</v>
+      </c>
+      <c r="E397" t="n">
+        <v>170</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.0266428397368207</v>
+      </c>
+      <c r="G397" t="n">
+        <v>11775</v>
+      </c>
+      <c r="H397" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I397" t="n">
+        <v>35183</v>
+      </c>
+      <c r="J397" t="n">
+        <v>26</v>
+      </c>
+      <c r="K397" t="n">
+        <v>240</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M397" t="n">
+        <v>240</v>
+      </c>
+      <c r="N397" t="n">
+        <v>26</v>
+      </c>
+      <c r="O397" t="n">
+        <v>39</v>
+      </c>
+      <c r="P397" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>1</v>
+      </c>
+      <c r="R397" t="n">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R397"/>
+  <dimension ref="A1:R400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23423,6 +23423,180 @@
         <v>57</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2021/04/30</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>397</v>
+      </c>
+      <c r="C398" t="n">
+        <v>12330</v>
+      </c>
+      <c r="D398" t="n">
+        <v>330</v>
+      </c>
+      <c r="E398" t="n">
+        <v>156</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.0267639902676399</v>
+      </c>
+      <c r="G398" t="n">
+        <v>11806</v>
+      </c>
+      <c r="H398" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I398" t="n">
+        <v>35202</v>
+      </c>
+      <c r="J398" t="n">
+        <v>19</v>
+      </c>
+      <c r="K398" t="n">
+        <v>297</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M398" t="n">
+        <v>297</v>
+      </c>
+      <c r="N398" t="n">
+        <v>19</v>
+      </c>
+      <c r="O398" t="n">
+        <v>41</v>
+      </c>
+      <c r="P398" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>2</v>
+      </c>
+      <c r="R398" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2021/05/01</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>398</v>
+      </c>
+      <c r="C399" t="n">
+        <v>12330</v>
+      </c>
+      <c r="D399" t="n">
+        <v>330</v>
+      </c>
+      <c r="E399" t="n">
+        <v>156</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.0267639902676399</v>
+      </c>
+      <c r="G399" t="n">
+        <v>11806</v>
+      </c>
+      <c r="H399" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I399" t="n">
+        <v>35202</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0</v>
+      </c>
+      <c r="K399" t="n">
+        <v>297</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M399" t="n">
+        <v>297</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0</v>
+      </c>
+      <c r="O399" t="n">
+        <v>41</v>
+      </c>
+      <c r="P399" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R399" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2021/05/02</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>399</v>
+      </c>
+      <c r="C400" t="n">
+        <v>12330</v>
+      </c>
+      <c r="D400" t="n">
+        <v>330</v>
+      </c>
+      <c r="E400" t="n">
+        <v>156</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.0267639902676399</v>
+      </c>
+      <c r="G400" t="n">
+        <v>11806</v>
+      </c>
+      <c r="H400" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I400" t="n">
+        <v>35202</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" t="n">
+        <v>297</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M400" t="n">
+        <v>297</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0</v>
+      </c>
+      <c r="O400" t="n">
+        <v>41</v>
+      </c>
+      <c r="P400" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R400" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R400"/>
+  <dimension ref="A1:R401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23597,6 +23597,64 @@
         <v>58</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2021/05/03</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>400</v>
+      </c>
+      <c r="C401" t="n">
+        <v>12357</v>
+      </c>
+      <c r="D401" t="n">
+        <v>344</v>
+      </c>
+      <c r="E401" t="n">
+        <v>96</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.027838472121065</v>
+      </c>
+      <c r="G401" t="n">
+        <v>11878</v>
+      </c>
+      <c r="H401" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I401" t="n">
+        <v>35229</v>
+      </c>
+      <c r="J401" t="n">
+        <v>27</v>
+      </c>
+      <c r="K401" t="n">
+        <v>307</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M401" t="n">
+        <v>307</v>
+      </c>
+      <c r="N401" t="n">
+        <v>27</v>
+      </c>
+      <c r="O401" t="n">
+        <v>37</v>
+      </c>
+      <c r="P401" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>14</v>
+      </c>
+      <c r="R401" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R401"/>
+  <dimension ref="A1:R402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23655,6 +23655,64 @@
         <v>58</v>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2021/05/04</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>401</v>
+      </c>
+      <c r="C402" t="n">
+        <v>12434</v>
+      </c>
+      <c r="D402" t="n">
+        <v>345</v>
+      </c>
+      <c r="E402" t="n">
+        <v>122</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.0277465015280682</v>
+      </c>
+      <c r="G402" t="n">
+        <v>11928</v>
+      </c>
+      <c r="H402" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I402" t="n">
+        <v>35306</v>
+      </c>
+      <c r="J402" t="n">
+        <v>77</v>
+      </c>
+      <c r="K402" t="n">
+        <v>342</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>342</v>
+      </c>
+      <c r="N402" t="n">
+        <v>77</v>
+      </c>
+      <c r="O402" t="n">
+        <v>34</v>
+      </c>
+      <c r="P402" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>1</v>
+      </c>
+      <c r="R402" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R402"/>
+  <dimension ref="A1:R403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23713,6 +23713,64 @@
         <v>58</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2021/05/05</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>402</v>
+      </c>
+      <c r="C403" t="n">
+        <v>12482</v>
+      </c>
+      <c r="D403" t="n">
+        <v>350</v>
+      </c>
+      <c r="E403" t="n">
+        <v>135</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.0280403781445281</v>
+      </c>
+      <c r="G403" t="n">
+        <v>11958</v>
+      </c>
+      <c r="H403" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I403" t="n">
+        <v>35354</v>
+      </c>
+      <c r="J403" t="n">
+        <v>48</v>
+      </c>
+      <c r="K403" t="n">
+        <v>335</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M403" t="n">
+        <v>335</v>
+      </c>
+      <c r="N403" t="n">
+        <v>48</v>
+      </c>
+      <c r="O403" t="n">
+        <v>33</v>
+      </c>
+      <c r="P403" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>5</v>
+      </c>
+      <c r="R403" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R403"/>
+  <dimension ref="A1:R404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23771,6 +23771,64 @@
         <v>58</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2021/05/06</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>403</v>
+      </c>
+      <c r="C404" t="n">
+        <v>12513</v>
+      </c>
+      <c r="D404" t="n">
+        <v>353</v>
+      </c>
+      <c r="E404" t="n">
+        <v>143</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.0282106609126508</v>
+      </c>
+      <c r="G404" t="n">
+        <v>11978</v>
+      </c>
+      <c r="H404" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I404" t="n">
+        <v>35385</v>
+      </c>
+      <c r="J404" t="n">
+        <v>31</v>
+      </c>
+      <c r="K404" t="n">
+        <v>230</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>230</v>
+      </c>
+      <c r="N404" t="n">
+        <v>31</v>
+      </c>
+      <c r="O404" t="n">
+        <v>36</v>
+      </c>
+      <c r="P404" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>3</v>
+      </c>
+      <c r="R404" t="n">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R404"/>
+  <dimension ref="A1:R407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23829,6 +23829,180 @@
         <v>58</v>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2021/05/07</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>404</v>
+      </c>
+      <c r="C405" t="n">
+        <v>12594</v>
+      </c>
+      <c r="D405" t="n">
+        <v>355</v>
+      </c>
+      <c r="E405" t="n">
+        <v>136</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.028188026044148</v>
+      </c>
+      <c r="G405" t="n">
+        <v>12064</v>
+      </c>
+      <c r="H405" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I405" t="n">
+        <v>35466</v>
+      </c>
+      <c r="J405" t="n">
+        <v>81</v>
+      </c>
+      <c r="K405" t="n">
+        <v>229</v>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="n">
+        <v>228</v>
+      </c>
+      <c r="N405" t="n">
+        <v>81</v>
+      </c>
+      <c r="O405" t="n">
+        <v>40</v>
+      </c>
+      <c r="P405" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>2</v>
+      </c>
+      <c r="R405" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2021/05/08</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>405</v>
+      </c>
+      <c r="C406" t="n">
+        <v>12632</v>
+      </c>
+      <c r="D406" t="n">
+        <v>355</v>
+      </c>
+      <c r="E406" t="n">
+        <v>137</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.0281032298923369</v>
+      </c>
+      <c r="G406" t="n">
+        <v>12101</v>
+      </c>
+      <c r="H406" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I406" t="n">
+        <v>35504</v>
+      </c>
+      <c r="J406" t="n">
+        <v>38</v>
+      </c>
+      <c r="K406" t="n">
+        <v>209</v>
+      </c>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="n">
+        <v>208</v>
+      </c>
+      <c r="N406" t="n">
+        <v>38</v>
+      </c>
+      <c r="O406" t="n">
+        <v>37</v>
+      </c>
+      <c r="P406" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R406" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2021/05/09</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>406</v>
+      </c>
+      <c r="C407" t="n">
+        <v>12649</v>
+      </c>
+      <c r="D407" t="n">
+        <v>355</v>
+      </c>
+      <c r="E407" t="n">
+        <v>149</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.028065459720136</v>
+      </c>
+      <c r="G407" t="n">
+        <v>12102</v>
+      </c>
+      <c r="H407" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I407" t="n">
+        <v>35521</v>
+      </c>
+      <c r="J407" t="n">
+        <v>17</v>
+      </c>
+      <c r="K407" t="n">
+        <v>211</v>
+      </c>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="n">
+        <v>210</v>
+      </c>
+      <c r="N407" t="n">
+        <v>17</v>
+      </c>
+      <c r="O407" t="n">
+        <v>39</v>
+      </c>
+      <c r="P407" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R407" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R407"/>
+  <dimension ref="A1:R408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24003,6 +24003,64 @@
         <v>59</v>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2021/05/10</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>407</v>
+      </c>
+      <c r="C408" t="n">
+        <v>12719</v>
+      </c>
+      <c r="D408" t="n">
+        <v>356</v>
+      </c>
+      <c r="E408" t="n">
+        <v>133</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.0279896218256152</v>
+      </c>
+      <c r="G408" t="n">
+        <v>12191</v>
+      </c>
+      <c r="H408" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I408" t="n">
+        <v>35591</v>
+      </c>
+      <c r="J408" t="n">
+        <v>70</v>
+      </c>
+      <c r="K408" t="n">
+        <v>95</v>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="n">
+        <v>94</v>
+      </c>
+      <c r="N408" t="n">
+        <v>70</v>
+      </c>
+      <c r="O408" t="n">
+        <v>40</v>
+      </c>
+      <c r="P408" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>1</v>
+      </c>
+      <c r="R408" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R408"/>
+  <dimension ref="A1:R409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24061,6 +24061,64 @@
         <v>59</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2021/05/11</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>408</v>
+      </c>
+      <c r="C409" t="n">
+        <v>12769</v>
+      </c>
+      <c r="D409" t="n">
+        <v>363</v>
+      </c>
+      <c r="E409" t="n">
+        <v>130</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.0284282246064688</v>
+      </c>
+      <c r="G409" t="n">
+        <v>12237</v>
+      </c>
+      <c r="H409" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I409" t="n">
+        <v>35641</v>
+      </c>
+      <c r="J409" t="n">
+        <v>50</v>
+      </c>
+      <c r="K409" t="n">
+        <v>138</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M409" t="n">
+        <v>138</v>
+      </c>
+      <c r="N409" t="n">
+        <v>50</v>
+      </c>
+      <c r="O409" t="n">
+        <v>34</v>
+      </c>
+      <c r="P409" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>7</v>
+      </c>
+      <c r="R409" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R409"/>
+  <dimension ref="A1:R410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24119,6 +24119,64 @@
         <v>59</v>
       </c>
     </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2021/05/12</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>409</v>
+      </c>
+      <c r="C410" t="n">
+        <v>12811</v>
+      </c>
+      <c r="D410" t="n">
+        <v>363</v>
+      </c>
+      <c r="E410" t="n">
+        <v>140</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.0283350245882445</v>
+      </c>
+      <c r="G410" t="n">
+        <v>12238</v>
+      </c>
+      <c r="H410" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I410" t="n">
+        <v>35683</v>
+      </c>
+      <c r="J410" t="n">
+        <v>42</v>
+      </c>
+      <c r="K410" t="n">
+        <v>202</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M410" t="n">
+        <v>202</v>
+      </c>
+      <c r="N410" t="n">
+        <v>42</v>
+      </c>
+      <c r="O410" t="n">
+        <v>32</v>
+      </c>
+      <c r="P410" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R410" t="n">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R410"/>
+  <dimension ref="A1:R411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24074,13 +24074,13 @@
         <v>12769</v>
       </c>
       <c r="D409" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E409" t="n">
         <v>130</v>
       </c>
       <c r="F409" t="n">
-        <v>0.0284282246064688</v>
+        <v>0.0283499099381314</v>
       </c>
       <c r="G409" t="n">
         <v>12237</v>
@@ -24113,7 +24113,7 @@
         <v>42</v>
       </c>
       <c r="Q409" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R409" t="n">
         <v>59</v>
@@ -24132,13 +24132,13 @@
         <v>12811</v>
       </c>
       <c r="D410" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E410" t="n">
         <v>140</v>
       </c>
       <c r="F410" t="n">
-        <v>0.0283350245882445</v>
+        <v>0.0282569666692686</v>
       </c>
       <c r="G410" t="n">
         <v>12238</v>
@@ -24174,6 +24174,64 @@
         <v>0</v>
       </c>
       <c r="R410" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2021/05/13</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>410</v>
+      </c>
+      <c r="C411" t="n">
+        <v>12941</v>
+      </c>
+      <c r="D411" t="n">
+        <v>362</v>
+      </c>
+      <c r="E411" t="n">
+        <v>190</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.0279731087242099</v>
+      </c>
+      <c r="G411" t="n">
+        <v>12349</v>
+      </c>
+      <c r="H411" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I411" t="n">
+        <v>35813</v>
+      </c>
+      <c r="J411" t="n">
+        <v>130</v>
+      </c>
+      <c r="K411" t="n">
+        <v>270</v>
+      </c>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="n">
+        <v>269</v>
+      </c>
+      <c r="N411" t="n">
+        <v>130</v>
+      </c>
+      <c r="O411" t="n">
+        <v>29</v>
+      </c>
+      <c r="P411" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R411" t="n">
         <v>59</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R411"/>
+  <dimension ref="A1:R414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24235,6 +24235,180 @@
         <v>59</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2021/05/14</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>411</v>
+      </c>
+      <c r="C412" t="n">
+        <v>13061</v>
+      </c>
+      <c r="D412" t="n">
+        <v>366</v>
+      </c>
+      <c r="E412" t="n">
+        <v>236</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.0280223566342546</v>
+      </c>
+      <c r="G412" t="n">
+        <v>12419</v>
+      </c>
+      <c r="H412" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I412" t="n">
+        <v>35933</v>
+      </c>
+      <c r="J412" t="n">
+        <v>120</v>
+      </c>
+      <c r="K412" t="n">
+        <v>325</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M412" t="n">
+        <v>325</v>
+      </c>
+      <c r="N412" t="n">
+        <v>120</v>
+      </c>
+      <c r="O412" t="n">
+        <v>40</v>
+      </c>
+      <c r="P412" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>4</v>
+      </c>
+      <c r="R412" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2021/05/15</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>412</v>
+      </c>
+      <c r="C413" t="n">
+        <v>13075</v>
+      </c>
+      <c r="D413" t="n">
+        <v>368</v>
+      </c>
+      <c r="E413" t="n">
+        <v>219</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.0281453154875717</v>
+      </c>
+      <c r="G413" t="n">
+        <v>12447</v>
+      </c>
+      <c r="H413" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I413" t="n">
+        <v>35947</v>
+      </c>
+      <c r="J413" t="n">
+        <v>14</v>
+      </c>
+      <c r="K413" t="n">
+        <v>323</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M413" t="n">
+        <v>323</v>
+      </c>
+      <c r="N413" t="n">
+        <v>14</v>
+      </c>
+      <c r="O413" t="n">
+        <v>46</v>
+      </c>
+      <c r="P413" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>2</v>
+      </c>
+      <c r="R413" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2021/05/16</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>413</v>
+      </c>
+      <c r="C414" t="n">
+        <v>13084</v>
+      </c>
+      <c r="D414" t="n">
+        <v>368</v>
+      </c>
+      <c r="E414" t="n">
+        <v>223</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.0281259553653317</v>
+      </c>
+      <c r="G414" t="n">
+        <v>12452</v>
+      </c>
+      <c r="H414" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I414" t="n">
+        <v>35956</v>
+      </c>
+      <c r="J414" t="n">
+        <v>9</v>
+      </c>
+      <c r="K414" t="n">
+        <v>324</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M414" t="n">
+        <v>324</v>
+      </c>
+      <c r="N414" t="n">
+        <v>9</v>
+      </c>
+      <c r="O414" t="n">
+        <v>46</v>
+      </c>
+      <c r="P414" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R414" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R414"/>
+  <dimension ref="A1:R416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24409,6 +24409,122 @@
         <v>60</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2021/05/17</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>414</v>
+      </c>
+      <c r="C415" t="n">
+        <v>13204</v>
+      </c>
+      <c r="D415" t="n">
+        <v>369</v>
+      </c>
+      <c r="E415" t="n">
+        <v>244</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.0279460769463799</v>
+      </c>
+      <c r="G415" t="n">
+        <v>12550</v>
+      </c>
+      <c r="H415" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I415" t="n">
+        <v>36076</v>
+      </c>
+      <c r="J415" t="n">
+        <v>120</v>
+      </c>
+      <c r="K415" t="n">
+        <v>217</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M415" t="n">
+        <v>217</v>
+      </c>
+      <c r="N415" t="n">
+        <v>120</v>
+      </c>
+      <c r="O415" t="n">
+        <v>53</v>
+      </c>
+      <c r="P415" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>1</v>
+      </c>
+      <c r="R415" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2021/05/18</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>415</v>
+      </c>
+      <c r="C416" t="n">
+        <v>13255</v>
+      </c>
+      <c r="D416" t="n">
+        <v>371</v>
+      </c>
+      <c r="E416" t="n">
+        <v>240</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.0279894379479442</v>
+      </c>
+      <c r="G416" t="n">
+        <v>12602</v>
+      </c>
+      <c r="H416" t="n">
+        <v>22872</v>
+      </c>
+      <c r="I416" t="n">
+        <v>36127</v>
+      </c>
+      <c r="J416" t="n">
+        <v>51</v>
+      </c>
+      <c r="K416" t="n">
+        <v>285</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M416" t="n">
+        <v>285</v>
+      </c>
+      <c r="N416" t="n">
+        <v>51</v>
+      </c>
+      <c r="O416" t="n">
+        <v>53</v>
+      </c>
+      <c r="P416" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>2</v>
+      </c>
+      <c r="R416" t="n">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -24725,10 +24725,10 @@
         <v>12452</v>
       </c>
       <c r="H414">
-        <v>22872</v>
+        <v>25700</v>
       </c>
       <c r="I414">
-        <v>35956</v>
+        <v>38784</v>
       </c>
       <c r="J414">
         <v>9</v>
@@ -24743,7 +24743,7 @@
         <v>324</v>
       </c>
       <c r="N414">
-        <v>9</v>
+        <v>2837</v>
       </c>
       <c r="O414">
         <v>46</v>
@@ -24781,10 +24781,10 @@
         <v>12550</v>
       </c>
       <c r="H415">
-        <v>22872</v>
+        <v>25700</v>
       </c>
       <c r="I415">
-        <v>36076</v>
+        <v>38904</v>
       </c>
       <c r="J415">
         <v>120</v>
@@ -24837,10 +24837,10 @@
         <v>12602</v>
       </c>
       <c r="H416">
-        <v>22872</v>
+        <v>25700</v>
       </c>
       <c r="I416">
-        <v>36127</v>
+        <v>38955</v>
       </c>
       <c r="J416">
         <v>51</v>
@@ -24893,10 +24893,10 @@
         <v>12686</v>
       </c>
       <c r="H417">
-        <v>22872</v>
+        <v>25700</v>
       </c>
       <c r="I417">
-        <v>36251</v>
+        <v>39079</v>
       </c>
       <c r="J417">
         <v>124</v>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>Data</t>
   </si>
@@ -1316,6 +1316,18 @@
   </si>
   <si>
     <t>2021/05/19</t>
+  </si>
+  <si>
+    <t>2021/05/20</t>
+  </si>
+  <si>
+    <t>2021/05/21</t>
+  </si>
+  <si>
+    <t>2021/05/22</t>
+  </si>
+  <si>
+    <t>2021/05/23</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R417"/>
+  <dimension ref="A1:R421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24926,6 +24938,230 @@
         <v>60</v>
       </c>
     </row>
+    <row r="418" spans="1:18">
+      <c r="A418" t="s">
+        <v>434</v>
+      </c>
+      <c r="B418">
+        <v>417</v>
+      </c>
+      <c r="C418">
+        <v>13544</v>
+      </c>
+      <c r="D418">
+        <v>374</v>
+      </c>
+      <c r="E418">
+        <v>333</v>
+      </c>
+      <c r="F418">
+        <v>0.027613703484938</v>
+      </c>
+      <c r="G418">
+        <v>12794</v>
+      </c>
+      <c r="H418">
+        <v>25700</v>
+      </c>
+      <c r="I418">
+        <v>39244</v>
+      </c>
+      <c r="J418">
+        <v>165</v>
+      </c>
+      <c r="K418">
+        <v>433</v>
+      </c>
+      <c r="L418">
+        <v>2</v>
+      </c>
+      <c r="M418">
+        <v>431</v>
+      </c>
+      <c r="N418">
+        <v>165</v>
+      </c>
+      <c r="O418">
+        <v>54</v>
+      </c>
+      <c r="P418">
+        <v>38</v>
+      </c>
+      <c r="Q418">
+        <v>2</v>
+      </c>
+      <c r="R418">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="419" spans="1:18">
+      <c r="A419" t="s">
+        <v>435</v>
+      </c>
+      <c r="B419">
+        <v>418</v>
+      </c>
+      <c r="C419">
+        <v>13668</v>
+      </c>
+      <c r="D419">
+        <v>376</v>
+      </c>
+      <c r="E419">
+        <v>342</v>
+      </c>
+      <c r="F419">
+        <v>0.0275095112671934</v>
+      </c>
+      <c r="G419">
+        <v>12906</v>
+      </c>
+      <c r="H419">
+        <v>25700</v>
+      </c>
+      <c r="I419">
+        <v>39368</v>
+      </c>
+      <c r="J419">
+        <v>124</v>
+      </c>
+      <c r="K419">
+        <v>420</v>
+      </c>
+      <c r="L419">
+        <v>1</v>
+      </c>
+      <c r="M419">
+        <v>419</v>
+      </c>
+      <c r="N419">
+        <v>124</v>
+      </c>
+      <c r="O419">
+        <v>50</v>
+      </c>
+      <c r="P419">
+        <v>41</v>
+      </c>
+      <c r="Q419">
+        <v>2</v>
+      </c>
+      <c r="R419">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="420" spans="1:18">
+      <c r="A420" t="s">
+        <v>436</v>
+      </c>
+      <c r="B420">
+        <v>419</v>
+      </c>
+      <c r="C420">
+        <v>13753</v>
+      </c>
+      <c r="D420">
+        <v>378</v>
+      </c>
+      <c r="E420">
+        <v>331</v>
+      </c>
+      <c r="F420">
+        <v>0.0274849123827529</v>
+      </c>
+      <c r="G420">
+        <v>12998</v>
+      </c>
+      <c r="H420">
+        <v>25700</v>
+      </c>
+      <c r="I420">
+        <v>39453</v>
+      </c>
+      <c r="J420">
+        <v>85</v>
+      </c>
+      <c r="K420">
+        <v>281</v>
+      </c>
+      <c r="L420">
+        <v>1</v>
+      </c>
+      <c r="M420">
+        <v>280</v>
+      </c>
+      <c r="N420">
+        <v>85</v>
+      </c>
+      <c r="O420">
+        <v>57</v>
+      </c>
+      <c r="P420">
+        <v>41</v>
+      </c>
+      <c r="Q420">
+        <v>2</v>
+      </c>
+      <c r="R420">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="421" spans="1:18">
+      <c r="A421" t="s">
+        <v>437</v>
+      </c>
+      <c r="B421">
+        <v>420</v>
+      </c>
+      <c r="C421">
+        <v>13758</v>
+      </c>
+      <c r="D421">
+        <v>381</v>
+      </c>
+      <c r="E421">
+        <v>332</v>
+      </c>
+      <c r="F421">
+        <v>0.0276929786306149</v>
+      </c>
+      <c r="G421">
+        <v>12998</v>
+      </c>
+      <c r="H421">
+        <v>25700</v>
+      </c>
+      <c r="I421">
+        <v>39458</v>
+      </c>
+      <c r="J421">
+        <v>5</v>
+      </c>
+      <c r="K421">
+        <v>285</v>
+      </c>
+      <c r="L421">
+        <v>1</v>
+      </c>
+      <c r="M421">
+        <v>284</v>
+      </c>
+      <c r="N421">
+        <v>5</v>
+      </c>
+      <c r="O421">
+        <v>61</v>
+      </c>
+      <c r="P421">
+        <v>40</v>
+      </c>
+      <c r="Q421">
+        <v>3</v>
+      </c>
+      <c r="R421">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
   <si>
     <t>Data</t>
   </si>
@@ -1328,6 +1328,12 @@
   </si>
   <si>
     <t>2021/05/23</t>
+  </si>
+  <si>
+    <t>2021/05/24</t>
+  </si>
+  <si>
+    <t>2021/05/25</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R421"/>
+  <dimension ref="A1:R423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25162,6 +25168,118 @@
         <v>61</v>
       </c>
     </row>
+    <row r="422" spans="1:18">
+      <c r="A422" t="s">
+        <v>438</v>
+      </c>
+      <c r="B422">
+        <v>421</v>
+      </c>
+      <c r="C422">
+        <v>13820</v>
+      </c>
+      <c r="D422">
+        <v>384</v>
+      </c>
+      <c r="E422">
+        <v>241</v>
+      </c>
+      <c r="F422">
+        <v>0.0277858176555716</v>
+      </c>
+      <c r="G422">
+        <v>13148</v>
+      </c>
+      <c r="H422">
+        <v>25700</v>
+      </c>
+      <c r="I422">
+        <v>39520</v>
+      </c>
+      <c r="J422">
+        <v>62</v>
+      </c>
+      <c r="K422">
+        <v>307</v>
+      </c>
+      <c r="L422">
+        <v>2</v>
+      </c>
+      <c r="M422">
+        <v>305</v>
+      </c>
+      <c r="N422">
+        <v>62</v>
+      </c>
+      <c r="O422">
+        <v>59</v>
+      </c>
+      <c r="P422">
+        <v>41</v>
+      </c>
+      <c r="Q422">
+        <v>3</v>
+      </c>
+      <c r="R422">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="423" spans="1:18">
+      <c r="A423" t="s">
+        <v>439</v>
+      </c>
+      <c r="B423">
+        <v>422</v>
+      </c>
+      <c r="C423">
+        <v>13911</v>
+      </c>
+      <c r="D423">
+        <v>385</v>
+      </c>
+      <c r="E423">
+        <v>237</v>
+      </c>
+      <c r="F423">
+        <v>0.0276759399036733</v>
+      </c>
+      <c r="G423">
+        <v>13242</v>
+      </c>
+      <c r="H423">
+        <v>25700</v>
+      </c>
+      <c r="I423">
+        <v>39611</v>
+      </c>
+      <c r="J423">
+        <v>91</v>
+      </c>
+      <c r="K423">
+        <v>370</v>
+      </c>
+      <c r="L423">
+        <v>3</v>
+      </c>
+      <c r="M423">
+        <v>367</v>
+      </c>
+      <c r="N423">
+        <v>91</v>
+      </c>
+      <c r="O423">
+        <v>63</v>
+      </c>
+      <c r="P423">
+        <v>44</v>
+      </c>
+      <c r="Q423">
+        <v>1</v>
+      </c>
+      <c r="R423">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
   <si>
     <t>Data</t>
   </si>
@@ -1334,6 +1334,9 @@
   </si>
   <si>
     <t>2021/05/25</t>
+  </si>
+  <si>
+    <t>2021/05/26</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R423"/>
+  <dimension ref="A1:R424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25280,6 +25283,62 @@
         <v>61</v>
       </c>
     </row>
+    <row r="424" spans="1:18">
+      <c r="A424" t="s">
+        <v>440</v>
+      </c>
+      <c r="B424">
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <v>13960</v>
+      </c>
+      <c r="D424">
+        <v>388</v>
+      </c>
+      <c r="E424">
+        <v>213</v>
+      </c>
+      <c r="F424">
+        <v>0.0277936962750716</v>
+      </c>
+      <c r="G424">
+        <v>13312</v>
+      </c>
+      <c r="H424">
+        <v>25700</v>
+      </c>
+      <c r="I424">
+        <v>39660</v>
+      </c>
+      <c r="J424">
+        <v>49</v>
+      </c>
+      <c r="K424">
+        <v>432</v>
+      </c>
+      <c r="L424">
+        <v>3</v>
+      </c>
+      <c r="M424">
+        <v>429</v>
+      </c>
+      <c r="N424">
+        <v>49</v>
+      </c>
+      <c r="O424">
+        <v>56</v>
+      </c>
+      <c r="P424">
+        <v>48</v>
+      </c>
+      <c r="Q424">
+        <v>3</v>
+      </c>
+      <c r="R424">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t>Data</t>
   </si>
@@ -1337,6 +1337,18 @@
   </si>
   <si>
     <t>2021/05/26</t>
+  </si>
+  <si>
+    <t>2021/05/27</t>
+  </si>
+  <si>
+    <t>2021/05/28</t>
+  </si>
+  <si>
+    <t>2021/05/29</t>
+  </si>
+  <si>
+    <t>2021/05/30</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R424"/>
+  <dimension ref="A1:R428"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25339,6 +25351,230 @@
         <v>61</v>
       </c>
     </row>
+    <row r="425" spans="1:18">
+      <c r="A425" t="s">
+        <v>441</v>
+      </c>
+      <c r="B425">
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <v>14056</v>
+      </c>
+      <c r="D425">
+        <v>390</v>
+      </c>
+      <c r="E425">
+        <v>220</v>
+      </c>
+      <c r="F425">
+        <v>0.0277461582242459</v>
+      </c>
+      <c r="G425">
+        <v>13399</v>
+      </c>
+      <c r="H425">
+        <v>25700</v>
+      </c>
+      <c r="I425">
+        <v>39756</v>
+      </c>
+      <c r="J425">
+        <v>96</v>
+      </c>
+      <c r="K425">
+        <v>345</v>
+      </c>
+      <c r="L425">
+        <v>3</v>
+      </c>
+      <c r="M425">
+        <v>342</v>
+      </c>
+      <c r="N425">
+        <v>96</v>
+      </c>
+      <c r="O425">
+        <v>54</v>
+      </c>
+      <c r="P425">
+        <v>50</v>
+      </c>
+      <c r="Q425">
+        <v>2</v>
+      </c>
+      <c r="R425">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="426" spans="1:18">
+      <c r="A426" t="s">
+        <v>442</v>
+      </c>
+      <c r="B426">
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <v>14138</v>
+      </c>
+      <c r="D426">
+        <v>397</v>
+      </c>
+      <c r="E426">
+        <v>198</v>
+      </c>
+      <c r="F426">
+        <v>0.0280803508275569</v>
+      </c>
+      <c r="G426">
+        <v>13496</v>
+      </c>
+      <c r="H426">
+        <v>25700</v>
+      </c>
+      <c r="I426">
+        <v>39838</v>
+      </c>
+      <c r="J426">
+        <v>82</v>
+      </c>
+      <c r="K426">
+        <v>347</v>
+      </c>
+      <c r="L426">
+        <v>2</v>
+      </c>
+      <c r="M426">
+        <v>345</v>
+      </c>
+      <c r="N426">
+        <v>82</v>
+      </c>
+      <c r="O426">
+        <v>68</v>
+      </c>
+      <c r="P426">
+        <v>45</v>
+      </c>
+      <c r="Q426">
+        <v>7</v>
+      </c>
+      <c r="R426">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="427" spans="1:18">
+      <c r="A427" t="s">
+        <v>443</v>
+      </c>
+      <c r="B427">
+        <v>426</v>
+      </c>
+      <c r="C427">
+        <v>14196</v>
+      </c>
+      <c r="D427">
+        <v>401</v>
+      </c>
+      <c r="E427">
+        <v>210</v>
+      </c>
+      <c r="F427">
+        <v>0.028247393632009</v>
+      </c>
+      <c r="G427">
+        <v>13538</v>
+      </c>
+      <c r="H427">
+        <v>25700</v>
+      </c>
+      <c r="I427">
+        <v>39896</v>
+      </c>
+      <c r="J427">
+        <v>58</v>
+      </c>
+      <c r="K427">
+        <v>291</v>
+      </c>
+      <c r="L427">
+        <v>2</v>
+      </c>
+      <c r="M427">
+        <v>289</v>
+      </c>
+      <c r="N427">
+        <v>58</v>
+      </c>
+      <c r="O427">
+        <v>65</v>
+      </c>
+      <c r="P427">
+        <v>44</v>
+      </c>
+      <c r="Q427">
+        <v>4</v>
+      </c>
+      <c r="R427">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="428" spans="1:18">
+      <c r="A428" t="s">
+        <v>444</v>
+      </c>
+      <c r="B428">
+        <v>427</v>
+      </c>
+      <c r="C428">
+        <v>14199</v>
+      </c>
+      <c r="D428">
+        <v>404</v>
+      </c>
+      <c r="E428">
+        <v>208</v>
+      </c>
+      <c r="F428">
+        <v>0.0284527079371787</v>
+      </c>
+      <c r="G428">
+        <v>13540</v>
+      </c>
+      <c r="H428">
+        <v>25700</v>
+      </c>
+      <c r="I428">
+        <v>39899</v>
+      </c>
+      <c r="J428">
+        <v>3</v>
+      </c>
+      <c r="K428">
+        <v>293</v>
+      </c>
+      <c r="L428">
+        <v>2</v>
+      </c>
+      <c r="M428">
+        <v>291</v>
+      </c>
+      <c r="N428">
+        <v>3</v>
+      </c>
+      <c r="O428">
+        <v>66</v>
+      </c>
+      <c r="P428">
+        <v>43</v>
+      </c>
+      <c r="Q428">
+        <v>3</v>
+      </c>
+      <c r="R428">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
   <si>
     <t>Data</t>
   </si>
@@ -1349,6 +1349,9 @@
   </si>
   <si>
     <t>2021/05/30</t>
+  </si>
+  <si>
+    <t>2021/05/31</t>
   </si>
 </sst>
 </file>
@@ -1706,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R428"/>
+  <dimension ref="A1:R429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25575,6 +25578,62 @@
         <v>62</v>
       </c>
     </row>
+    <row r="429" spans="1:18">
+      <c r="A429" t="s">
+        <v>445</v>
+      </c>
+      <c r="B429">
+        <v>428</v>
+      </c>
+      <c r="C429">
+        <v>14227</v>
+      </c>
+      <c r="D429">
+        <v>407</v>
+      </c>
+      <c r="E429">
+        <v>158</v>
+      </c>
+      <c r="F429">
+        <v>0.0286075771420538</v>
+      </c>
+      <c r="G429">
+        <v>13615</v>
+      </c>
+      <c r="H429">
+        <v>25700</v>
+      </c>
+      <c r="I429">
+        <v>39927</v>
+      </c>
+      <c r="J429">
+        <v>28</v>
+      </c>
+      <c r="K429">
+        <v>430</v>
+      </c>
+      <c r="L429">
+        <v>4</v>
+      </c>
+      <c r="M429">
+        <v>426</v>
+      </c>
+      <c r="N429">
+        <v>28</v>
+      </c>
+      <c r="O429">
+        <v>58</v>
+      </c>
+      <c r="P429">
+        <v>46</v>
+      </c>
+      <c r="Q429">
+        <v>3</v>
+      </c>
+      <c r="R429">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t>Data</t>
   </si>
@@ -1352,6 +1352,12 @@
   </si>
   <si>
     <t>2021/05/31</t>
+  </si>
+  <si>
+    <t>2021/06/01</t>
+  </si>
+  <si>
+    <t>2021/06/02</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R429"/>
+  <dimension ref="A1:R431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25634,6 +25640,118 @@
         <v>62</v>
       </c>
     </row>
+    <row r="430" spans="1:18">
+      <c r="A430" t="s">
+        <v>446</v>
+      </c>
+      <c r="B430">
+        <v>429</v>
+      </c>
+      <c r="C430">
+        <v>14378</v>
+      </c>
+      <c r="D430">
+        <v>410</v>
+      </c>
+      <c r="E430">
+        <v>180</v>
+      </c>
+      <c r="F430">
+        <v>0.0285157880094589</v>
+      </c>
+      <c r="G430">
+        <v>13740</v>
+      </c>
+      <c r="H430">
+        <v>25700</v>
+      </c>
+      <c r="I430">
+        <v>40078</v>
+      </c>
+      <c r="J430">
+        <v>151</v>
+      </c>
+      <c r="K430">
+        <v>324</v>
+      </c>
+      <c r="L430">
+        <v>4</v>
+      </c>
+      <c r="M430">
+        <v>320</v>
+      </c>
+      <c r="N430">
+        <v>151</v>
+      </c>
+      <c r="O430">
+        <v>65</v>
+      </c>
+      <c r="P430">
+        <v>45</v>
+      </c>
+      <c r="Q430">
+        <v>3</v>
+      </c>
+      <c r="R430">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="431" spans="1:18">
+      <c r="A431" t="s">
+        <v>447</v>
+      </c>
+      <c r="B431">
+        <v>430</v>
+      </c>
+      <c r="C431">
+        <v>14550</v>
+      </c>
+      <c r="D431">
+        <v>415</v>
+      </c>
+      <c r="E431">
+        <v>185</v>
+      </c>
+      <c r="F431">
+        <v>0.0285223367697594</v>
+      </c>
+      <c r="G431">
+        <v>13902</v>
+      </c>
+      <c r="H431">
+        <v>25700</v>
+      </c>
+      <c r="I431">
+        <v>40250</v>
+      </c>
+      <c r="J431">
+        <v>172</v>
+      </c>
+      <c r="K431">
+        <v>526</v>
+      </c>
+      <c r="L431">
+        <v>4</v>
+      </c>
+      <c r="M431">
+        <v>522</v>
+      </c>
+      <c r="N431">
+        <v>172</v>
+      </c>
+      <c r="O431">
+        <v>56</v>
+      </c>
+      <c r="P431">
+        <v>56</v>
+      </c>
+      <c r="Q431">
+        <v>5</v>
+      </c>
+      <c r="R431">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="F37">
-        <v>0.0294117647058823</v>
+        <v>0.02941176471</v>
       </c>
       <c r="G37">
         <v>31</v>
@@ -3705,7 +3705,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>0.0285714285714286</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>0.0285714285714286</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G39">
         <v>32</v>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>0.0285714285714286</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G40">
         <v>32</v>
@@ -3873,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>0.027027027027027</v>
+        <v>0.02702702703</v>
       </c>
       <c r="G41">
         <v>33</v>
@@ -3929,7 +3929,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>0.027027027027027</v>
+        <v>0.02702702703</v>
       </c>
       <c r="G42">
         <v>33</v>
@@ -3985,7 +3985,7 @@
         <v>3</v>
       </c>
       <c r="F43">
-        <v>0.0263157894736842</v>
+        <v>0.02631578947</v>
       </c>
       <c r="G43">
         <v>34</v>
@@ -4041,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>0.0238095238095238</v>
+        <v>0.02380952381</v>
       </c>
       <c r="G44">
         <v>35</v>
@@ -4097,7 +4097,7 @@
         <v>6</v>
       </c>
       <c r="F45">
-        <v>0.0465116279069768</v>
+        <v>0.04651162791</v>
       </c>
       <c r="G45">
         <v>35</v>
@@ -4153,7 +4153,7 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>0.0444444444444444</v>
+        <v>0.04444444444</v>
       </c>
       <c r="G46">
         <v>35</v>
@@ -4209,7 +4209,7 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>0.0434782608695652</v>
+        <v>0.04347826087</v>
       </c>
       <c r="G47">
         <v>35</v>
@@ -4265,7 +4265,7 @@
         <v>13</v>
       </c>
       <c r="F48">
-        <v>0.0392156862745098</v>
+        <v>0.03921568627</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -4321,7 +4321,7 @@
         <v>13</v>
       </c>
       <c r="F49">
-        <v>0.0384615384615385</v>
+        <v>0.03846153846</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -4377,7 +4377,7 @@
         <v>14</v>
       </c>
       <c r="F50">
-        <v>0.0377358490566038</v>
+        <v>0.03773584906</v>
       </c>
       <c r="G50">
         <v>37</v>
@@ -4433,7 +4433,7 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>0.0526315789473684</v>
+        <v>0.05263157895</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -4489,7 +4489,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>0.0526315789473684</v>
+        <v>0.05263157895</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -4545,7 +4545,7 @@
         <v>14</v>
       </c>
       <c r="F53">
-        <v>0.06666666666666669</v>
+        <v>0.06666666667</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -4601,7 +4601,7 @@
         <v>20</v>
       </c>
       <c r="F54">
-        <v>0.0606060606060606</v>
+        <v>0.06060606061</v>
       </c>
       <c r="G54">
         <v>42</v>
@@ -4657,7 +4657,7 @@
         <v>25</v>
       </c>
       <c r="F55">
-        <v>0.0533333333333333</v>
+        <v>0.05333333333</v>
       </c>
       <c r="G55">
         <v>48</v>
@@ -4769,7 +4769,7 @@
         <v>24</v>
       </c>
       <c r="F57">
-        <v>0.0493827160493827</v>
+        <v>0.04938271605</v>
       </c>
       <c r="G57">
         <v>53</v>
@@ -4825,7 +4825,7 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <v>0.0444444444444444</v>
+        <v>0.04444444444</v>
       </c>
       <c r="G58">
         <v>54</v>
@@ -4881,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="F59">
-        <v>0.0404040404040404</v>
+        <v>0.0404040404</v>
       </c>
       <c r="G59">
         <v>65</v>
@@ -4937,7 +4937,7 @@
         <v>35</v>
       </c>
       <c r="F60">
-        <v>0.0357142857142857</v>
+        <v>0.03571428571</v>
       </c>
       <c r="G60">
         <v>73</v>
@@ -4993,7 +4993,7 @@
         <v>33</v>
       </c>
       <c r="F61">
-        <v>0.0344827586206897</v>
+        <v>0.03448275862</v>
       </c>
       <c r="G61">
         <v>79</v>
@@ -5049,7 +5049,7 @@
         <v>40</v>
       </c>
       <c r="F62">
-        <v>0.0291970802919708</v>
+        <v>0.02919708029</v>
       </c>
       <c r="G62">
         <v>93</v>
@@ -5105,7 +5105,7 @@
         <v>32</v>
       </c>
       <c r="F63">
-        <v>0.0291970802919708</v>
+        <v>0.02919708029</v>
       </c>
       <c r="G63">
         <v>101</v>
@@ -5161,7 +5161,7 @@
         <v>24</v>
       </c>
       <c r="F64">
-        <v>0.0289855072463768</v>
+        <v>0.02898550725</v>
       </c>
       <c r="G64">
         <v>110</v>
@@ -5217,7 +5217,7 @@
         <v>27</v>
       </c>
       <c r="F65">
-        <v>0.0273972602739726</v>
+        <v>0.02739726027</v>
       </c>
       <c r="G65">
         <v>115</v>
@@ -5273,7 +5273,7 @@
         <v>27</v>
       </c>
       <c r="F66">
-        <v>0.0264900662251656</v>
+        <v>0.02649006623</v>
       </c>
       <c r="G66">
         <v>120</v>
@@ -5329,7 +5329,7 @@
         <v>26</v>
       </c>
       <c r="F67">
-        <v>0.0253164556962025</v>
+        <v>0.0253164557</v>
       </c>
       <c r="G67">
         <v>128</v>
@@ -5385,7 +5385,7 @@
         <v>31</v>
       </c>
       <c r="F68">
-        <v>0.0236686390532544</v>
+        <v>0.02366863905</v>
       </c>
       <c r="G68">
         <v>134</v>
@@ -5441,7 +5441,7 @@
         <v>28</v>
       </c>
       <c r="F69">
-        <v>0.0225988700564972</v>
+        <v>0.02259887006</v>
       </c>
       <c r="G69">
         <v>144</v>
@@ -5497,7 +5497,7 @@
         <v>33</v>
       </c>
       <c r="F70">
-        <v>0.0217391304347826</v>
+        <v>0.02173913043</v>
       </c>
       <c r="G70">
         <v>146</v>
@@ -5553,7 +5553,7 @@
         <v>37</v>
       </c>
       <c r="F71">
-        <v>0.0260416666666667</v>
+        <v>0.02604166667</v>
       </c>
       <c r="G71">
         <v>149</v>
@@ -5609,7 +5609,7 @@
         <v>37</v>
       </c>
       <c r="F72">
-        <v>0.024390243902439</v>
+        <v>0.0243902439</v>
       </c>
       <c r="G72">
         <v>162</v>
@@ -5665,7 +5665,7 @@
         <v>49</v>
       </c>
       <c r="F73">
-        <v>0.026431718061674</v>
+        <v>0.02643171806</v>
       </c>
       <c r="G73">
         <v>171</v>
@@ -5721,7 +5721,7 @@
         <v>46</v>
       </c>
       <c r="F74">
-        <v>0.0253164556962025</v>
+        <v>0.0253164557</v>
       </c>
       <c r="G74">
         <v>184</v>
@@ -5777,7 +5777,7 @@
         <v>42</v>
       </c>
       <c r="F75">
-        <v>0.0284552845528455</v>
+        <v>0.02845528455</v>
       </c>
       <c r="G75">
         <v>196</v>
@@ -5833,7 +5833,7 @@
         <v>36</v>
       </c>
       <c r="F76">
-        <v>0.0276679841897233</v>
+        <v>0.02766798419</v>
       </c>
       <c r="G76">
         <v>209</v>
@@ -5889,7 +5889,7 @@
         <v>41</v>
       </c>
       <c r="F77">
-        <v>0.0335820895522388</v>
+        <v>0.03358208955</v>
       </c>
       <c r="G77">
         <v>217</v>
@@ -5945,7 +5945,7 @@
         <v>35</v>
       </c>
       <c r="F78">
-        <v>0.03690036900369</v>
+        <v>0.036900369</v>
       </c>
       <c r="G78">
         <v>225</v>
@@ -6001,7 +6001,7 @@
         <v>36</v>
       </c>
       <c r="F79">
-        <v>0.0398550724637681</v>
+        <v>0.03985507246</v>
       </c>
       <c r="G79">
         <v>228</v>
@@ -6057,7 +6057,7 @@
         <v>48</v>
       </c>
       <c r="F80">
-        <v>0.0408163265306122</v>
+        <v>0.04081632653</v>
       </c>
       <c r="G80">
         <v>233</v>
@@ -6113,7 +6113,7 @@
         <v>55</v>
       </c>
       <c r="F81">
-        <v>0.0402476780185759</v>
+        <v>0.04024767802</v>
       </c>
       <c r="G81">
         <v>253</v>
@@ -6169,7 +6169,7 @@
         <v>62</v>
       </c>
       <c r="F82">
-        <v>0.0409356725146199</v>
+        <v>0.04093567251</v>
       </c>
       <c r="G82">
         <v>264</v>
@@ -6225,7 +6225,7 @@
         <v>73</v>
       </c>
       <c r="F83">
-        <v>0.0381471389645777</v>
+        <v>0.03814713896</v>
       </c>
       <c r="G83">
         <v>278</v>
@@ -6281,7 +6281,7 @@
         <v>92</v>
       </c>
       <c r="F84">
-        <v>0.037593984962406</v>
+        <v>0.03759398496</v>
       </c>
       <c r="G84">
         <v>290</v>
@@ -6337,7 +6337,7 @@
         <v>94</v>
       </c>
       <c r="F85">
-        <v>0.0367647058823529</v>
+        <v>0.03676470588</v>
       </c>
       <c r="G85">
         <v>297</v>
@@ -6393,7 +6393,7 @@
         <v>93</v>
       </c>
       <c r="F86">
-        <v>0.0376470588235294</v>
+        <v>0.03764705882</v>
       </c>
       <c r="G86">
         <v>314</v>
@@ -6449,7 +6449,7 @@
         <v>100</v>
       </c>
       <c r="F87">
-        <v>0.0352422907488987</v>
+        <v>0.03524229075</v>
       </c>
       <c r="G87">
         <v>334</v>
@@ -6505,7 +6505,7 @@
         <v>120</v>
       </c>
       <c r="F88">
-        <v>0.0323232323232323</v>
+        <v>0.03232323232</v>
       </c>
       <c r="G88">
         <v>355</v>
@@ -6561,7 +6561,7 @@
         <v>124</v>
       </c>
       <c r="F89">
-        <v>0.033457249070632</v>
+        <v>0.03345724907</v>
       </c>
       <c r="G89">
         <v>393</v>
@@ -6617,7 +6617,7 @@
         <v>163</v>
       </c>
       <c r="F90">
-        <v>0.0301003344481605</v>
+        <v>0.03010033445</v>
       </c>
       <c r="G90">
         <v>414</v>
@@ -6673,7 +6673,7 @@
         <v>149</v>
       </c>
       <c r="F91">
-        <v>0.0285261489698891</v>
+        <v>0.02852614897</v>
       </c>
       <c r="G91">
         <v>461</v>
@@ -6729,7 +6729,7 @@
         <v>132</v>
       </c>
       <c r="F92">
-        <v>0.027906976744186</v>
+        <v>0.02790697674</v>
       </c>
       <c r="G92">
         <v>492</v>
@@ -6785,7 +6785,7 @@
         <v>109</v>
       </c>
       <c r="F93">
-        <v>0.027027027027027</v>
+        <v>0.02702702703</v>
       </c>
       <c r="G93">
         <v>536</v>
@@ -6841,7 +6841,7 @@
         <v>112</v>
       </c>
       <c r="F94">
-        <v>0.0271041369472183</v>
+        <v>0.02710413695</v>
       </c>
       <c r="G94">
         <v>567</v>
@@ -6897,7 +6897,7 @@
         <v>126</v>
       </c>
       <c r="F95">
-        <v>0.0286493860845839</v>
+        <v>0.02864938608</v>
       </c>
       <c r="G95">
         <v>583</v>
@@ -6953,7 +6953,7 @@
         <v>117</v>
       </c>
       <c r="F96">
-        <v>0.0286458333333333</v>
+        <v>0.02864583333</v>
       </c>
       <c r="G96">
         <v>626</v>
@@ -7009,7 +7009,7 @@
         <v>131</v>
       </c>
       <c r="F97">
-        <v>0.0273972602739726</v>
+        <v>0.02739726027</v>
       </c>
       <c r="G97">
         <v>647</v>
@@ -7065,7 +7065,7 @@
         <v>139</v>
       </c>
       <c r="F98">
-        <v>0.0257309941520468</v>
+        <v>0.02573099415</v>
       </c>
       <c r="G98">
         <v>691</v>
@@ -7121,7 +7121,7 @@
         <v>122</v>
       </c>
       <c r="F99">
-        <v>0.0256696428571429</v>
+        <v>0.02566964286</v>
       </c>
       <c r="G99">
         <v>748</v>
@@ -7177,7 +7177,7 @@
         <v>124</v>
       </c>
       <c r="F100">
-        <v>0.0261153427638738</v>
+        <v>0.02611534276</v>
       </c>
       <c r="G100">
         <v>767</v>
@@ -7233,7 +7233,7 @@
         <v>119</v>
       </c>
       <c r="F101">
-        <v>0.0253431890179514</v>
+        <v>0.02534318902</v>
       </c>
       <c r="G101">
         <v>800</v>
@@ -7289,7 +7289,7 @@
         <v>111</v>
       </c>
       <c r="F102">
-        <v>0.0247678018575851</v>
+        <v>0.02476780186</v>
       </c>
       <c r="G102">
         <v>831</v>
@@ -7345,7 +7345,7 @@
         <v>120</v>
       </c>
       <c r="F103">
-        <v>0.0255905511811024</v>
+        <v>0.02559055118</v>
       </c>
       <c r="G103">
         <v>866</v>
@@ -7457,7 +7457,7 @@
         <v>103</v>
       </c>
       <c r="F105">
-        <v>0.0258373205741627</v>
+        <v>0.02583732057</v>
       </c>
       <c r="G105">
         <v>911</v>
@@ -7513,7 +7513,7 @@
         <v>101</v>
       </c>
       <c r="F106">
-        <v>0.0275665399239544</v>
+        <v>0.02756653992</v>
       </c>
       <c r="G106">
         <v>917</v>
@@ -7569,7 +7569,7 @@
         <v>87</v>
       </c>
       <c r="F107">
-        <v>0.0282752120640905</v>
+        <v>0.02827521206</v>
       </c>
       <c r="G107">
         <v>939</v>
@@ -7625,7 +7625,7 @@
         <v>92</v>
       </c>
       <c r="F108">
-        <v>0.0275229357798165</v>
+        <v>0.02752293578</v>
       </c>
       <c r="G108">
         <v>963</v>
@@ -7681,7 +7681,7 @@
         <v>90</v>
       </c>
       <c r="F109">
-        <v>0.0274822695035461</v>
+        <v>0.0274822695</v>
       </c>
       <c r="G109">
         <v>1002</v>
@@ -7737,7 +7737,7 @@
         <v>91</v>
       </c>
       <c r="F110">
-        <v>0.0285714285714286</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G110">
         <v>1025</v>
@@ -7793,7 +7793,7 @@
         <v>91</v>
       </c>
       <c r="F111">
-        <v>0.0279187817258883</v>
+        <v>0.02791878173</v>
       </c>
       <c r="G111">
         <v>1052</v>
@@ -7905,7 +7905,7 @@
         <v>91</v>
       </c>
       <c r="F113">
-        <v>0.0304276315789474</v>
+        <v>0.03042763158</v>
       </c>
       <c r="G113">
         <v>1082</v>
@@ -7961,7 +7961,7 @@
         <v>85</v>
       </c>
       <c r="F114">
-        <v>0.0308692120227457</v>
+        <v>0.03086921202</v>
       </c>
       <c r="G114">
         <v>1102</v>
@@ -8017,7 +8017,7 @@
         <v>101</v>
       </c>
       <c r="F115">
-        <v>0.029664324746292</v>
+        <v>0.02966432475</v>
       </c>
       <c r="G115">
         <v>1135</v>
@@ -8073,7 +8073,7 @@
         <v>100</v>
       </c>
       <c r="F116">
-        <v>0.0294784580498866</v>
+        <v>0.02947845805</v>
       </c>
       <c r="G116">
         <v>1176</v>
@@ -8129,7 +8129,7 @@
         <v>119</v>
       </c>
       <c r="F117">
-        <v>0.0307692307692308</v>
+        <v>0.03076923077</v>
       </c>
       <c r="G117">
         <v>1196</v>
@@ -8185,7 +8185,7 @@
         <v>120</v>
       </c>
       <c r="F118">
-        <v>0.0306049822064057</v>
+        <v>0.03060498221</v>
       </c>
       <c r="G118">
         <v>1234</v>
@@ -8241,7 +8241,7 @@
         <v>122</v>
       </c>
       <c r="F119">
-        <v>0.0311418685121107</v>
+        <v>0.03114186851</v>
       </c>
       <c r="G119">
         <v>1270</v>
@@ -8297,7 +8297,7 @@
         <v>104</v>
       </c>
       <c r="F120">
-        <v>0.0317022742935906</v>
+        <v>0.03170227429</v>
       </c>
       <c r="G120">
         <v>1293</v>
@@ -8353,7 +8353,7 @@
         <v>108</v>
       </c>
       <c r="F121">
-        <v>0.0317997293640054</v>
+        <v>0.03179972936</v>
       </c>
       <c r="G121">
         <v>1314</v>
@@ -8409,7 +8409,7 @@
         <v>108</v>
       </c>
       <c r="F122">
-        <v>0.0307994757536042</v>
+        <v>0.03079947575</v>
       </c>
       <c r="G122">
         <v>1361</v>
@@ -8465,7 +8465,7 @@
         <v>109</v>
       </c>
       <c r="F123">
-        <v>0.0298792116973935</v>
+        <v>0.0298792117</v>
       </c>
       <c r="G123">
         <v>1407</v>
@@ -8521,7 +8521,7 @@
         <v>106</v>
       </c>
       <c r="F124">
-        <v>0.0297213622291022</v>
+        <v>0.02972136223</v>
       </c>
       <c r="G124">
         <v>1451</v>
@@ -8577,7 +8577,7 @@
         <v>102</v>
       </c>
       <c r="F125">
-        <v>0.0290030211480363</v>
+        <v>0.02900302115</v>
       </c>
       <c r="G125">
         <v>1495</v>
@@ -8633,7 +8633,7 @@
         <v>103</v>
       </c>
       <c r="F126">
-        <v>0.0286567164179104</v>
+        <v>0.02865671642</v>
       </c>
       <c r="G126">
         <v>1514</v>
@@ -8689,7 +8689,7 @@
         <v>94</v>
       </c>
       <c r="F127">
-        <v>0.0285714285714286</v>
+        <v>0.02857142857</v>
       </c>
       <c r="G127">
         <v>1528</v>
@@ -8745,7 +8745,7 @@
         <v>82</v>
       </c>
       <c r="F128">
-        <v>0.0282352941176471</v>
+        <v>0.02823529412</v>
       </c>
       <c r="G128">
         <v>1560</v>
@@ -8801,7 +8801,7 @@
         <v>76</v>
       </c>
       <c r="F129">
-        <v>0.0282583621683968</v>
+        <v>0.02825836217</v>
       </c>
       <c r="G129">
         <v>1598</v>
@@ -8857,7 +8857,7 @@
         <v>68</v>
       </c>
       <c r="F130">
-        <v>0.02894438138479</v>
+        <v>0.02894438138</v>
       </c>
       <c r="G130">
         <v>1632</v>
@@ -8913,7 +8913,7 @@
         <v>73</v>
       </c>
       <c r="F131">
-        <v>0.0285394515948517</v>
+        <v>0.02853945159</v>
       </c>
       <c r="G131">
         <v>1652</v>
@@ -8969,7 +8969,7 @@
         <v>74</v>
       </c>
       <c r="F132">
-        <v>0.0287451630735213</v>
+        <v>0.02874516307</v>
       </c>
       <c r="G132">
         <v>1672</v>
@@ -9025,7 +9025,7 @@
         <v>68</v>
       </c>
       <c r="F133">
-        <v>0.028555738605162</v>
+        <v>0.02855573861</v>
       </c>
       <c r="G133">
         <v>1690</v>
@@ -9081,7 +9081,7 @@
         <v>65</v>
       </c>
       <c r="F134">
-        <v>0.0285400658616904</v>
+        <v>0.02854006586</v>
       </c>
       <c r="G134">
         <v>1694</v>
@@ -9137,7 +9137,7 @@
         <v>67</v>
       </c>
       <c r="F135">
-        <v>0.0282762370853725</v>
+        <v>0.02827623709</v>
       </c>
       <c r="G135">
         <v>1709</v>
@@ -9193,7 +9193,7 @@
         <v>61</v>
       </c>
       <c r="F136">
-        <v>0.0279119699409554</v>
+        <v>0.02791196994</v>
       </c>
       <c r="G136">
         <v>1739</v>
@@ -9249,7 +9249,7 @@
         <v>62</v>
       </c>
       <c r="F137">
-        <v>0.0292553191489362</v>
+        <v>0.02925531915</v>
       </c>
       <c r="G137">
         <v>1752</v>
@@ -9305,7 +9305,7 @@
         <v>63</v>
       </c>
       <c r="F138">
-        <v>0.0289931470743279</v>
+        <v>0.02899314707</v>
       </c>
       <c r="G138">
         <v>1768</v>
@@ -9361,7 +9361,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>0.0296720458094742</v>
+        <v>0.02967204581</v>
       </c>
       <c r="G139">
         <v>1786</v>
@@ -9417,7 +9417,7 @@
         <v>53</v>
       </c>
       <c r="F140">
-        <v>0.0295183842568617</v>
+        <v>0.02951838426</v>
       </c>
       <c r="G140">
         <v>1810</v>
@@ -9473,7 +9473,7 @@
         <v>49</v>
       </c>
       <c r="F141">
-        <v>0.0300051733057424</v>
+        <v>0.03000517331</v>
       </c>
       <c r="G141">
         <v>1815</v>
@@ -9529,7 +9529,7 @@
         <v>40</v>
       </c>
       <c r="F142">
-        <v>0.0298047276464543</v>
+        <v>0.02980472765</v>
       </c>
       <c r="G142">
         <v>1836</v>
@@ -9585,7 +9585,7 @@
         <v>47</v>
       </c>
       <c r="F143">
-        <v>0.0294715447154472</v>
+        <v>0.02947154472</v>
       </c>
       <c r="G143">
         <v>1851</v>
@@ -9641,7 +9641,7 @@
         <v>51</v>
       </c>
       <c r="F144">
-        <v>0.0291018564977421</v>
+        <v>0.0291018565</v>
       </c>
       <c r="G144">
         <v>1872</v>
@@ -9697,7 +9697,7 @@
         <v>63</v>
       </c>
       <c r="F145">
-        <v>0.0287555775904809</v>
+        <v>0.02875557759</v>
       </c>
       <c r="G145">
         <v>1884</v>
@@ -9753,7 +9753,7 @@
         <v>60</v>
       </c>
       <c r="F146">
-        <v>0.0285855101034993</v>
+        <v>0.0285855101</v>
       </c>
       <c r="G146">
         <v>1899</v>
@@ -9809,7 +9809,7 @@
         <v>62</v>
       </c>
       <c r="F147">
-        <v>0.0283896231032795</v>
+        <v>0.0283896231</v>
       </c>
       <c r="G147">
         <v>1911</v>
@@ -9921,7 +9921,7 @@
         <v>49</v>
       </c>
       <c r="F149">
-        <v>0.0290838584585555</v>
+        <v>0.02908385846</v>
       </c>
       <c r="G149">
         <v>1942</v>
@@ -9977,7 +9977,7 @@
         <v>43</v>
       </c>
       <c r="F150">
-        <v>0.0288461538461538</v>
+        <v>0.02884615385</v>
       </c>
       <c r="G150">
         <v>1964</v>
@@ -10033,7 +10033,7 @@
         <v>39</v>
       </c>
       <c r="F151">
-        <v>0.0295660467334287</v>
+        <v>0.02956604673</v>
       </c>
       <c r="G151">
         <v>1983</v>
@@ -10089,7 +10089,7 @@
         <v>40</v>
       </c>
       <c r="F152">
-        <v>0.0298578199052133</v>
+        <v>0.02985781991</v>
       </c>
       <c r="G152">
         <v>1994</v>
@@ -10145,7 +10145,7 @@
         <v>45</v>
       </c>
       <c r="F153">
-        <v>0.0294392523364486</v>
+        <v>0.02943925234</v>
       </c>
       <c r="G153">
         <v>2019</v>
@@ -10201,7 +10201,7 @@
         <v>43</v>
       </c>
       <c r="F154">
-        <v>0.029384328358209</v>
+        <v>0.02938432836</v>
       </c>
       <c r="G154">
         <v>2025</v>
@@ -10257,7 +10257,7 @@
         <v>42</v>
       </c>
       <c r="F155">
-        <v>0.0297536029753603</v>
+        <v>0.02975360298</v>
       </c>
       <c r="G155">
         <v>2032</v>
@@ -10313,7 +10313,7 @@
         <v>38</v>
       </c>
       <c r="F156">
-        <v>0.0303867403314917</v>
+        <v>0.03038674033</v>
       </c>
       <c r="G156">
         <v>2055</v>
@@ -10369,7 +10369,7 @@
         <v>40</v>
       </c>
       <c r="F157">
-        <v>0.0301507537688442</v>
+        <v>0.03015075377</v>
       </c>
       <c r="G157">
         <v>2070</v>
@@ -10425,7 +10425,7 @@
         <v>49</v>
       </c>
       <c r="F158">
-        <v>0.0303304662743323</v>
+        <v>0.03033046627</v>
       </c>
       <c r="G158">
         <v>2076</v>
@@ -10481,7 +10481,7 @@
         <v>43</v>
       </c>
       <c r="F159">
-        <v>0.0305069537909376</v>
+        <v>0.03050695379</v>
       </c>
       <c r="G159">
         <v>2105</v>
@@ -10537,7 +10537,7 @@
         <v>47</v>
       </c>
       <c r="F160">
-        <v>0.0302222222222222</v>
+        <v>0.03022222222</v>
       </c>
       <c r="G160">
         <v>2122</v>
@@ -10593,7 +10593,7 @@
         <v>44</v>
       </c>
       <c r="F161">
-        <v>0.0301819795827785</v>
+        <v>0.03018197958</v>
       </c>
       <c r="G161">
         <v>2128</v>
@@ -10649,7 +10649,7 @@
         <v>36</v>
       </c>
       <c r="F162">
-        <v>0.0305986696230599</v>
+        <v>0.03059866962</v>
       </c>
       <c r="G162">
         <v>2137</v>
@@ -10705,7 +10705,7 @@
         <v>29</v>
       </c>
       <c r="F163">
-        <v>0.0305986696230599</v>
+        <v>0.03059866962</v>
       </c>
       <c r="G163">
         <v>2144</v>
@@ -10761,7 +10761,7 @@
         <v>37</v>
       </c>
       <c r="F164">
-        <v>0.0303830911492734</v>
+        <v>0.03038309115</v>
       </c>
       <c r="G164">
         <v>2152</v>
@@ -10817,7 +10817,7 @@
         <v>33</v>
       </c>
       <c r="F165">
-        <v>0.0306614104248795</v>
+        <v>0.03066141042</v>
       </c>
       <c r="G165">
         <v>2167</v>
@@ -10873,7 +10873,7 @@
         <v>50</v>
       </c>
       <c r="F166">
-        <v>0.0302506482281763</v>
+        <v>0.03025064823</v>
       </c>
       <c r="G166">
         <v>2181</v>
@@ -10929,7 +10929,7 @@
         <v>53</v>
       </c>
       <c r="F167">
-        <v>0.0299529311082584</v>
+        <v>0.02995293111</v>
       </c>
       <c r="G167">
         <v>2201</v>
@@ -10985,7 +10985,7 @@
         <v>53</v>
       </c>
       <c r="F168">
-        <v>0.0298253089049851</v>
+        <v>0.0298253089</v>
       </c>
       <c r="G168">
         <v>2211</v>
@@ -11041,7 +11041,7 @@
         <v>51</v>
       </c>
       <c r="F169">
-        <v>0.0298253089049851</v>
+        <v>0.0298253089</v>
       </c>
       <c r="G169">
         <v>2213</v>
@@ -11097,7 +11097,7 @@
         <v>48</v>
       </c>
       <c r="F170">
-        <v>0.029585798816568</v>
+        <v>0.02958579882</v>
       </c>
       <c r="G170">
         <v>2235</v>
@@ -11153,7 +11153,7 @@
         <v>54</v>
       </c>
       <c r="F171">
-        <v>0.0292397660818713</v>
+        <v>0.02923976608</v>
       </c>
       <c r="G171">
         <v>2257</v>
@@ -11209,7 +11209,7 @@
         <v>65</v>
       </c>
       <c r="F172">
-        <v>0.0288421920065925</v>
+        <v>0.02884219201</v>
       </c>
       <c r="G172">
         <v>2279</v>
@@ -11265,7 +11265,7 @@
         <v>75</v>
       </c>
       <c r="F173">
-        <v>0.0285830951408738</v>
+        <v>0.02858309514</v>
       </c>
       <c r="G173">
         <v>2291</v>
@@ -11321,7 +11321,7 @@
         <v>83</v>
       </c>
       <c r="F174">
-        <v>0.0287100687424181</v>
+        <v>0.02871006874</v>
       </c>
       <c r="G174">
         <v>2306</v>
@@ -11377,7 +11377,7 @@
         <v>79</v>
       </c>
       <c r="F175">
-        <v>0.0288808664259928</v>
+        <v>0.02888086643</v>
       </c>
       <c r="G175">
         <v>2329</v>
@@ -11433,7 +11433,7 @@
         <v>73</v>
       </c>
       <c r="F176">
-        <v>0.0288808664259928</v>
+        <v>0.02888086643</v>
       </c>
       <c r="G176">
         <v>2335</v>
@@ -11489,7 +11489,7 @@
         <v>79</v>
       </c>
       <c r="F177">
-        <v>0.0285374554102259</v>
+        <v>0.02853745541</v>
       </c>
       <c r="G177">
         <v>2359</v>
@@ -11545,7 +11545,7 @@
         <v>77</v>
       </c>
       <c r="F178">
-        <v>0.0282907662082515</v>
+        <v>0.02829076621</v>
       </c>
       <c r="G178">
         <v>2383</v>
@@ -11601,7 +11601,7 @@
         <v>74</v>
       </c>
       <c r="F179">
-        <v>0.028169014084507</v>
+        <v>0.02816901408</v>
       </c>
       <c r="G179">
         <v>2397</v>
@@ -11657,7 +11657,7 @@
         <v>86</v>
       </c>
       <c r="F180">
-        <v>0.0278099652375435</v>
+        <v>0.02780996524</v>
       </c>
       <c r="G180">
         <v>2418</v>
@@ -11713,7 +11713,7 @@
         <v>92</v>
       </c>
       <c r="F181">
-        <v>0.0282766526557126</v>
+        <v>0.02827665266</v>
       </c>
       <c r="G181">
         <v>2438</v>
@@ -11769,7 +11769,7 @@
         <v>91</v>
       </c>
       <c r="F182">
-        <v>0.0287660862982589</v>
+        <v>0.0287660863</v>
       </c>
       <c r="G182">
         <v>2462</v>
@@ -11825,7 +11825,7 @@
         <v>88</v>
       </c>
       <c r="F183">
-        <v>0.0287443267776097</v>
+        <v>0.02874432678</v>
       </c>
       <c r="G183">
         <v>2467</v>
@@ -11881,7 +11881,7 @@
         <v>86</v>
       </c>
       <c r="F184">
-        <v>0.028785046728972</v>
+        <v>0.02878504673</v>
       </c>
       <c r="G184">
         <v>2499</v>
@@ -11937,7 +11937,7 @@
         <v>92</v>
       </c>
       <c r="F185">
-        <v>0.0286138981791156</v>
+        <v>0.02861389818</v>
       </c>
       <c r="G185">
         <v>2509</v>
@@ -11993,7 +11993,7 @@
         <v>96</v>
       </c>
       <c r="F186">
-        <v>0.0284028033935817</v>
+        <v>0.02840280339</v>
       </c>
       <c r="G186">
         <v>2524</v>
@@ -12049,7 +12049,7 @@
         <v>112</v>
       </c>
       <c r="F187">
-        <v>0.0284775465498357</v>
+        <v>0.02847754655</v>
       </c>
       <c r="G187">
         <v>2537</v>
@@ -12105,7 +12105,7 @@
         <v>89</v>
       </c>
       <c r="F188">
-        <v>0.0287272727272727</v>
+        <v>0.02872727273</v>
       </c>
       <c r="G188">
         <v>2569</v>
@@ -12161,7 +12161,7 @@
         <v>71</v>
       </c>
       <c r="F189">
-        <v>0.0290592081365783</v>
+        <v>0.02905920814</v>
       </c>
       <c r="G189">
         <v>2589</v>
@@ -12217,7 +12217,7 @@
         <v>66</v>
       </c>
       <c r="F190">
-        <v>0.0294224482382855</v>
+        <v>0.02942244824</v>
       </c>
       <c r="G190">
         <v>2593</v>
@@ -12273,7 +12273,7 @@
         <v>46</v>
       </c>
       <c r="F191">
-        <v>0.0292735814962053</v>
+        <v>0.0292735815</v>
       </c>
       <c r="G191">
         <v>2627</v>
@@ -12329,7 +12329,7 @@
         <v>62</v>
       </c>
       <c r="F192">
-        <v>0.0289492494639028</v>
+        <v>0.02894924946</v>
       </c>
       <c r="G192">
         <v>2642</v>
@@ -12385,7 +12385,7 @@
         <v>86</v>
       </c>
       <c r="F193">
-        <v>0.0284710017574692</v>
+        <v>0.02847100176</v>
       </c>
       <c r="G193">
         <v>2665</v>
@@ -12441,7 +12441,7 @@
         <v>83</v>
       </c>
       <c r="F194">
-        <v>0.0287014350717536</v>
+        <v>0.02870143507</v>
       </c>
       <c r="G194">
         <v>2679</v>
@@ -12497,7 +12497,7 @@
         <v>71</v>
       </c>
       <c r="F195">
-        <v>0.0285118219749652</v>
+        <v>0.02851182197</v>
       </c>
       <c r="G195">
         <v>2710</v>
@@ -12553,7 +12553,7 @@
         <v>72</v>
       </c>
       <c r="F196">
-        <v>0.0283540802213001</v>
+        <v>0.02835408022</v>
       </c>
       <c r="G196">
         <v>2725</v>
@@ -12609,7 +12609,7 @@
         <v>64</v>
       </c>
       <c r="F197">
-        <v>0.0283442792948496</v>
+        <v>0.02834427929</v>
       </c>
       <c r="G197">
         <v>2734</v>
@@ -12665,7 +12665,7 @@
         <v>51</v>
       </c>
       <c r="F198">
-        <v>0.0283442792948496</v>
+        <v>0.02834427929</v>
       </c>
       <c r="G198">
         <v>2747</v>
@@ -12721,7 +12721,7 @@
         <v>52</v>
       </c>
       <c r="F199">
-        <v>0.028062970568104</v>
+        <v>0.02806297057</v>
       </c>
       <c r="G199">
         <v>2775</v>
@@ -12777,7 +12777,7 @@
         <v>63</v>
       </c>
       <c r="F200">
-        <v>0.0278154681139756</v>
+        <v>0.02781546811</v>
       </c>
       <c r="G200">
         <v>2790</v>
@@ -12833,7 +12833,7 @@
         <v>50</v>
       </c>
       <c r="F201">
-        <v>0.0277027027027027</v>
+        <v>0.0277027027</v>
       </c>
       <c r="G201">
         <v>2815</v>
@@ -12889,7 +12889,7 @@
         <v>48</v>
       </c>
       <c r="F202">
-        <v>0.0282637954239569</v>
+        <v>0.02826379542</v>
       </c>
       <c r="G202">
         <v>2872</v>
@@ -12945,7 +12945,7 @@
         <v>70</v>
       </c>
       <c r="F203">
-        <v>0.0286571142952349</v>
+        <v>0.0286571143</v>
       </c>
       <c r="G203">
         <v>2831</v>
@@ -13001,7 +13001,7 @@
         <v>64</v>
       </c>
       <c r="F204">
-        <v>0.0286571142952349</v>
+        <v>0.0286571143</v>
       </c>
       <c r="G204">
         <v>2838</v>
@@ -13057,7 +13057,7 @@
         <v>80</v>
       </c>
       <c r="F205">
-        <v>0.0284485610320873</v>
+        <v>0.02844856103</v>
       </c>
       <c r="G205">
         <v>2841</v>
@@ -13113,7 +13113,7 @@
         <v>80</v>
       </c>
       <c r="F206">
-        <v>0.0283641160949868</v>
+        <v>0.02836411609</v>
       </c>
       <c r="G206">
         <v>2853</v>
@@ -13169,7 +13169,7 @@
         <v>81</v>
       </c>
       <c r="F207">
-        <v>0.0281505728314239</v>
+        <v>0.02815057283</v>
       </c>
       <c r="G207">
         <v>2875</v>
@@ -13225,7 +13225,7 @@
         <v>77</v>
       </c>
       <c r="F208">
-        <v>0.0279674796747967</v>
+        <v>0.02796747967</v>
       </c>
       <c r="G208">
         <v>2899</v>
@@ -13281,7 +13281,7 @@
         <v>77</v>
       </c>
       <c r="F209">
-        <v>0.0279674796747967</v>
+        <v>0.02796747967</v>
       </c>
       <c r="G209">
         <v>2899</v>
@@ -13337,7 +13337,7 @@
         <v>99</v>
       </c>
       <c r="F210">
-        <v>0.0277600510529675</v>
+        <v>0.02776005105</v>
       </c>
       <c r="G210">
         <v>2935</v>
@@ -13393,7 +13393,7 @@
         <v>99</v>
       </c>
       <c r="F211">
-        <v>0.0277600510529675</v>
+        <v>0.02776005105</v>
       </c>
       <c r="G211">
         <v>2935</v>
@@ -13449,7 +13449,7 @@
         <v>104</v>
       </c>
       <c r="F212">
-        <v>0.0276990871891722</v>
+        <v>0.02769908719</v>
       </c>
       <c r="G212">
         <v>2970</v>
@@ -13505,7 +13505,7 @@
         <v>87</v>
       </c>
       <c r="F213">
-        <v>0.0278385986862684</v>
+        <v>0.02783859869</v>
       </c>
       <c r="G213">
         <v>3006</v>
@@ -13561,7 +13561,7 @@
         <v>82</v>
       </c>
       <c r="F214">
-        <v>0.0277777777777778</v>
+        <v>0.02777777778</v>
       </c>
       <c r="G214">
         <v>3017</v>
@@ -13617,7 +13617,7 @@
         <v>85</v>
       </c>
       <c r="F215">
-        <v>0.027588344699318</v>
+        <v>0.0275883447</v>
       </c>
       <c r="G215">
         <v>3036</v>
@@ -13673,7 +13673,7 @@
         <v>76</v>
       </c>
       <c r="F216">
-        <v>0.0274268104776579</v>
+        <v>0.02742681048</v>
       </c>
       <c r="G216">
         <v>3064</v>
@@ -13729,7 +13729,7 @@
         <v>51</v>
       </c>
       <c r="F217">
-        <v>0.0271672771672772</v>
+        <v>0.02716727717</v>
       </c>
       <c r="G217">
         <v>3120</v>
@@ -13785,7 +13785,7 @@
         <v>53</v>
       </c>
       <c r="F218">
-        <v>0.026969696969697</v>
+        <v>0.02696969697</v>
       </c>
       <c r="G218">
         <v>3142</v>
@@ -13841,7 +13841,7 @@
         <v>47</v>
       </c>
       <c r="F219">
-        <v>0.0267749699157641</v>
+        <v>0.02677496992</v>
       </c>
       <c r="G219">
         <v>3172</v>
@@ -13897,7 +13897,7 @@
         <v>47</v>
       </c>
       <c r="F220">
-        <v>0.0266227938976967</v>
+        <v>0.0266227939</v>
       </c>
       <c r="G220">
         <v>3191</v>
@@ -13953,7 +13953,7 @@
         <v>48</v>
       </c>
       <c r="F221">
-        <v>0.0267697798929209</v>
+        <v>0.02676977989</v>
       </c>
       <c r="G221">
         <v>3208</v>
@@ -14009,7 +14009,7 @@
         <v>44</v>
       </c>
       <c r="F222">
-        <v>0.0266350991417579</v>
+        <v>0.02663509914</v>
       </c>
       <c r="G222">
         <v>3229</v>
@@ -14065,7 +14065,7 @@
         <v>41</v>
       </c>
       <c r="F223">
-        <v>0.0265800354400473</v>
+        <v>0.02658003544</v>
       </c>
       <c r="G223">
         <v>3239</v>
@@ -14121,7 +14121,7 @@
         <v>38</v>
       </c>
       <c r="F224">
-        <v>0.0267804590935845</v>
+        <v>0.02678045909</v>
       </c>
       <c r="G224">
         <v>3253</v>
@@ -14177,7 +14177,7 @@
         <v>27</v>
       </c>
       <c r="F225">
-        <v>0.0270747498528546</v>
+        <v>0.02707474985</v>
       </c>
       <c r="G225">
         <v>3263</v>
@@ -14233,7 +14233,7 @@
         <v>28</v>
       </c>
       <c r="F226">
-        <v>0.0269715625916154</v>
+        <v>0.02697156259</v>
       </c>
       <c r="G226">
         <v>3275</v>
@@ -14289,7 +14289,7 @@
         <v>31</v>
       </c>
       <c r="F227">
-        <v>0.0270742358078603</v>
+        <v>0.02707423581</v>
       </c>
       <c r="G227">
         <v>3295</v>
@@ -14345,7 +14345,7 @@
         <v>35</v>
       </c>
       <c r="F228">
-        <v>0.0268630849220104</v>
+        <v>0.02686308492</v>
       </c>
       <c r="G228">
         <v>3318</v>
@@ -14401,7 +14401,7 @@
         <v>41</v>
       </c>
       <c r="F229">
-        <v>0.0267011197243755</v>
+        <v>0.02670111972</v>
       </c>
       <c r="G229">
         <v>3333</v>
@@ -14457,7 +14457,7 @@
         <v>35</v>
       </c>
       <c r="F230">
-        <v>0.0265259555048488</v>
+        <v>0.0265259555</v>
       </c>
       <c r="G230">
         <v>3362</v>
@@ -14513,7 +14513,7 @@
         <v>35</v>
       </c>
       <c r="F231">
-        <v>0.0265259555048488</v>
+        <v>0.0265259555</v>
       </c>
       <c r="G231">
         <v>3362</v>
@@ -14569,7 +14569,7 @@
         <v>28</v>
       </c>
       <c r="F232">
-        <v>0.0263381478334749</v>
+        <v>0.02633814783</v>
       </c>
       <c r="G232">
         <v>3394</v>
@@ -14625,7 +14625,7 @@
         <v>42</v>
       </c>
       <c r="F233">
-        <v>0.0260577192490894</v>
+        <v>0.02605771925</v>
       </c>
       <c r="G233">
         <v>3418</v>
@@ -14681,7 +14681,7 @@
         <v>46</v>
       </c>
       <c r="F234">
-        <v>0.0259197324414716</v>
+        <v>0.02591973244</v>
       </c>
       <c r="G234">
         <v>3433</v>
@@ -14737,7 +14737,7 @@
         <v>48</v>
       </c>
       <c r="F235">
-        <v>0.0257475083056478</v>
+        <v>0.02574750831</v>
       </c>
       <c r="G235">
         <v>3454</v>
@@ -14793,7 +14793,7 @@
         <v>55</v>
       </c>
       <c r="F236">
-        <v>0.0256198347107438</v>
+        <v>0.02561983471</v>
       </c>
       <c r="G236">
         <v>3465</v>
@@ -14849,7 +14849,7 @@
         <v>42</v>
       </c>
       <c r="F237">
-        <v>0.0263085776925185</v>
+        <v>0.02630857769</v>
       </c>
       <c r="G237">
         <v>3495</v>
@@ -14905,7 +14905,7 @@
         <v>37</v>
       </c>
       <c r="F238">
-        <v>0.026279770052012</v>
+        <v>0.02627977005</v>
       </c>
       <c r="G238">
         <v>3503</v>
@@ -14961,7 +14961,7 @@
         <v>31</v>
       </c>
       <c r="F239">
-        <v>0.0265462506841817</v>
+        <v>0.02654625068</v>
       </c>
       <c r="G239">
         <v>3509</v>
@@ -15017,7 +15017,7 @@
         <v>38</v>
       </c>
       <c r="F240">
-        <v>0.0268583830710798</v>
+        <v>0.02685838307</v>
       </c>
       <c r="G240">
         <v>3532</v>
@@ -15073,7 +15073,7 @@
         <v>37</v>
       </c>
       <c r="F241">
-        <v>0.0268147345612134</v>
+        <v>0.02681473456</v>
       </c>
       <c r="G241">
         <v>3539</v>
@@ -15129,7 +15129,7 @@
         <v>34</v>
       </c>
       <c r="F242">
-        <v>0.0266702586206897</v>
+        <v>0.02667025862</v>
       </c>
       <c r="G242">
         <v>3562</v>
@@ -15185,7 +15185,7 @@
         <v>38</v>
       </c>
       <c r="F243">
-        <v>0.0265131226566685</v>
+        <v>0.02651312266</v>
       </c>
       <c r="G243">
         <v>3580</v>
@@ -15241,7 +15241,7 @@
         <v>52</v>
       </c>
       <c r="F244">
-        <v>0.0264830508474576</v>
+        <v>0.02648305085</v>
       </c>
       <c r="G244">
         <v>3607</v>
@@ -15297,7 +15297,7 @@
         <v>42</v>
       </c>
       <c r="F245">
-        <v>0.026246719160105</v>
+        <v>0.02624671916</v>
       </c>
       <c r="G245">
         <v>3651</v>
@@ -15353,7 +15353,7 @@
         <v>42</v>
       </c>
       <c r="F246">
-        <v>0.0261848651479445</v>
+        <v>0.02618486515</v>
       </c>
       <c r="G246">
         <v>3660</v>
@@ -15409,7 +15409,7 @@
         <v>37</v>
       </c>
       <c r="F247">
-        <v>0.025980774227072</v>
+        <v>0.02598077423</v>
       </c>
       <c r="G247">
         <v>3695</v>
@@ -15465,7 +15465,7 @@
         <v>60</v>
       </c>
       <c r="F248">
-        <v>0.0257731958762887</v>
+        <v>0.02577319588</v>
       </c>
       <c r="G248">
         <v>3703</v>
@@ -15521,7 +15521,7 @@
         <v>57</v>
       </c>
       <c r="F249">
-        <v>0.0256607646907878</v>
+        <v>0.02566076469</v>
       </c>
       <c r="G249">
         <v>3723</v>
@@ -15577,7 +15577,7 @@
         <v>56</v>
       </c>
       <c r="F250">
-        <v>0.0254841997961264</v>
+        <v>0.0254841998</v>
       </c>
       <c r="G250">
         <v>3751</v>
@@ -15633,7 +15633,7 @@
         <v>81</v>
       </c>
       <c r="F251">
-        <v>0.0252016129032258</v>
+        <v>0.0252016129</v>
       </c>
       <c r="G251">
         <v>3770</v>
@@ -15689,7 +15689,7 @@
         <v>58</v>
       </c>
       <c r="F252">
-        <v>0.0249563264287497</v>
+        <v>0.02495632643</v>
       </c>
       <c r="G252">
         <v>3832</v>
@@ -15745,7 +15745,7 @@
         <v>48</v>
       </c>
       <c r="F253">
-        <v>0.0248200546041201</v>
+        <v>0.0248200546</v>
       </c>
       <c r="G253">
         <v>3864</v>
@@ -15801,7 +15801,7 @@
         <v>35</v>
       </c>
       <c r="F254">
-        <v>0.0246974561620153</v>
+        <v>0.02469745616</v>
       </c>
       <c r="G254">
         <v>3897</v>
@@ -15857,7 +15857,7 @@
         <v>41</v>
       </c>
       <c r="F255">
-        <v>0.0245338567222767</v>
+        <v>0.02453385672</v>
       </c>
       <c r="G255">
         <v>3918</v>
@@ -15913,7 +15913,7 @@
         <v>46</v>
       </c>
       <c r="F256">
-        <v>0.0244081034903588</v>
+        <v>0.02440810349</v>
       </c>
       <c r="G256">
         <v>3934</v>
@@ -15969,7 +15969,7 @@
         <v>59</v>
       </c>
       <c r="F257">
-        <v>0.0241487563390485</v>
+        <v>0.02414875634</v>
       </c>
       <c r="G257">
         <v>3965</v>
@@ -16025,7 +16025,7 @@
         <v>66</v>
       </c>
       <c r="F258">
-        <v>0.0241626794258373</v>
+        <v>0.02416267943</v>
       </c>
       <c r="G258">
         <v>3996</v>
@@ -16081,7 +16081,7 @@
         <v>66</v>
       </c>
       <c r="F259">
-        <v>0.0241626794258373</v>
+        <v>0.02416267943</v>
       </c>
       <c r="G259">
         <v>3996</v>
@@ -16137,7 +16137,7 @@
         <v>33</v>
       </c>
       <c r="F260">
-        <v>0.0241338112305854</v>
+        <v>0.02413381123</v>
       </c>
       <c r="G260">
         <v>4034</v>
@@ -16193,7 +16193,7 @@
         <v>33</v>
       </c>
       <c r="F261">
-        <v>0.0241338112305854</v>
+        <v>0.02413381123</v>
       </c>
       <c r="G261">
         <v>4034</v>
@@ -16249,7 +16249,7 @@
         <v>36</v>
       </c>
       <c r="F262">
-        <v>0.0241248817407758</v>
+        <v>0.02412488174</v>
       </c>
       <c r="G262">
         <v>4073</v>
@@ -16305,7 +16305,7 @@
         <v>38</v>
       </c>
       <c r="F263">
-        <v>0.0239324260910371</v>
+        <v>0.02393242609</v>
       </c>
       <c r="G263">
         <v>4105</v>
@@ -16361,7 +16361,7 @@
         <v>46</v>
       </c>
       <c r="F264">
-        <v>0.0235620235620236</v>
+        <v>0.02356202356</v>
       </c>
       <c r="G264">
         <v>4164</v>
@@ -16417,7 +16417,7 @@
         <v>46</v>
       </c>
       <c r="F265">
-        <v>0.0232293327260305</v>
+        <v>0.02322933273</v>
       </c>
       <c r="G265">
         <v>4226</v>
@@ -16473,7 +16473,7 @@
         <v>46</v>
       </c>
       <c r="F266">
-        <v>0.0232293327260305</v>
+        <v>0.02322933273</v>
       </c>
       <c r="G266">
         <v>4226</v>
@@ -16529,7 +16529,7 @@
         <v>31</v>
       </c>
       <c r="F267">
-        <v>0.0230873698506111</v>
+        <v>0.02308736985</v>
       </c>
       <c r="G267">
         <v>4265</v>
@@ -16585,7 +16585,7 @@
         <v>65</v>
       </c>
       <c r="F268">
-        <v>0.0232766338406446</v>
+        <v>0.02327663384</v>
       </c>
       <c r="G268">
         <v>4283</v>
@@ -16641,7 +16641,7 @@
         <v>61</v>
       </c>
       <c r="F269">
-        <v>0.0231059764496778</v>
+        <v>0.02310597645</v>
       </c>
       <c r="G269">
         <v>4318</v>
@@ -16697,7 +16697,7 @@
         <v>61</v>
       </c>
       <c r="F270">
-        <v>0.0231059764496778</v>
+        <v>0.02310597645</v>
       </c>
       <c r="G270">
         <v>4318</v>
@@ -16753,7 +16753,7 @@
         <v>75</v>
       </c>
       <c r="F271">
-        <v>0.0227666955767563</v>
+        <v>0.02276669558</v>
       </c>
       <c r="G271">
         <v>4414</v>
@@ -16809,7 +16809,7 @@
         <v>75</v>
       </c>
       <c r="F272">
-        <v>0.0227666955767563</v>
+        <v>0.02276669558</v>
       </c>
       <c r="G272">
         <v>4414</v>
@@ -16865,7 +16865,7 @@
         <v>54</v>
       </c>
       <c r="F273">
-        <v>0.023155161220515</v>
+        <v>0.02315516122</v>
       </c>
       <c r="G273">
         <v>4442</v>
@@ -16921,7 +16921,7 @@
         <v>55</v>
       </c>
       <c r="F274">
-        <v>0.0231501514495889</v>
+        <v>0.02315015145</v>
       </c>
       <c r="G274">
         <v>4444</v>
@@ -16977,7 +16977,7 @@
         <v>68</v>
       </c>
       <c r="F275">
-        <v>0.0227659574468085</v>
+        <v>0.02276595745</v>
       </c>
       <c r="G275">
         <v>4507</v>
@@ -17033,7 +17033,7 @@
         <v>72</v>
       </c>
       <c r="F276">
-        <v>0.0225453013063633</v>
+        <v>0.02254530131</v>
       </c>
       <c r="G276">
         <v>4549</v>
@@ -17089,7 +17089,7 @@
         <v>74</v>
       </c>
       <c r="F277">
-        <v>0.0227604927959908</v>
+        <v>0.0227604928</v>
       </c>
       <c r="G277">
         <v>4588</v>
@@ -17145,7 +17145,7 @@
         <v>65</v>
       </c>
       <c r="F278">
-        <v>0.0226517040731505</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G278">
         <v>4620</v>
@@ -17201,7 +17201,7 @@
         <v>65</v>
       </c>
       <c r="F279">
-        <v>0.0226517040731505</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G279">
         <v>4620</v>
@@ -17257,7 +17257,7 @@
         <v>65</v>
       </c>
       <c r="F280">
-        <v>0.0226517040731505</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G280">
         <v>4620</v>
@@ -17313,7 +17313,7 @@
         <v>65</v>
       </c>
       <c r="F281">
-        <v>0.0226517040731505</v>
+        <v>0.02265170407</v>
       </c>
       <c r="G281">
         <v>4620</v>
@@ -17369,7 +17369,7 @@
         <v>55</v>
       </c>
       <c r="F282">
-        <v>0.022844206626878</v>
+        <v>0.02284420663</v>
       </c>
       <c r="G282">
         <v>4675</v>
@@ -17425,7 +17425,7 @@
         <v>73</v>
       </c>
       <c r="F283">
-        <v>0.0225380710659898</v>
+        <v>0.02253807107</v>
       </c>
       <c r="G283">
         <v>4723</v>
@@ -17481,7 +17481,7 @@
         <v>74</v>
       </c>
       <c r="F284">
-        <v>0.0226190476190476</v>
+        <v>0.02261904762</v>
       </c>
       <c r="G284">
         <v>4833</v>
@@ -17537,7 +17537,7 @@
         <v>109</v>
       </c>
       <c r="F285">
-        <v>0.0226341463414634</v>
+        <v>0.02263414634</v>
       </c>
       <c r="G285">
         <v>4882</v>
@@ -17593,7 +17593,7 @@
         <v>161</v>
       </c>
       <c r="F286">
-        <v>0.0230326295585413</v>
+        <v>0.02303262956</v>
       </c>
       <c r="G286">
         <v>4911</v>
@@ -17649,7 +17649,7 @@
         <v>133</v>
       </c>
       <c r="F287">
-        <v>0.0228484386900228</v>
+        <v>0.02284843869</v>
       </c>
       <c r="G287">
         <v>4981</v>
@@ -17705,7 +17705,7 @@
         <v>108</v>
       </c>
       <c r="F288">
-        <v>0.0227920227920228</v>
+        <v>0.02279202279</v>
       </c>
       <c r="G288">
         <v>5019</v>
@@ -17761,7 +17761,7 @@
         <v>119</v>
       </c>
       <c r="F289">
-        <v>0.0225733634311512</v>
+        <v>0.02257336343</v>
       </c>
       <c r="G289">
         <v>5059</v>
@@ -17817,7 +17817,7 @@
         <v>154</v>
       </c>
       <c r="F290">
-        <v>0.0223648029330889</v>
+        <v>0.02236480293</v>
       </c>
       <c r="G290">
         <v>5161</v>
@@ -17873,7 +17873,7 @@
         <v>135</v>
       </c>
       <c r="F291">
-        <v>0.0222906850308083</v>
+        <v>0.02229068503</v>
       </c>
       <c r="G291">
         <v>5242</v>
@@ -17929,7 +17929,7 @@
         <v>143</v>
       </c>
       <c r="F292">
-        <v>0.0223141983084398</v>
+        <v>0.02231419831</v>
       </c>
       <c r="G292">
         <v>5272</v>
@@ -17985,7 +17985,7 @@
         <v>175</v>
       </c>
       <c r="F293">
-        <v>0.0220405261286882</v>
+        <v>0.02204052613</v>
       </c>
       <c r="G293">
         <v>5309</v>
@@ -18041,7 +18041,7 @@
         <v>83</v>
       </c>
       <c r="F294">
-        <v>0.0218425224590453</v>
+        <v>0.02184252246</v>
       </c>
       <c r="G294">
         <v>5452</v>
@@ -18097,7 +18097,7 @@
         <v>74</v>
       </c>
       <c r="F295">
-        <v>0.0218646143082036</v>
+        <v>0.02186461431</v>
       </c>
       <c r="G295">
         <v>5500</v>
@@ -18153,7 +18153,7 @@
         <v>109</v>
       </c>
       <c r="F296">
-        <v>0.0214151105019702</v>
+        <v>0.0214151105</v>
       </c>
       <c r="G296">
         <v>5584</v>
@@ -18209,7 +18209,7 @@
         <v>125</v>
       </c>
       <c r="F297">
-        <v>0.0212335692618807</v>
+        <v>0.02123356926</v>
       </c>
       <c r="G297">
         <v>5664</v>
@@ -18265,7 +18265,7 @@
         <v>130</v>
       </c>
       <c r="F298">
-        <v>0.0208471211118465</v>
+        <v>0.02084712111</v>
       </c>
       <c r="G298">
         <v>5769</v>
@@ -18321,7 +18321,7 @@
         <v>117</v>
       </c>
       <c r="F299">
-        <v>0.0206998521439133</v>
+        <v>0.02069985214</v>
       </c>
       <c r="G299">
         <v>5825</v>
@@ -18377,7 +18377,7 @@
         <v>134</v>
       </c>
       <c r="F300">
-        <v>0.0204744881377966</v>
+        <v>0.02047448814</v>
       </c>
       <c r="G300">
         <v>5875</v>
@@ -18433,7 +18433,7 @@
         <v>128</v>
       </c>
       <c r="F301">
-        <v>0.0203127518942447</v>
+        <v>0.02031275189</v>
       </c>
       <c r="G301">
         <v>5927</v>
@@ -18489,7 +18489,7 @@
         <v>118</v>
       </c>
       <c r="F302">
-        <v>0.0207729468599034</v>
+        <v>0.02077294686</v>
       </c>
       <c r="G302">
         <v>5944</v>
@@ -18545,7 +18545,7 @@
         <v>118</v>
       </c>
       <c r="F303">
-        <v>0.0206874602164227</v>
+        <v>0.02068746022</v>
       </c>
       <c r="G303">
         <v>6017</v>
@@ -18601,7 +18601,7 @@
         <v>131</v>
       </c>
       <c r="F304">
-        <v>0.0202871410736579</v>
+        <v>0.02028714107</v>
       </c>
       <c r="G304">
         <v>6128</v>
@@ -18657,7 +18657,7 @@
         <v>177</v>
       </c>
       <c r="F305">
-        <v>0.020273383504838</v>
+        <v>0.0202733835</v>
       </c>
       <c r="G305">
         <v>6183</v>
@@ -18713,7 +18713,7 @@
         <v>194</v>
       </c>
       <c r="F306">
-        <v>0.0200729927007299</v>
+        <v>0.0200729927</v>
       </c>
       <c r="G306">
         <v>6231</v>
@@ -18769,7 +18769,7 @@
         <v>133</v>
       </c>
       <c r="F307">
-        <v>0.0202733143114582</v>
+        <v>0.02027331431</v>
       </c>
       <c r="G307">
         <v>6372</v>
@@ -18825,7 +18825,7 @@
         <v>153</v>
       </c>
       <c r="F308">
-        <v>0.0201005025125628</v>
+        <v>0.02010050251</v>
       </c>
       <c r="G308">
         <v>6458</v>
@@ -18881,7 +18881,7 @@
         <v>117</v>
       </c>
       <c r="F309">
-        <v>0.0202792064658339</v>
+        <v>0.02027920647</v>
       </c>
       <c r="G309">
         <v>6531</v>
@@ -18937,7 +18937,7 @@
         <v>140</v>
       </c>
       <c r="F310">
-        <v>0.0199855177407676</v>
+        <v>0.01998551774</v>
       </c>
       <c r="G310">
         <v>6608</v>
@@ -18993,7 +18993,7 @@
         <v>142</v>
       </c>
       <c r="F311">
-        <v>0.0198486362987291</v>
+        <v>0.0198486363</v>
       </c>
       <c r="G311">
         <v>6703</v>
@@ -19049,7 +19049,7 @@
         <v>140</v>
       </c>
       <c r="F312">
-        <v>0.0198835392699901</v>
+        <v>0.01988353927</v>
       </c>
       <c r="G312">
         <v>6742</v>
@@ -19105,7 +19105,7 @@
         <v>153</v>
       </c>
       <c r="F313">
-        <v>0.019971870604782</v>
+        <v>0.0199718706</v>
       </c>
       <c r="G313">
         <v>6796</v>
@@ -19161,7 +19161,7 @@
         <v>177</v>
       </c>
       <c r="F314">
-        <v>0.0196594212930915</v>
+        <v>0.01965942129</v>
       </c>
       <c r="G314">
         <v>6884</v>
@@ -19217,7 +19217,7 @@
         <v>168</v>
       </c>
       <c r="F315">
-        <v>0.0195323246217332</v>
+        <v>0.01953232462</v>
       </c>
       <c r="G315">
         <v>6940</v>
@@ -19273,7 +19273,7 @@
         <v>132</v>
       </c>
       <c r="F316">
-        <v>0.0194947830862164</v>
+        <v>0.01949478309</v>
       </c>
       <c r="G316">
         <v>6990</v>
@@ -19329,7 +19329,7 @@
         <v>143</v>
       </c>
       <c r="F317">
-        <v>0.0199317406143345</v>
+        <v>0.01993174061</v>
       </c>
       <c r="G317">
         <v>7016</v>
@@ -19385,7 +19385,7 @@
         <v>172</v>
       </c>
       <c r="F318">
-        <v>0.0198127289998643</v>
+        <v>0.019812729</v>
       </c>
       <c r="G318">
         <v>7030</v>
@@ -19441,7 +19441,7 @@
         <v>117</v>
       </c>
       <c r="F319">
-        <v>0.019943403853928</v>
+        <v>0.01994340385</v>
       </c>
       <c r="G319">
         <v>7135</v>
@@ -19497,7 +19497,7 @@
         <v>109</v>
       </c>
       <c r="F320">
-        <v>0.0199946323134729</v>
+        <v>0.01999463231</v>
       </c>
       <c r="G320">
         <v>7173</v>
@@ -19553,7 +19553,7 @@
         <v>86</v>
       </c>
       <c r="F321">
-        <v>0.020061113325362</v>
+        <v>0.02006111333</v>
       </c>
       <c r="G321">
         <v>7269</v>
@@ -19609,7 +19609,7 @@
         <v>118</v>
       </c>
       <c r="F322">
-        <v>0.0201236354070762</v>
+        <v>0.02012363541</v>
       </c>
       <c r="G322">
         <v>7311</v>
@@ -19665,7 +19665,7 @@
         <v>87</v>
       </c>
       <c r="F323">
-        <v>0.0202524986849027</v>
+        <v>0.02025249868</v>
       </c>
       <c r="G323">
         <v>7342</v>
@@ -19721,7 +19721,7 @@
         <v>98</v>
       </c>
       <c r="F324">
-        <v>0.0202455590386625</v>
+        <v>0.02024555904</v>
       </c>
       <c r="G324">
         <v>7382</v>
@@ -19777,7 +19777,7 @@
         <v>173</v>
       </c>
       <c r="F325">
-        <v>0.0207792207792208</v>
+        <v>0.02077922078</v>
       </c>
       <c r="G325">
         <v>7345</v>
@@ -19833,7 +19833,7 @@
         <v>114</v>
       </c>
       <c r="F326">
-        <v>0.0207585853408508</v>
+        <v>0.02075858534</v>
       </c>
       <c r="G326">
         <v>7506</v>
@@ -19889,7 +19889,7 @@
         <v>178</v>
       </c>
       <c r="F327">
-        <v>0.020638136237022</v>
+        <v>0.02063813624</v>
       </c>
       <c r="G327">
         <v>7535</v>
@@ -19945,7 +19945,7 @@
         <v>157</v>
       </c>
       <c r="F328">
-        <v>0.0206783507754381</v>
+        <v>0.02067835078</v>
       </c>
       <c r="G328">
         <v>7588</v>
@@ -20001,7 +20001,7 @@
         <v>158</v>
       </c>
       <c r="F329">
-        <v>0.0208621339700892</v>
+        <v>0.02086213397</v>
       </c>
       <c r="G329">
         <v>7611</v>
@@ -20057,7 +20057,7 @@
         <v>139</v>
       </c>
       <c r="F330">
-        <v>0.0209719954790908</v>
+        <v>0.02097199548</v>
       </c>
       <c r="G330">
         <v>7635</v>
@@ -20113,7 +20113,7 @@
         <v>163</v>
       </c>
       <c r="F331">
-        <v>0.0210644397357597</v>
+        <v>0.02106443974</v>
       </c>
       <c r="G331">
         <v>7669</v>
@@ -20169,7 +20169,7 @@
         <v>335</v>
       </c>
       <c r="F332">
-        <v>0.0208384710234279</v>
+        <v>0.02083847102</v>
       </c>
       <c r="G332">
         <v>7775</v>
@@ -20225,7 +20225,7 @@
         <v>135</v>
       </c>
       <c r="F333">
-        <v>0.0209194843103868</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G333">
         <v>7892</v>
@@ -20281,7 +20281,7 @@
         <v>135</v>
       </c>
       <c r="F334">
-        <v>0.0209194843103868</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G334">
         <v>7892</v>
@@ -20337,7 +20337,7 @@
         <v>135</v>
       </c>
       <c r="F335">
-        <v>0.0209194843103868</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G335">
         <v>7892</v>
@@ -20393,7 +20393,7 @@
         <v>135</v>
       </c>
       <c r="F336">
-        <v>0.0209194843103868</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G336">
         <v>7892</v>
@@ -20449,7 +20449,7 @@
         <v>135</v>
       </c>
       <c r="F337">
-        <v>0.0209194843103868</v>
+        <v>0.02091948431</v>
       </c>
       <c r="G337">
         <v>7892</v>
@@ -20505,7 +20505,7 @@
         <v>83</v>
       </c>
       <c r="F338">
-        <v>0.0209541849177223</v>
+        <v>0.02095418492</v>
       </c>
       <c r="G338">
         <v>8163</v>
@@ -20561,7 +20561,7 @@
         <v>97</v>
       </c>
       <c r="F339">
-        <v>0.0210538696777229</v>
+        <v>0.02105386968</v>
       </c>
       <c r="G339">
         <v>8202</v>
@@ -20617,7 +20617,7 @@
         <v>110</v>
       </c>
       <c r="F340">
-        <v>0.0207970256767747</v>
+        <v>0.02079702568</v>
       </c>
       <c r="G340">
         <v>8294</v>
@@ -20673,7 +20673,7 @@
         <v>102</v>
       </c>
       <c r="F341">
-        <v>0.0206982827248948</v>
+        <v>0.02069828272</v>
       </c>
       <c r="G341">
         <v>8485</v>
@@ -20729,7 +20729,7 @@
         <v>122</v>
       </c>
       <c r="F342">
-        <v>0.0205064993276558</v>
+        <v>0.02050649933</v>
       </c>
       <c r="G342">
         <v>8595</v>
@@ -20785,7 +20785,7 @@
         <v>129</v>
       </c>
       <c r="F343">
-        <v>0.0204512615316216</v>
+        <v>0.02045126153</v>
       </c>
       <c r="G343">
         <v>8660</v>
@@ -20841,7 +20841,7 @@
         <v>104</v>
       </c>
       <c r="F344">
-        <v>0.0206071349434966</v>
+        <v>0.02060713494</v>
       </c>
       <c r="G344">
         <v>8711</v>
@@ -20897,7 +20897,7 @@
         <v>112</v>
       </c>
       <c r="F345">
-        <v>0.0206457280913683</v>
+        <v>0.02064572809</v>
       </c>
       <c r="G345">
         <v>8780</v>
@@ -20953,7 +20953,7 @@
         <v>122</v>
       </c>
       <c r="F346">
-        <v>0.0204966923327188</v>
+        <v>0.02049669233</v>
       </c>
       <c r="G346">
         <v>8884</v>
@@ -21009,7 +21009,7 @@
         <v>160</v>
       </c>
       <c r="F347">
-        <v>0.0203143376456752</v>
+        <v>0.02031433765</v>
       </c>
       <c r="G347">
         <v>8977</v>
@@ -21065,7 +21065,7 @@
         <v>214</v>
       </c>
       <c r="F348">
-        <v>0.0203067160232681</v>
+        <v>0.02030671602</v>
       </c>
       <c r="G348">
         <v>9023</v>
@@ -21121,7 +21121,7 @@
         <v>207</v>
       </c>
       <c r="F349">
-        <v>0.0209226906580186</v>
+        <v>0.02092269066</v>
       </c>
       <c r="G349">
         <v>9126</v>
@@ -21177,7 +21177,7 @@
         <v>208</v>
       </c>
       <c r="F350">
-        <v>0.0209244222361024</v>
+        <v>0.02092442224</v>
       </c>
       <c r="G350">
         <v>9171</v>
@@ -21233,7 +21233,7 @@
         <v>236</v>
       </c>
       <c r="F351">
-        <v>0.0213319458896982</v>
+        <v>0.02133194589</v>
       </c>
       <c r="G351">
         <v>9143</v>
@@ -21289,7 +21289,7 @@
         <v>157</v>
       </c>
       <c r="F352">
-        <v>0.021333608162424</v>
+        <v>0.02133360816</v>
       </c>
       <c r="G352">
         <v>9313</v>
@@ -21345,7 +21345,7 @@
         <v>138</v>
       </c>
       <c r="F353">
-        <v>0.0214380962149964</v>
+        <v>0.02143809621</v>
       </c>
       <c r="G353">
         <v>9376</v>
@@ -21401,7 +21401,7 @@
         <v>117</v>
       </c>
       <c r="F354">
-        <v>0.0218345066829915</v>
+        <v>0.02183450668</v>
       </c>
       <c r="G354">
         <v>9444</v>
@@ -21457,7 +21457,7 @@
         <v>134</v>
       </c>
       <c r="F355">
-        <v>0.0217435275080906</v>
+        <v>0.02174352751</v>
       </c>
       <c r="G355">
         <v>9513</v>
@@ -21513,7 +21513,7 @@
         <v>146</v>
       </c>
       <c r="F356">
-        <v>0.0216715160028093</v>
+        <v>0.021671516</v>
       </c>
       <c r="G356">
         <v>9579</v>
@@ -21569,7 +21569,7 @@
         <v>142</v>
       </c>
       <c r="F357">
-        <v>0.0215160872596872</v>
+        <v>0.02151608726</v>
       </c>
       <c r="G357">
         <v>9655</v>
@@ -21625,7 +21625,7 @@
         <v>145</v>
       </c>
       <c r="F358">
-        <v>0.0219966159052453</v>
+        <v>0.02199661591</v>
       </c>
       <c r="G358">
         <v>9663</v>
@@ -21681,7 +21681,7 @@
         <v>118</v>
       </c>
       <c r="F359">
-        <v>0.0222288085358625</v>
+        <v>0.02222880854</v>
       </c>
       <c r="G359">
         <v>9753</v>
@@ -21737,7 +21737,7 @@
         <v>140</v>
       </c>
       <c r="F360">
-        <v>0.0224995087443506</v>
+        <v>0.02249950874</v>
       </c>
       <c r="G360">
         <v>9782</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="F361">
-        <v>0.022517713287392</v>
+        <v>0.02251771329</v>
       </c>
       <c r="G361">
         <v>9877</v>
@@ -21849,7 +21849,7 @@
         <v>164</v>
       </c>
       <c r="F362">
-        <v>0.0230931391337677</v>
+        <v>0.02309313913</v>
       </c>
       <c r="G362">
         <v>10003</v>
@@ -21905,7 +21905,7 @@
         <v>155</v>
       </c>
       <c r="F363">
-        <v>0.0232093598401979</v>
+        <v>0.02320935984</v>
       </c>
       <c r="G363">
         <v>10086</v>
@@ -21961,7 +21961,7 @@
         <v>139</v>
       </c>
       <c r="F364">
-        <v>0.0234737340274491</v>
+        <v>0.02347373403</v>
       </c>
       <c r="G364">
         <v>10150</v>
@@ -22017,7 +22017,7 @@
         <v>144</v>
       </c>
       <c r="F365">
-        <v>0.0236406619385343</v>
+        <v>0.02364066194</v>
       </c>
       <c r="G365">
         <v>10159</v>
@@ -22073,7 +22073,7 @@
         <v>131</v>
       </c>
       <c r="F366">
-        <v>0.0237603305785124</v>
+        <v>0.02376033058</v>
       </c>
       <c r="G366">
         <v>10236</v>
@@ -22129,7 +22129,7 @@
         <v>167</v>
       </c>
       <c r="F367">
-        <v>0.0242922545080818</v>
+        <v>0.02429225451</v>
       </c>
       <c r="G367">
         <v>10303</v>
@@ -22185,7 +22185,7 @@
         <v>141</v>
       </c>
       <c r="F368">
-        <v>0.0241487786824574</v>
+        <v>0.02414877868</v>
       </c>
       <c r="G368">
         <v>10378</v>
@@ -22241,7 +22241,7 @@
         <v>167</v>
       </c>
       <c r="F369">
-        <v>0.0244352236053481</v>
+        <v>0.02443522361</v>
       </c>
       <c r="G369">
         <v>10383</v>
@@ -22297,7 +22297,7 @@
         <v>168</v>
       </c>
       <c r="F370">
-        <v>0.0246482111652718</v>
+        <v>0.02464821117</v>
       </c>
       <c r="G370">
         <v>10407</v>
@@ -22353,7 +22353,7 @@
         <v>113</v>
       </c>
       <c r="F371">
-        <v>0.0246179189164455</v>
+        <v>0.02461791892</v>
       </c>
       <c r="G371">
         <v>10514</v>
@@ -22409,7 +22409,7 @@
         <v>113</v>
       </c>
       <c r="F372">
-        <v>0.0246179189164455</v>
+        <v>0.02461791892</v>
       </c>
       <c r="G372">
         <v>10514</v>
@@ -22465,7 +22465,7 @@
         <v>87</v>
       </c>
       <c r="F373">
-        <v>0.0251847796331782</v>
+        <v>0.02518477963</v>
       </c>
       <c r="G373">
         <v>10565</v>
@@ -22521,7 +22521,7 @@
         <v>98</v>
       </c>
       <c r="F374">
-        <v>0.025169760072431</v>
+        <v>0.02516976007</v>
       </c>
       <c r="G374">
         <v>10638</v>
@@ -22577,7 +22577,7 @@
         <v>112</v>
       </c>
       <c r="F375">
-        <v>0.0250758522220239</v>
+        <v>0.02507585222</v>
       </c>
       <c r="G375">
         <v>10782</v>
@@ -22633,7 +22633,7 @@
         <v>116</v>
       </c>
       <c r="F376">
-        <v>0.0254154447702835</v>
+        <v>0.02541544477</v>
       </c>
       <c r="G376">
         <v>10820</v>
@@ -22689,7 +22689,7 @@
         <v>142</v>
       </c>
       <c r="F377">
-        <v>0.0256387665198238</v>
+        <v>0.02563876652</v>
       </c>
       <c r="G377">
         <v>10886</v>
@@ -22745,7 +22745,7 @@
         <v>130</v>
       </c>
       <c r="F378">
-        <v>0.0255893436158093</v>
+        <v>0.02558934362</v>
       </c>
       <c r="G378">
         <v>10958</v>
@@ -22801,7 +22801,7 @@
         <v>121</v>
       </c>
       <c r="F379">
-        <v>0.0258318739054291</v>
+        <v>0.02583187391</v>
       </c>
       <c r="G379">
         <v>10973</v>
@@ -22857,7 +22857,7 @@
         <v>112</v>
       </c>
       <c r="F380">
-        <v>0.0259139691126429</v>
+        <v>0.02591396911</v>
       </c>
       <c r="G380">
         <v>11020</v>
@@ -22913,7 +22913,7 @@
         <v>115</v>
       </c>
       <c r="F381">
-        <v>0.0259053890140357</v>
+        <v>0.02590538901</v>
       </c>
       <c r="G381">
         <v>11096</v>
@@ -22969,7 +22969,7 @@
         <v>157</v>
       </c>
       <c r="F382">
-        <v>0.0260757314974182</v>
+        <v>0.0260757315</v>
       </c>
       <c r="G382">
         <v>11127</v>
@@ -23025,7 +23025,7 @@
         <v>147</v>
       </c>
       <c r="F383">
-        <v>0.0262072521051727</v>
+        <v>0.02620725211</v>
       </c>
       <c r="G383">
         <v>11153</v>
@@ -23081,7 +23081,7 @@
         <v>148</v>
       </c>
       <c r="F384">
-        <v>0.026131511528608</v>
+        <v>0.02613151153</v>
       </c>
       <c r="G384">
         <v>11221</v>
@@ -23137,7 +23137,7 @@
         <v>144</v>
       </c>
       <c r="F385">
-        <v>0.0263068278562915</v>
+        <v>0.02630682786</v>
       </c>
       <c r="G385">
         <v>11258</v>
@@ -23193,7 +23193,7 @@
         <v>145</v>
       </c>
       <c r="F386">
-        <v>0.0263829787234043</v>
+        <v>0.02638297872</v>
       </c>
       <c r="G386">
         <v>11260</v>
@@ -23249,7 +23249,7 @@
         <v>156</v>
       </c>
       <c r="F387">
-        <v>0.026491747778248</v>
+        <v>0.02649174778</v>
       </c>
       <c r="G387">
         <v>11311</v>
@@ -23305,7 +23305,7 @@
         <v>155</v>
       </c>
       <c r="F388">
-        <v>0.0263246425567704</v>
+        <v>0.02632464256</v>
       </c>
       <c r="G388">
         <v>11387</v>
@@ -23361,7 +23361,7 @@
         <v>149</v>
       </c>
       <c r="F389">
-        <v>0.0263555480946785</v>
+        <v>0.02635554809</v>
       </c>
       <c r="G389">
         <v>11416</v>
@@ -23417,7 +23417,7 @@
         <v>174</v>
       </c>
       <c r="F390">
-        <v>0.0263444007694238</v>
+        <v>0.02634440077</v>
       </c>
       <c r="G390">
         <v>11431</v>
@@ -23473,7 +23473,7 @@
         <v>160</v>
       </c>
       <c r="F391">
-        <v>0.0262063227953411</v>
+        <v>0.0262063228</v>
       </c>
       <c r="G391">
         <v>11508</v>
@@ -23529,7 +23529,7 @@
         <v>126</v>
       </c>
       <c r="F392">
-        <v>0.0264840182648402</v>
+        <v>0.02648401826</v>
       </c>
       <c r="G392">
         <v>11563</v>
@@ -23585,7 +23585,7 @@
         <v>125</v>
       </c>
       <c r="F393">
-        <v>0.0266434262948207</v>
+        <v>0.02664342629</v>
       </c>
       <c r="G393">
         <v>11565</v>
@@ -23641,7 +23641,7 @@
         <v>141</v>
       </c>
       <c r="F394">
-        <v>0.0267106347897774</v>
+        <v>0.02671063479</v>
       </c>
       <c r="G394">
         <v>11628</v>
@@ -23697,7 +23697,7 @@
         <v>183</v>
       </c>
       <c r="F395">
-        <v>0.0265052356020942</v>
+        <v>0.0265052356</v>
       </c>
       <c r="G395">
         <v>11680</v>
@@ -23753,7 +23753,7 @@
         <v>189</v>
       </c>
       <c r="F396">
-        <v>0.0266178266178266</v>
+        <v>0.02661782662</v>
       </c>
       <c r="G396">
         <v>11732</v>
@@ -23809,7 +23809,7 @@
         <v>170</v>
       </c>
       <c r="F397">
-        <v>0.0266428397368207</v>
+        <v>0.02664283974</v>
       </c>
       <c r="G397">
         <v>11775</v>
@@ -23865,7 +23865,7 @@
         <v>156</v>
       </c>
       <c r="F398">
-        <v>0.0267639902676399</v>
+        <v>0.02676399027</v>
       </c>
       <c r="G398">
         <v>11806</v>
@@ -23921,7 +23921,7 @@
         <v>156</v>
       </c>
       <c r="F399">
-        <v>0.0267639902676399</v>
+        <v>0.02676399027</v>
       </c>
       <c r="G399">
         <v>11806</v>
@@ -23977,7 +23977,7 @@
         <v>156</v>
       </c>
       <c r="F400">
-        <v>0.0267639902676399</v>
+        <v>0.02676399027</v>
       </c>
       <c r="G400">
         <v>11806</v>
@@ -24033,7 +24033,7 @@
         <v>96</v>
       </c>
       <c r="F401">
-        <v>0.027838472121065</v>
+        <v>0.02783847212</v>
       </c>
       <c r="G401">
         <v>11878</v>
@@ -24089,7 +24089,7 @@
         <v>122</v>
       </c>
       <c r="F402">
-        <v>0.0277465015280682</v>
+        <v>0.02774650153</v>
       </c>
       <c r="G402">
         <v>11928</v>
@@ -24145,7 +24145,7 @@
         <v>135</v>
       </c>
       <c r="F403">
-        <v>0.0280403781445281</v>
+        <v>0.02804037814</v>
       </c>
       <c r="G403">
         <v>11958</v>
@@ -24201,7 +24201,7 @@
         <v>143</v>
       </c>
       <c r="F404">
-        <v>0.0282106609126508</v>
+        <v>0.02821066091</v>
       </c>
       <c r="G404">
         <v>11978</v>
@@ -24257,7 +24257,7 @@
         <v>136</v>
       </c>
       <c r="F405">
-        <v>0.028188026044148</v>
+        <v>0.02818802604</v>
       </c>
       <c r="G405">
         <v>12064</v>
@@ -24313,7 +24313,7 @@
         <v>137</v>
       </c>
       <c r="F406">
-        <v>0.0281032298923369</v>
+        <v>0.02810322989</v>
       </c>
       <c r="G406">
         <v>12101</v>
@@ -24369,7 +24369,7 @@
         <v>149</v>
       </c>
       <c r="F407">
-        <v>0.028065459720136</v>
+        <v>0.02806545972</v>
       </c>
       <c r="G407">
         <v>12102</v>
@@ -24425,7 +24425,7 @@
         <v>133</v>
       </c>
       <c r="F408">
-        <v>0.0279896218256152</v>
+        <v>0.02798962183</v>
       </c>
       <c r="G408">
         <v>12191</v>
@@ -24481,7 +24481,7 @@
         <v>130</v>
       </c>
       <c r="F409">
-        <v>0.0283499099381314</v>
+        <v>0.02834990994</v>
       </c>
       <c r="G409">
         <v>12237</v>
@@ -24537,7 +24537,7 @@
         <v>140</v>
       </c>
       <c r="F410">
-        <v>0.0282569666692686</v>
+        <v>0.02825696667</v>
       </c>
       <c r="G410">
         <v>12238</v>
@@ -24593,7 +24593,7 @@
         <v>190</v>
       </c>
       <c r="F411">
-        <v>0.0279731087242099</v>
+        <v>0.02797310872</v>
       </c>
       <c r="G411">
         <v>12349</v>
@@ -24649,7 +24649,7 @@
         <v>236</v>
       </c>
       <c r="F412">
-        <v>0.0280223566342546</v>
+        <v>0.02802235663</v>
       </c>
       <c r="G412">
         <v>12419</v>
@@ -24705,7 +24705,7 @@
         <v>219</v>
       </c>
       <c r="F413">
-        <v>0.0281453154875717</v>
+        <v>0.02814531549</v>
       </c>
       <c r="G413">
         <v>12447</v>
@@ -24761,7 +24761,7 @@
         <v>223</v>
       </c>
       <c r="F414">
-        <v>0.0281259553653317</v>
+        <v>0.02812595537</v>
       </c>
       <c r="G414">
         <v>12452</v>
@@ -24817,7 +24817,7 @@
         <v>244</v>
       </c>
       <c r="F415">
-        <v>0.0279460769463799</v>
+        <v>0.02794607695</v>
       </c>
       <c r="G415">
         <v>12550</v>
@@ -24873,7 +24873,7 @@
         <v>240</v>
       </c>
       <c r="F416">
-        <v>0.0279894379479442</v>
+        <v>0.02798943795</v>
       </c>
       <c r="G416">
         <v>12602</v>
@@ -24929,7 +24929,7 @@
         <v>279</v>
       </c>
       <c r="F417">
-        <v>0.0278047686673144</v>
+        <v>0.02780476867</v>
       </c>
       <c r="G417">
         <v>12686</v>
@@ -24985,7 +24985,7 @@
         <v>333</v>
       </c>
       <c r="F418">
-        <v>0.027613703484938</v>
+        <v>0.02761370348</v>
       </c>
       <c r="G418">
         <v>12794</v>
@@ -25041,7 +25041,7 @@
         <v>342</v>
       </c>
       <c r="F419">
-        <v>0.0275095112671934</v>
+        <v>0.02750951127</v>
       </c>
       <c r="G419">
         <v>12906</v>
@@ -25097,7 +25097,7 @@
         <v>331</v>
       </c>
       <c r="F420">
-        <v>0.0274849123827529</v>
+        <v>0.02748491238</v>
       </c>
       <c r="G420">
         <v>12998</v>
@@ -25153,7 +25153,7 @@
         <v>332</v>
       </c>
       <c r="F421">
-        <v>0.0276929786306149</v>
+        <v>0.02769297863</v>
       </c>
       <c r="G421">
         <v>12998</v>
@@ -25209,7 +25209,7 @@
         <v>241</v>
       </c>
       <c r="F422">
-        <v>0.0277858176555716</v>
+        <v>0.02778581766</v>
       </c>
       <c r="G422">
         <v>13148</v>
@@ -25265,7 +25265,7 @@
         <v>237</v>
       </c>
       <c r="F423">
-        <v>0.0276759399036733</v>
+        <v>0.0276759399</v>
       </c>
       <c r="G423">
         <v>13242</v>
@@ -25321,7 +25321,7 @@
         <v>213</v>
       </c>
       <c r="F424">
-        <v>0.0277936962750716</v>
+        <v>0.02779369628</v>
       </c>
       <c r="G424">
         <v>13312</v>
@@ -25377,7 +25377,7 @@
         <v>220</v>
       </c>
       <c r="F425">
-        <v>0.0277461582242459</v>
+        <v>0.02774615822</v>
       </c>
       <c r="G425">
         <v>13399</v>
@@ -25407,7 +25407,7 @@
         <v>54</v>
       </c>
       <c r="P425">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q425">
         <v>2</v>
@@ -25433,7 +25433,7 @@
         <v>198</v>
       </c>
       <c r="F426">
-        <v>0.0280803508275569</v>
+        <v>0.02808035083</v>
       </c>
       <c r="G426">
         <v>13496</v>
@@ -25489,7 +25489,7 @@
         <v>210</v>
       </c>
       <c r="F427">
-        <v>0.028247393632009</v>
+        <v>0.02824739363</v>
       </c>
       <c r="G427">
         <v>13538</v>
@@ -25545,7 +25545,7 @@
         <v>208</v>
       </c>
       <c r="F428">
-        <v>0.0284527079371787</v>
+        <v>0.02845270794</v>
       </c>
       <c r="G428">
         <v>13540</v>
@@ -25601,7 +25601,7 @@
         <v>158</v>
       </c>
       <c r="F429">
-        <v>0.0286075771420538</v>
+        <v>0.02860757714</v>
       </c>
       <c r="G429">
         <v>13615</v>
@@ -25657,7 +25657,7 @@
         <v>180</v>
       </c>
       <c r="F430">
-        <v>0.0285157880094589</v>
+        <v>0.02851578801</v>
       </c>
       <c r="G430">
         <v>13740</v>
@@ -25713,7 +25713,7 @@
         <v>185</v>
       </c>
       <c r="F431">
-        <v>0.0285223367697594</v>
+        <v>0.02852233677</v>
       </c>
       <c r="G431">
         <v>13902</v>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
   <si>
     <t>Data</t>
   </si>
@@ -1358,6 +1358,9 @@
   </si>
   <si>
     <t>2021/06/02</t>
+  </si>
+  <si>
+    <t>2021/06/03</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R431"/>
+  <dimension ref="A1:R432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25752,6 +25755,62 @@
         <v>62</v>
       </c>
     </row>
+    <row r="432" spans="1:18">
+      <c r="A432" t="s">
+        <v>448</v>
+      </c>
+      <c r="B432">
+        <v>431</v>
+      </c>
+      <c r="C432">
+        <v>14634</v>
+      </c>
+      <c r="D432">
+        <v>416</v>
+      </c>
+      <c r="E432">
+        <v>197</v>
+      </c>
+      <c r="F432">
+        <v>0.02842695094</v>
+      </c>
+      <c r="G432">
+        <v>13971</v>
+      </c>
+      <c r="H432">
+        <v>25700</v>
+      </c>
+      <c r="I432">
+        <v>40334</v>
+      </c>
+      <c r="J432">
+        <v>84</v>
+      </c>
+      <c r="K432">
+        <v>571</v>
+      </c>
+      <c r="L432">
+        <v>4</v>
+      </c>
+      <c r="M432">
+        <v>567</v>
+      </c>
+      <c r="N432">
+        <v>84</v>
+      </c>
+      <c r="O432">
+        <v>57</v>
+      </c>
+      <c r="P432">
+        <v>58</v>
+      </c>
+      <c r="Q432">
+        <v>1</v>
+      </c>
+      <c r="R432">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
   <si>
     <t>Data</t>
   </si>
@@ -1361,6 +1361,12 @@
   </si>
   <si>
     <t>2021/06/03</t>
+  </si>
+  <si>
+    <t>2021/06/04</t>
+  </si>
+  <si>
+    <t>2021/06/05</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R432"/>
+  <dimension ref="A1:R434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25811,6 +25817,118 @@
         <v>62</v>
       </c>
     </row>
+    <row r="433" spans="1:18">
+      <c r="A433" t="s">
+        <v>449</v>
+      </c>
+      <c r="B433">
+        <v>432</v>
+      </c>
+      <c r="C433">
+        <v>14714</v>
+      </c>
+      <c r="D433">
+        <v>419</v>
+      </c>
+      <c r="E433">
+        <v>188</v>
+      </c>
+      <c r="F433">
+        <v>0.02847628109</v>
+      </c>
+      <c r="G433">
+        <v>14057</v>
+      </c>
+      <c r="H433">
+        <v>25700</v>
+      </c>
+      <c r="I433">
+        <v>40414</v>
+      </c>
+      <c r="J433">
+        <v>80</v>
+      </c>
+      <c r="K433">
+        <v>660</v>
+      </c>
+      <c r="L433">
+        <v>4</v>
+      </c>
+      <c r="M433">
+        <v>656</v>
+      </c>
+      <c r="N433">
+        <v>80</v>
+      </c>
+      <c r="O433">
+        <v>65</v>
+      </c>
+      <c r="P433">
+        <v>58</v>
+      </c>
+      <c r="Q433">
+        <v>3</v>
+      </c>
+      <c r="R433">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="434" spans="1:18">
+      <c r="A434" t="s">
+        <v>450</v>
+      </c>
+      <c r="B434">
+        <v>433</v>
+      </c>
+      <c r="C434">
+        <v>14755</v>
+      </c>
+      <c r="D434">
+        <v>420</v>
+      </c>
+      <c r="E434">
+        <v>220</v>
+      </c>
+      <c r="F434">
+        <v>0.02846492714</v>
+      </c>
+      <c r="G434">
+        <v>14065</v>
+      </c>
+      <c r="H434">
+        <v>25700</v>
+      </c>
+      <c r="I434">
+        <v>40455</v>
+      </c>
+      <c r="J434">
+        <v>41</v>
+      </c>
+      <c r="K434">
+        <v>633</v>
+      </c>
+      <c r="L434">
+        <v>4</v>
+      </c>
+      <c r="M434">
+        <v>629</v>
+      </c>
+      <c r="N434">
+        <v>41</v>
+      </c>
+      <c r="O434">
+        <v>67</v>
+      </c>
+      <c r="P434">
+        <v>61</v>
+      </c>
+      <c r="Q434">
+        <v>1</v>
+      </c>
+      <c r="R434">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
   <si>
     <t>Data</t>
   </si>
@@ -1367,6 +1367,9 @@
   </si>
   <si>
     <t>2021/06/05</t>
+  </si>
+  <si>
+    <t>2021/06/06</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R434"/>
+  <dimension ref="A1:R435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25929,6 +25932,62 @@
         <v>62</v>
       </c>
     </row>
+    <row r="435" spans="1:18">
+      <c r="A435" t="s">
+        <v>451</v>
+      </c>
+      <c r="B435">
+        <v>434</v>
+      </c>
+      <c r="C435">
+        <v>14759</v>
+      </c>
+      <c r="D435">
+        <v>422</v>
+      </c>
+      <c r="E435">
+        <v>179</v>
+      </c>
+      <c r="F435">
+        <v>0.02859272308</v>
+      </c>
+      <c r="G435">
+        <v>14108</v>
+      </c>
+      <c r="H435">
+        <v>25700</v>
+      </c>
+      <c r="I435">
+        <v>40459</v>
+      </c>
+      <c r="J435">
+        <v>4</v>
+      </c>
+      <c r="K435">
+        <v>631</v>
+      </c>
+      <c r="L435">
+        <v>4</v>
+      </c>
+      <c r="M435">
+        <v>627</v>
+      </c>
+      <c r="N435">
+        <v>4</v>
+      </c>
+      <c r="O435">
+        <v>61</v>
+      </c>
+      <c r="P435">
+        <v>61</v>
+      </c>
+      <c r="Q435">
+        <v>2</v>
+      </c>
+      <c r="R435">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>Data</t>
   </si>
@@ -1370,6 +1370,12 @@
   </si>
   <si>
     <t>2021/06/06</t>
+  </si>
+  <si>
+    <t>2021/06/07</t>
+  </si>
+  <si>
+    <t>2021/06/08</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1733,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R435"/>
+  <dimension ref="A1:R437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25988,6 +25994,118 @@
         <v>63</v>
       </c>
     </row>
+    <row r="436" spans="1:18">
+      <c r="A436" t="s">
+        <v>452</v>
+      </c>
+      <c r="B436">
+        <v>435</v>
+      </c>
+      <c r="C436">
+        <v>14801</v>
+      </c>
+      <c r="D436">
+        <v>429</v>
+      </c>
+      <c r="E436">
+        <v>128</v>
+      </c>
+      <c r="F436">
+        <v>0.02898452807</v>
+      </c>
+      <c r="G436">
+        <v>14192</v>
+      </c>
+      <c r="H436">
+        <v>25700</v>
+      </c>
+      <c r="I436">
+        <v>40501</v>
+      </c>
+      <c r="J436">
+        <v>42</v>
+      </c>
+      <c r="K436">
+        <v>717</v>
+      </c>
+      <c r="L436">
+        <v>2</v>
+      </c>
+      <c r="M436">
+        <v>715</v>
+      </c>
+      <c r="N436">
+        <v>42</v>
+      </c>
+      <c r="O436">
+        <v>68</v>
+      </c>
+      <c r="P436">
+        <v>59</v>
+      </c>
+      <c r="Q436">
+        <v>7</v>
+      </c>
+      <c r="R436">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="437" spans="1:18">
+      <c r="A437" t="s">
+        <v>453</v>
+      </c>
+      <c r="B437">
+        <v>436</v>
+      </c>
+      <c r="C437">
+        <v>14939</v>
+      </c>
+      <c r="D437">
+        <v>432</v>
+      </c>
+      <c r="E437">
+        <v>150</v>
+      </c>
+      <c r="F437">
+        <v>0.02891759823</v>
+      </c>
+      <c r="G437">
+        <v>14305</v>
+      </c>
+      <c r="H437">
+        <v>25700</v>
+      </c>
+      <c r="I437">
+        <v>40639</v>
+      </c>
+      <c r="J437">
+        <v>138</v>
+      </c>
+      <c r="K437">
+        <v>570</v>
+      </c>
+      <c r="L437">
+        <v>2</v>
+      </c>
+      <c r="M437">
+        <v>568</v>
+      </c>
+      <c r="N437">
+        <v>138</v>
+      </c>
+      <c r="O437">
+        <v>61</v>
+      </c>
+      <c r="P437">
+        <v>60</v>
+      </c>
+      <c r="Q437">
+        <v>3</v>
+      </c>
+      <c r="R437">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>Data</t>
   </si>
@@ -1376,6 +1376,9 @@
   </si>
   <si>
     <t>2021/06/08</t>
+  </si>
+  <si>
+    <t>2021/06/09</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R437"/>
+  <dimension ref="A1:R438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26106,6 +26109,62 @@
         <v>63</v>
       </c>
     </row>
+    <row r="438" spans="1:18">
+      <c r="A438" t="s">
+        <v>454</v>
+      </c>
+      <c r="B438">
+        <v>437</v>
+      </c>
+      <c r="C438">
+        <v>15126</v>
+      </c>
+      <c r="D438">
+        <v>435</v>
+      </c>
+      <c r="E438">
+        <v>160</v>
+      </c>
+      <c r="F438">
+        <v>0.02875842919</v>
+      </c>
+      <c r="G438">
+        <v>14479</v>
+      </c>
+      <c r="H438">
+        <v>25700</v>
+      </c>
+      <c r="I438">
+        <v>40826</v>
+      </c>
+      <c r="J438">
+        <v>187</v>
+      </c>
+      <c r="K438">
+        <v>525</v>
+      </c>
+      <c r="L438">
+        <v>2</v>
+      </c>
+      <c r="M438">
+        <v>523</v>
+      </c>
+      <c r="N438">
+        <v>187</v>
+      </c>
+      <c r="O438">
+        <v>67</v>
+      </c>
+      <c r="P438">
+        <v>56</v>
+      </c>
+      <c r="Q438">
+        <v>3</v>
+      </c>
+      <c r="R438">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
   <si>
     <t>Data</t>
   </si>
@@ -1379,6 +1379,9 @@
   </si>
   <si>
     <t>2021/06/09</t>
+  </si>
+  <si>
+    <t>2021/06/10</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R438"/>
+  <dimension ref="A1:R439"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26165,6 +26168,62 @@
         <v>63</v>
       </c>
     </row>
+    <row r="439" spans="1:18">
+      <c r="A439" t="s">
+        <v>455</v>
+      </c>
+      <c r="B439">
+        <v>438</v>
+      </c>
+      <c r="C439">
+        <v>15285</v>
+      </c>
+      <c r="D439">
+        <v>439</v>
+      </c>
+      <c r="E439">
+        <v>189</v>
+      </c>
+      <c r="F439">
+        <v>0.02872096827</v>
+      </c>
+      <c r="G439">
+        <v>14604</v>
+      </c>
+      <c r="H439">
+        <v>25700</v>
+      </c>
+      <c r="I439">
+        <v>40985</v>
+      </c>
+      <c r="J439">
+        <v>159</v>
+      </c>
+      <c r="K439">
+        <v>589</v>
+      </c>
+      <c r="L439">
+        <v>1</v>
+      </c>
+      <c r="M439">
+        <v>588</v>
+      </c>
+      <c r="N439">
+        <v>159</v>
+      </c>
+      <c r="O439">
+        <v>75</v>
+      </c>
+      <c r="P439">
+        <v>57</v>
+      </c>
+      <c r="Q439">
+        <v>4</v>
+      </c>
+      <c r="R439">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
     <t>Data</t>
   </si>
@@ -1382,6 +1382,15 @@
   </si>
   <si>
     <t>2021/06/10</t>
+  </si>
+  <si>
+    <t>2021/06/11</t>
+  </si>
+  <si>
+    <t>2021/06/12</t>
+  </si>
+  <si>
+    <t>2021/06/13</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R439"/>
+  <dimension ref="A1:R442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26224,6 +26233,174 @@
         <v>63</v>
       </c>
     </row>
+    <row r="440" spans="1:18">
+      <c r="A440" t="s">
+        <v>456</v>
+      </c>
+      <c r="B440">
+        <v>439</v>
+      </c>
+      <c r="C440">
+        <v>15465</v>
+      </c>
+      <c r="D440">
+        <v>442</v>
+      </c>
+      <c r="E440">
+        <v>205</v>
+      </c>
+      <c r="F440">
+        <v>0.02858066602</v>
+      </c>
+      <c r="G440">
+        <v>14765</v>
+      </c>
+      <c r="H440">
+        <v>25700</v>
+      </c>
+      <c r="I440">
+        <v>41165</v>
+      </c>
+      <c r="J440">
+        <v>180</v>
+      </c>
+      <c r="K440">
+        <v>674</v>
+      </c>
+      <c r="L440">
+        <v>2</v>
+      </c>
+      <c r="M440">
+        <v>672</v>
+      </c>
+      <c r="N440">
+        <v>180</v>
+      </c>
+      <c r="O440">
+        <v>71</v>
+      </c>
+      <c r="P440">
+        <v>58</v>
+      </c>
+      <c r="Q440">
+        <v>3</v>
+      </c>
+      <c r="R440">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="441" spans="1:18">
+      <c r="A441" t="s">
+        <v>457</v>
+      </c>
+      <c r="B441">
+        <v>440</v>
+      </c>
+      <c r="C441">
+        <v>15546</v>
+      </c>
+      <c r="D441">
+        <v>443</v>
+      </c>
+      <c r="E441">
+        <v>181</v>
+      </c>
+      <c r="F441">
+        <v>0.02849607616</v>
+      </c>
+      <c r="G441">
+        <v>14869</v>
+      </c>
+      <c r="H441">
+        <v>25700</v>
+      </c>
+      <c r="I441">
+        <v>41246</v>
+      </c>
+      <c r="J441">
+        <v>81</v>
+      </c>
+      <c r="K441">
+        <v>610</v>
+      </c>
+      <c r="L441">
+        <v>2</v>
+      </c>
+      <c r="M441">
+        <v>608</v>
+      </c>
+      <c r="N441">
+        <v>81</v>
+      </c>
+      <c r="O441">
+        <v>71</v>
+      </c>
+      <c r="P441">
+        <v>58</v>
+      </c>
+      <c r="Q441">
+        <v>1</v>
+      </c>
+      <c r="R441">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="442" spans="1:18">
+      <c r="A442" t="s">
+        <v>458</v>
+      </c>
+      <c r="B442">
+        <v>441</v>
+      </c>
+      <c r="C442">
+        <v>15554</v>
+      </c>
+      <c r="D442">
+        <v>449</v>
+      </c>
+      <c r="E442">
+        <v>181</v>
+      </c>
+      <c r="F442">
+        <v>0.02886717243</v>
+      </c>
+      <c r="G442">
+        <v>14871</v>
+      </c>
+      <c r="H442">
+        <v>25700</v>
+      </c>
+      <c r="I442">
+        <v>41254</v>
+      </c>
+      <c r="J442">
+        <v>8</v>
+      </c>
+      <c r="K442">
+        <v>611</v>
+      </c>
+      <c r="L442">
+        <v>2</v>
+      </c>
+      <c r="M442">
+        <v>609</v>
+      </c>
+      <c r="N442">
+        <v>8</v>
+      </c>
+      <c r="O442">
+        <v>70</v>
+      </c>
+      <c r="P442">
+        <v>54</v>
+      </c>
+      <c r="Q442">
+        <v>6</v>
+      </c>
+      <c r="R442">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
   <si>
     <t>Data</t>
   </si>
@@ -1391,6 +1391,12 @@
   </si>
   <si>
     <t>2021/06/13</t>
+  </si>
+  <si>
+    <t>2021/06/14</t>
+  </si>
+  <si>
+    <t>2021/06/15</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R442"/>
+  <dimension ref="A1:R444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26401,6 +26407,118 @@
         <v>64</v>
       </c>
     </row>
+    <row r="443" spans="1:18">
+      <c r="A443" t="s">
+        <v>459</v>
+      </c>
+      <c r="B443">
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <v>15730</v>
+      </c>
+      <c r="D443">
+        <v>452</v>
+      </c>
+      <c r="E443">
+        <v>226</v>
+      </c>
+      <c r="F443">
+        <v>0.02873490146</v>
+      </c>
+      <c r="G443">
+        <v>14999</v>
+      </c>
+      <c r="H443">
+        <v>25700</v>
+      </c>
+      <c r="I443">
+        <v>41430</v>
+      </c>
+      <c r="J443">
+        <v>176</v>
+      </c>
+      <c r="K443">
+        <v>528</v>
+      </c>
+      <c r="L443">
+        <v>4</v>
+      </c>
+      <c r="M443">
+        <v>524</v>
+      </c>
+      <c r="N443">
+        <v>176</v>
+      </c>
+      <c r="O443">
+        <v>68</v>
+      </c>
+      <c r="P443">
+        <v>58</v>
+      </c>
+      <c r="Q443">
+        <v>3</v>
+      </c>
+      <c r="R443">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="444" spans="1:18">
+      <c r="A444" t="s">
+        <v>460</v>
+      </c>
+      <c r="B444">
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <v>15941</v>
+      </c>
+      <c r="D444">
+        <v>458</v>
+      </c>
+      <c r="E444">
+        <v>226</v>
+      </c>
+      <c r="F444">
+        <v>0.02873094536</v>
+      </c>
+      <c r="G444">
+        <v>15204</v>
+      </c>
+      <c r="H444">
+        <v>25700</v>
+      </c>
+      <c r="I444">
+        <v>41641</v>
+      </c>
+      <c r="J444">
+        <v>211</v>
+      </c>
+      <c r="K444">
+        <v>601</v>
+      </c>
+      <c r="L444">
+        <v>3</v>
+      </c>
+      <c r="M444">
+        <v>598</v>
+      </c>
+      <c r="N444">
+        <v>211</v>
+      </c>
+      <c r="O444">
+        <v>70</v>
+      </c>
+      <c r="P444">
+        <v>58</v>
+      </c>
+      <c r="Q444">
+        <v>6</v>
+      </c>
+      <c r="R444">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
   <si>
     <t>Data</t>
   </si>
@@ -1397,6 +1397,12 @@
   </si>
   <si>
     <t>2021/06/15</t>
+  </si>
+  <si>
+    <t>2021/06/16</t>
+  </si>
+  <si>
+    <t>2021/06/17</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R444"/>
+  <dimension ref="A1:R446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26519,6 +26525,118 @@
         <v>64</v>
       </c>
     </row>
+    <row r="445" spans="1:18">
+      <c r="A445" t="s">
+        <v>461</v>
+      </c>
+      <c r="B445">
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <v>16176</v>
+      </c>
+      <c r="D445">
+        <v>466</v>
+      </c>
+      <c r="E445">
+        <v>194</v>
+      </c>
+      <c r="F445">
+        <v>0.02880811078</v>
+      </c>
+      <c r="G445">
+        <v>15463</v>
+      </c>
+      <c r="H445">
+        <v>25700</v>
+      </c>
+      <c r="I445">
+        <v>41876</v>
+      </c>
+      <c r="J445">
+        <v>235</v>
+      </c>
+      <c r="K445">
+        <v>711</v>
+      </c>
+      <c r="L445">
+        <v>3</v>
+      </c>
+      <c r="M445">
+        <v>708</v>
+      </c>
+      <c r="N445">
+        <v>235</v>
+      </c>
+      <c r="O445">
+        <v>72</v>
+      </c>
+      <c r="P445">
+        <v>60</v>
+      </c>
+      <c r="Q445">
+        <v>8</v>
+      </c>
+      <c r="R445">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="446" spans="1:18">
+      <c r="A446" t="s">
+        <v>462</v>
+      </c>
+      <c r="B446">
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <v>16379</v>
+      </c>
+      <c r="D446">
+        <v>469</v>
+      </c>
+      <c r="E446">
+        <v>228</v>
+      </c>
+      <c r="F446">
+        <v>0.02863422675</v>
+      </c>
+      <c r="G446">
+        <v>15269</v>
+      </c>
+      <c r="H446">
+        <v>25700</v>
+      </c>
+      <c r="I446">
+        <v>42079</v>
+      </c>
+      <c r="J446">
+        <v>203</v>
+      </c>
+      <c r="K446">
+        <v>859</v>
+      </c>
+      <c r="L446">
+        <v>2</v>
+      </c>
+      <c r="M446">
+        <v>857</v>
+      </c>
+      <c r="N446">
+        <v>203</v>
+      </c>
+      <c r="O446">
+        <v>62</v>
+      </c>
+      <c r="P446">
+        <v>59</v>
+      </c>
+      <c r="Q446">
+        <v>3</v>
+      </c>
+      <c r="R446">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
   <si>
     <t>Data</t>
   </si>
@@ -1403,6 +1403,12 @@
   </si>
   <si>
     <t>2021/06/17</t>
+  </si>
+  <si>
+    <t>2021/06/18</t>
+  </si>
+  <si>
+    <t>2021/06/19</t>
   </si>
 </sst>
 </file>
@@ -1760,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R446"/>
+  <dimension ref="A1:R448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26637,6 +26643,118 @@
         <v>64</v>
       </c>
     </row>
+    <row r="447" spans="1:18">
+      <c r="A447" t="s">
+        <v>463</v>
+      </c>
+      <c r="B447">
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <v>16571</v>
+      </c>
+      <c r="D447">
+        <v>472</v>
+      </c>
+      <c r="E447">
+        <v>225</v>
+      </c>
+      <c r="F447">
+        <v>0.02848349526</v>
+      </c>
+      <c r="G447">
+        <v>15801</v>
+      </c>
+      <c r="H447">
+        <v>25700</v>
+      </c>
+      <c r="I447">
+        <v>42271</v>
+      </c>
+      <c r="J447">
+        <v>192</v>
+      </c>
+      <c r="K447">
+        <v>721</v>
+      </c>
+      <c r="L447">
+        <v>2</v>
+      </c>
+      <c r="M447">
+        <v>719</v>
+      </c>
+      <c r="N447">
+        <v>192</v>
+      </c>
+      <c r="O447">
+        <v>65</v>
+      </c>
+      <c r="P447">
+        <v>61</v>
+      </c>
+      <c r="Q447">
+        <v>3</v>
+      </c>
+      <c r="R447">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="448" spans="1:18">
+      <c r="A448" t="s">
+        <v>464</v>
+      </c>
+      <c r="B448">
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <v>16635</v>
+      </c>
+      <c r="D448">
+        <v>479</v>
+      </c>
+      <c r="E448">
+        <v>197</v>
+      </c>
+      <c r="F448">
+        <v>0.02879470995</v>
+      </c>
+      <c r="G448">
+        <v>15906</v>
+      </c>
+      <c r="H448">
+        <v>25700</v>
+      </c>
+      <c r="I448">
+        <v>42335</v>
+      </c>
+      <c r="J448">
+        <v>64</v>
+      </c>
+      <c r="K448">
+        <v>717</v>
+      </c>
+      <c r="L448">
+        <v>1</v>
+      </c>
+      <c r="M448">
+        <v>716</v>
+      </c>
+      <c r="N448">
+        <v>64</v>
+      </c>
+      <c r="O448">
+        <v>65</v>
+      </c>
+      <c r="P448">
+        <v>63</v>
+      </c>
+      <c r="Q448">
+        <v>7</v>
+      </c>
+      <c r="R448">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
   <si>
     <t>Data</t>
   </si>
@@ -1409,6 +1409,9 @@
   </si>
   <si>
     <t>2021/06/19</t>
+  </si>
+  <si>
+    <t>2021/06/20</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R448"/>
+  <dimension ref="A1:R449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26755,6 +26758,62 @@
         <v>64</v>
       </c>
     </row>
+    <row r="449" spans="1:18">
+      <c r="A449" t="s">
+        <v>465</v>
+      </c>
+      <c r="B449">
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <v>16637</v>
+      </c>
+      <c r="D449">
+        <v>15908</v>
+      </c>
+      <c r="E449">
+        <v>196</v>
+      </c>
+      <c r="F449">
+        <v>0.956182004</v>
+      </c>
+      <c r="G449">
+        <v>15908</v>
+      </c>
+      <c r="H449">
+        <v>25700</v>
+      </c>
+      <c r="I449">
+        <v>42337</v>
+      </c>
+      <c r="J449">
+        <v>2</v>
+      </c>
+      <c r="K449">
+        <v>718</v>
+      </c>
+      <c r="L449">
+        <v>1</v>
+      </c>
+      <c r="M449">
+        <v>717</v>
+      </c>
+      <c r="N449">
+        <v>2</v>
+      </c>
+      <c r="O449">
+        <v>66</v>
+      </c>
+      <c r="P449">
+        <v>63</v>
+      </c>
+      <c r="Q449">
+        <v>15429</v>
+      </c>
+      <c r="R449">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
     <t>Data</t>
   </si>
@@ -1412,6 +1412,9 @@
   </si>
   <si>
     <t>2021/06/20</t>
+  </si>
+  <si>
+    <t>2021/06/21</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R449"/>
+  <dimension ref="A1:R450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26769,7 +26772,7 @@
         <v>16637</v>
       </c>
       <c r="D449">
-        <v>15908</v>
+        <v>480</v>
       </c>
       <c r="E449">
         <v>196</v>
@@ -26808,9 +26811,65 @@
         <v>63</v>
       </c>
       <c r="Q449">
-        <v>15429</v>
+        <v>1</v>
       </c>
       <c r="R449">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="450" spans="1:18">
+      <c r="A450" t="s">
+        <v>466</v>
+      </c>
+      <c r="B450">
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <v>16788</v>
+      </c>
+      <c r="D450">
+        <v>482</v>
+      </c>
+      <c r="E450">
+        <v>169</v>
+      </c>
+      <c r="F450">
+        <v>0.02871098404</v>
+      </c>
+      <c r="G450">
+        <v>16084</v>
+      </c>
+      <c r="H450">
+        <v>25700</v>
+      </c>
+      <c r="I450">
+        <v>42488</v>
+      </c>
+      <c r="J450">
+        <v>151</v>
+      </c>
+      <c r="K450">
+        <v>683</v>
+      </c>
+      <c r="L450">
+        <v>1</v>
+      </c>
+      <c r="M450">
+        <v>682</v>
+      </c>
+      <c r="N450">
+        <v>151</v>
+      </c>
+      <c r="O450">
+        <v>65</v>
+      </c>
+      <c r="P450">
+        <v>64</v>
+      </c>
+      <c r="Q450">
+        <v>2</v>
+      </c>
+      <c r="R450">
         <v>65</v>
       </c>
     </row>

--- a/Dados/dados_dygraph2.xlsx
+++ b/Dados/dados_dygraph2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="468">
   <si>
     <t>Data</t>
   </si>
@@ -1415,6 +1415,9 @@
   </si>
   <si>
     <t>2021/06/21</t>
+  </si>
+  <si>
+    <t>2021/06/22</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R450"/>
+  <dimension ref="A1:R451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4378,7 +4381,7 @@
         <v>13</v>
       </c>
       <c r="F49">
-        <v>0.03846153846</v>
+        <v>0.03846153846000001</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -4434,7 +4437,7 @@
         <v>14</v>
       </c>
       <c r="F50">
-        <v>0.03773584906</v>
+        <v>0.03773584906000001</v>
       </c>
       <c r="G50">
         <v>37</v>
@@ -4490,7 +4493,7 @@
         <v>15</v>
       </c>
       <c r="F51">
-        <v>0.05263157895</v>
+        <v>0.05263157894999999</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -4546,7 +4549,7 @@
         <v>15</v>
       </c>
       <c r="F52">
-        <v>0.05263157895</v>
+        <v>0.05263157894999999</v>
       </c>
       <c r="G52">
         <v>39</v>
@@ -4658,7 +4661,7 @@
         <v>20</v>
       </c>
       <c r="F54">
-        <v>0.06060606061</v>
+        <v>0.06060606061000001</v>
       </c>
       <c r="G54">
         <v>42</v>
@@ -6618,7 +6621,7 @@
         <v>124</v>
       </c>
       <c r="F89">
-        <v>0.03345724907</v>
+        <v>0.03345724906999999</v>
       </c>
       <c r="G89">
         <v>393</v>
@@ -9474,7 +9477,7 @@
         <v>53</v>
       </c>
       <c r="F140">
-        <v>0.02951838426</v>
+        <v>0.02951838426000001</v>
       </c>
       <c r="G140">
         <v>1810</v>
@@ -24370,7 +24373,7 @@
         <v>137</v>
       </c>
       <c r="F406">
-        <v>0.02810322989</v>
+        <v>0.02810322988999999</v>
       </c>
       <c r="G406">
         <v>12101</v>
@@ -26778,7 +26781,7 @@
         <v>196</v>
       </c>
       <c r="F449">
-        <v>0.956182004</v>
+        <v>0.9561820040000001</v>
       </c>
       <c r="G449">
         <v>15908</v>
@@ -26834,7 +26837,7 @@
         <v>169</v>
       </c>
       <c r="F450">
-        <v>0.02871098404</v>
+        <v>0.02871098403999999</v>
       </c>
       <c r="G450">
         <v>16084</v>
@@ -26870,6 +26873,62 @@
         <v>2</v>
       </c>
       <c r="R450">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="451" spans="1:18">
+      <c r="A451" t="s">
+        <v>467</v>
+      </c>
+      <c r="B451">
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <v>16950</v>
+      </c>
+      <c r="D451">
+        <v>483</v>
+      </c>
+      <c r="E451">
+        <v>167</v>
+      </c>
+      <c r="F451">
+        <v>0.02849557522</v>
+      </c>
+      <c r="G451">
+        <v>16247</v>
+      </c>
+      <c r="H451">
+        <v>25700</v>
+      </c>
+      <c r="I451">
+        <v>42650</v>
+      </c>
+      <c r="J451">
+        <v>162</v>
+      </c>
+      <c r="K451">
+        <v>751</v>
+      </c>
+      <c r="L451">
+        <v>1</v>
+      </c>
+      <c r="M451">
+        <v>750</v>
+      </c>
+      <c r="N451">
+        <v>162</v>
+      </c>
+      <c r="O451">
+        <v>60</v>
+      </c>
+      <c r="P451">
+        <v>65</v>
+      </c>
+      <c r="Q451">
+        <v>1</v>
+      </c>
+      <c r="R451">
         <v>65</v>
       </c>
     </row>
